--- a/Automatic eHP Calculator.xlsx
+++ b/Automatic eHP Calculator.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83731776-40A2-476E-BA08-121D732F4B75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CADA7-5426-4CB2-9F27-21713EAA4D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eHP Calc" sheetId="1" r:id="rId1"/>
-    <sheet name="Ship Stats" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Background Tables" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Ship Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="Background Tables" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Application">'Background Tables'!$J$29:$J$30</definedName>
@@ -1778,6 +1778,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1787,13 +1788,2371 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="430">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2B2B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF85D6FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2600,6 +4959,7 @@
   <colors>
     <mruColors>
       <color rgb="FFF3F3F3"/>
+      <color rgb="FF2B2B2B"/>
       <color rgb="FFFF7171"/>
       <color rgb="FFCFE2F3"/>
       <color rgb="FFD1E9FB"/>
@@ -2621,24 +4981,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12392C09-0F0E-4DA1-A5C3-D721E8AEBE2E}" name="Table24" displayName="Table24" ref="A1:E26" totalsRowShown="0" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12392C09-0F0E-4DA1-A5C3-D721E8AEBE2E}" name="Table24" displayName="Table24" ref="A1:E26" totalsRowShown="0" dataDxfId="429">
   <autoFilter ref="A1:E26" xr:uid="{0D56F3AA-DC4A-485C-9974-BEF06B07519C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B06AEEF8-F51C-4D82-8AAC-5C5921F7709D}" name="Gun Type"/>
     <tableColumn id="2" xr3:uid="{6EC50C93-1FA8-4FCD-94C0-8368B510959C}" name="Ammo"/>
-    <tableColumn id="3" xr3:uid="{260D86E6-3332-4AA0-9166-0095E35710E6}" name="Light" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{0A4F5395-51BB-4099-91EE-E8F0FA8305F2}" name="Medium" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{84F3AB1E-A0A5-4425-84CF-282C7369C5A3}" name="Heavy" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{260D86E6-3332-4AA0-9166-0095E35710E6}" name="Light" dataDxfId="428"/>
+    <tableColumn id="4" xr3:uid="{0A4F5395-51BB-4099-91EE-E8F0FA8305F2}" name="Medium" dataDxfId="427"/>
+    <tableColumn id="5" xr3:uid="{84F3AB1E-A0A5-4425-84CF-282C7369C5A3}" name="Heavy" dataDxfId="426"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2E0FA14-4F8C-45C9-9F40-470E16CA26F2}" name="Table2" displayName="Table2" ref="I28:I41" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2E0FA14-4F8C-45C9-9F40-470E16CA26F2}" name="Table2" displayName="Table2" ref="I28:I41" totalsRowShown="0" headerRowDxfId="421" dataDxfId="420">
   <autoFilter ref="I28:I41" xr:uid="{2025355D-0CBF-42F6-84F7-CCF0141134A5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F7AA5280-9281-4AA3-953C-F277228E6B80}" name="Hull Class 2" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{F7AA5280-9281-4AA3-953C-F277228E6B80}" name="Hull Class 2" dataDxfId="419"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2715,10 +5075,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4C20D48-84C6-4B5D-8EB3-4014C0BDF608}" name="Hull" displayName="Hull" ref="B28:B33" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4C20D48-84C6-4B5D-8EB3-4014C0BDF608}" name="Hull" displayName="Hull" ref="B28:B33" totalsRowShown="0" headerRowDxfId="425" dataDxfId="424" tableBorderDxfId="423">
   <autoFilter ref="B28:B33" xr:uid="{4F7E1C47-FB5E-4E98-A28A-321A928E5123}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EB97A1AF-8DD2-4D44-92D2-3BB09BA6DF6E}" name="Hull Class" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{EB97A1AF-8DD2-4D44-92D2-3BB09BA6DF6E}" name="Hull Class" dataDxfId="422"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3037,7 +5397,7 @@
   <dimension ref="A1:Z245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3222,28 +5582,28 @@
       <c r="Z4" s="16"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="38" t="s">
         <v>471</v>
       </c>
       <c r="I5" s="32" t="s">
@@ -3285,10 +5645,10 @@
       <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="L7" s="14"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -3351,17 +5711,13 @@
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
-      <c r="D9" s="33">
-        <v>15</v>
-      </c>
+      <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="33">
-        <v>0.4</v>
-      </c>
+      <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="40">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="16"/>
@@ -3397,14 +5753,14 @@
       <c r="Z10" s="16"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="E11" s="45" t="s">
+      <c r="B11" s="49"/>
+      <c r="E11" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="16"/>
       <c r="L11" s="3"/>
       <c r="N11" s="16"/>
@@ -3422,10 +5778,10 @@
       <c r="Z11" s="16"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="34" t="s">
         <v>400</v>
       </c>
@@ -3459,12 +5815,12 @@
       <c r="Z12" s="16"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="44"/>
+      <c r="A13" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="45"/>
       <c r="C13" s="27">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E13" s="10">
         <v>45</v>
@@ -3561,36 +5917,36 @@
         <v>CL</v>
       </c>
       <c r="B16" s="13">
-        <f>IF(B5="Manual",B9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!D2:D1000,IF(C13=100,'Ship Stats'!O2:O1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0))</f>
-        <v>3076</v>
+        <f>_xlfn.IFS(J5="Manual",B9,J5="Automatic",IFERROR(INDEX(IF(C13=120,'Ship Stats'!D2:D1000,IF(C13=100,'Ship Stats'!O2:O1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0),J5="Mixed",IF(B5="Manual",B9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!D2:D1000,IF(C13=100,'Ship Stats'!O2:O1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0)))</f>
+        <v>2855</v>
       </c>
       <c r="C16" s="13">
-        <f>IF(C5="Manual",C9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!E2:E1000,IF(C13=100,'Ship Stats'!P2:P1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0))</f>
-        <v>73</v>
+        <f>_xlfn.IFS(J5="Manual",C9,J5="Automatic",IFERROR(INDEX(IF(C13=120,'Ship Stats'!E2:E1000,IF(C13=100,'Ship Stats'!P2:P1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0),J5="Mixed",IF(C5="Manual",C9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!E2:E1000,IF(C13=100,'Ship Stats'!P2:P1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0)))</f>
+        <v>108</v>
       </c>
       <c r="D16" s="13">
-        <f>IF(D5="Manual",D9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!F2:F1000,IF(C13=100,'Ship Stats'!Q2:Q1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0))</f>
-        <v>88</v>
+        <f>_xlfn.IFS(J5="Manual",D9,J5="Automatic",IFERROR(INDEX(IF(C13=120,'Ship Stats'!F2:F1000,IF(C13=100,'Ship Stats'!Q2:Q1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0),J5="Mixed",IF(D5="Manual",D9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!F2:F1000,IF(C13=100,'Ship Stats'!Q2:Q1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0)))</f>
+        <v>38</v>
       </c>
       <c r="E16" s="13" t="str">
-        <f>IF(E5="Manual",E9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!G2:G1000,IF(C13=100,'Ship Stats'!R2:R1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),"General"))</f>
+        <f>_xlfn.IFS(J5="Manual",IFERROR(E9,"General"),J5="Automatic",IFERROR(INDEX(IF(C13=120,'Ship Stats'!G2:G1000,IF(C13=100,'Ship Stats'!R2:R1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),"General"),J5="Mixed",IF(E5="Manual",E9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!G2:G1000,IF(C13=100,'Ship Stats'!R2:R1000,"General")),MATCH(A13,'Ship Stats'!B2:B1000,0)),"General")))</f>
         <v>Light</v>
       </c>
       <c r="F16" s="39">
-        <f>IF(F5="Manual",F9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!H2:H1000,IF(C13=100,'Ship Stats'!S2:S1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0))</f>
+        <f>_xlfn.IFS(J5="Manual",F9,J5="Automatic",IFERROR(INDEX(IF(C13=120,'Ship Stats'!H2:H1000,IF(C13=100,'Ship Stats'!S2:S1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0),J5="Mixed",IF(F5="Manual",F9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!H2:H1000,IF(C13=100,'Ship Stats'!S2:S1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0)))</f>
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <f>IF(G5="Manual",G9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!I2:I1000,IF(C13=100,'Ship Stats'!T2:T1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0))</f>
+        <f>_xlfn.IFS(J5="Manual",G9,J5="Automatic",IFERROR(INDEX(IF(C13=120,'Ship Stats'!I2:I1000,IF(C13=100,'Ship Stats'!T2:T1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0),J5="Mixed",IF(G5="Manual",G9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!I2:I1000,IF(C13=100,'Ship Stats'!T2:T1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0)))</f>
         <v>0</v>
       </c>
       <c r="H16" s="13">
-        <f>IF(H5="Manual",H9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!J2:J1000,IF(C13=100,'Ship Stats'!U2:U1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0))</f>
-        <v>0</v>
+        <f>_xlfn.IFS(J5="Manual",H9,J5="Automatic",IFERROR(INDEX(IF(C13=120,'Ship Stats'!J2:J1000,IF(C13=100,'Ship Stats'!U2:U1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0),J5="Mixed",IF(H5="Manual",H9,IFERROR(INDEX(IF(C13=120,'Ship Stats'!J2:J1000,IF(C13=100,'Ship Stats'!U2:U1000,0)),MATCH(A13,'Ship Stats'!B2:B1000,0)),0)))</f>
+        <v>0.2</v>
       </c>
       <c r="I16" s="32">
         <f>I9</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L16" s="16"/>
       <c r="N16" s="16"/>
@@ -3687,43 +6043,43 @@
       </c>
       <c r="B19" s="5">
         <f>IF($A$2="Yes",ROUND(((B16+(B16*I16))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off")</f>
-        <v>9935</v>
+        <v>10129</v>
       </c>
       <c r="C19" s="6">
         <f>IF($B$2="Yes",IF($A$2="Yes",ROUND(((B16+266+(B16+266)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>10795</v>
+        <v>11073</v>
       </c>
       <c r="D19" s="5">
         <f>IF($C$2="Yes",IF($A$2="Yes",ROUND(((B16+44+(B16+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11455</v>
+        <v>11197</v>
       </c>
       <c r="E19" s="6">
         <f>IF($D$2="Yes",IF($A$2="Yes",ROUND(((B16+245+(B16+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>10727</v>
+        <v>10998</v>
       </c>
       <c r="F19" s="6">
         <f>IF($E$2="Yes",IF($A$2="Yes",ROUND(((B16+350+(B16+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11512</v>
+        <v>11672</v>
       </c>
       <c r="G19" s="6">
         <f>IF($F$2="Yes",IF($A$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+(B16+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11066</v>
+        <v>11371</v>
       </c>
       <c r="H19" s="6">
         <f>IF($G$2="Yes",IF($A$2="Yes",ROUND(((B16+500+(B16+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11920</v>
+        <v>12379</v>
       </c>
       <c r="I19" s="6">
         <f>IF($H$2="Yes",IF($A$2="Yes",ROUND(((B16+B16*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11134</v>
+        <v>10923</v>
       </c>
       <c r="J19" s="6">
         <f>IF($I$2="Yes",IF($A$2="Yes",ROUND(((B16+75+(B16+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13028</v>
+        <v>12256</v>
       </c>
       <c r="K19" s="6">
         <f>IF($J$2="Yes",IF($A$2="Yes",ROUND((((B16+60+(B16+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>13781</v>
+        <v>12831</v>
       </c>
       <c r="L19" s="16"/>
       <c r="N19" s="16"/>
@@ -3747,43 +6103,43 @@
       </c>
       <c r="B20" s="5">
         <f>IF($A$2="Yes",IF($B$2="Yes",ROUND((((B16+266)+(B16+266)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>10795</v>
+        <v>11073</v>
       </c>
       <c r="C20" s="6">
         <f>IF($B$2="Yes",ROUND(((B16+266+266+(B16+266+266)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off")</f>
-        <v>11654</v>
+        <v>12017</v>
       </c>
       <c r="D20" s="6">
         <f>IF($C$2="Yes",IF($B$2="Yes",ROUND(((B16+266+44+(B16+266+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12431</v>
+        <v>12225</v>
       </c>
       <c r="E20" s="6">
         <f>IF($D$2="Yes",IF($B$2="Yes",ROUND(((B16+266+245+(B16+266+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11586</v>
+        <v>11942</v>
       </c>
       <c r="F20" s="6">
         <f>IF($E$2="Yes",IF($B$2="Yes",ROUND(((B16+266+350+(B16+266+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12406</v>
+        <v>12640</v>
       </c>
       <c r="G20" s="6">
         <f>IF($F$2="Yes",IF($B$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+266+350+(B16+266+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11925</v>
+        <v>12315</v>
       </c>
       <c r="H20" s="6">
         <f>IF($G$2="Yes",IF($B$2="Yes",ROUND(((B16+266+500+(B16+266+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+266+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12807</v>
+        <v>13361</v>
       </c>
       <c r="I20" s="6">
         <f>IF($H$2="Yes",IF($B$2="Yes",ROUND(((B16+266+(B16+266)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12097</v>
+        <v>11941</v>
       </c>
       <c r="J20" s="6">
         <f>IF($I$2="Yes",IF($B$2="Yes",ROUND(((B16+266+75+(B16+266+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14128</v>
+        <v>13368</v>
       </c>
       <c r="K20" s="6">
         <f>IF($J$2="Yes",IF($B$2="Yes",ROUND((((B16+266+60+(B16+266+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>14950</v>
+        <v>14002</v>
       </c>
       <c r="L20" s="16"/>
       <c r="N20" s="16"/>
@@ -3807,43 +6163,43 @@
       </c>
       <c r="B21" s="5">
         <f>IF($A$2="Yes",IF($C$2="Yes",ROUND(((B16+44+(B16+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11455</v>
+        <v>11197</v>
       </c>
       <c r="C21" s="5">
         <f>IF($B$2="Yes",IF($C$2="Yes",ROUND(((B16+266+44+(B16+266+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12431</v>
+        <v>12225</v>
       </c>
       <c r="D21" s="5">
         <f>IF($C$2="Yes",ROUND(((B16+44+44+(B16+44+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+17)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off")</f>
-        <v>13001</v>
+        <v>12259</v>
       </c>
       <c r="E21" s="5">
         <f>IF($D$2="Yes",IF($C$2="Yes",ROUND(((B16+44+245+(B16+44+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12354</v>
+        <v>12144</v>
       </c>
       <c r="F21" s="5">
         <f>IF($E$2="Yes",IF($C$2="Yes",ROUND(((B16+44+350+(B16+44+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+5)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13188</v>
+        <v>12842</v>
       </c>
       <c r="G21" s="5">
         <f>IF($F$2="Yes",IF($C$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+44+350+(B16+44+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12740</v>
+        <v>12549</v>
       </c>
       <c r="H21" s="5">
         <f>IF($G$2="Yes",IF($C$2="Yes",ROUND(((B16+44+500+(B16+44+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+44+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13716</v>
+        <v>13654</v>
       </c>
       <c r="I21" s="5">
         <f>IF($H$2="Yes",IF($C$2="Yes",ROUND(((B16+44+(B16+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12660</v>
+        <v>11974</v>
       </c>
       <c r="J21" s="5">
         <f>IF($I$2="Yes",IF($C$2="Yes",ROUND(((B16+44+75+(B16+44+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14596</v>
+        <v>13306</v>
       </c>
       <c r="K21" s="5">
         <f>IF($J$2="Yes",IF($C$2="Yes",ROUND((((B16+44+60+(B16+44+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>15392</v>
+        <v>13903</v>
       </c>
       <c r="L21" s="16"/>
       <c r="N21" s="16"/>
@@ -3867,43 +6223,43 @@
       </c>
       <c r="B22" s="5">
         <f>IF($A$2="Yes",IF($D$2="Yes",ROUND(((B16+245+(B16+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>10727</v>
+        <v>10998</v>
       </c>
       <c r="C22" s="5">
         <f>IF($B$2="Yes",IF($D$2="Yes",ROUND(((B16+266+245+(B16+266+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11586</v>
+        <v>11942</v>
       </c>
       <c r="D22" s="5">
         <f>IF($C$2="Yes",IF($D$2="Yes",ROUND(((B16+44+245+(B16+44+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12354</v>
+        <v>12144</v>
       </c>
       <c r="E22" s="5">
         <f>IF($D$2="Yes",ROUND(((B16+245+245+(B16+245+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off")</f>
-        <v>11518</v>
+        <v>11868</v>
       </c>
       <c r="F22" s="5">
         <f>IF($E$2="Yes",IF($D$2="Yes",ROUND(((B16+245+350+(B16+245+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12335</v>
+        <v>12564</v>
       </c>
       <c r="G22" s="5">
         <f>IF($F$2="Yes",IF($D$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+245+350+(B16+245+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11857</v>
+        <v>12240</v>
       </c>
       <c r="H22" s="5">
         <f>IF($G$2="Yes",IF($D$2="Yes",ROUND(((B16+245+500+(B16+245+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+245+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12737</v>
+        <v>13283</v>
       </c>
       <c r="I22" s="5">
         <f>IF($H$2="Yes",IF($D$2="Yes",ROUND(((B16+245+(B16+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12021</v>
+        <v>11861</v>
       </c>
       <c r="J22" s="5">
         <f>IF($I$2="Yes",IF($D$2="Yes",ROUND(((B16+245+75+(B16+245+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14041</v>
+        <v>13280</v>
       </c>
       <c r="K22" s="5">
         <f>IF($J$2="Yes",IF($D$2="Yes",ROUND((((B16+245+60+(B16+245+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>14857</v>
+        <v>13909</v>
       </c>
       <c r="L22" s="16"/>
       <c r="N22" s="16"/>
@@ -3927,43 +6283,43 @@
       </c>
       <c r="B23" s="5">
         <f>IF($A$2="Yes",IF($E$2="Yes",ROUND(((B16+350+(B16+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11512</v>
+        <v>11672</v>
       </c>
       <c r="C23" s="5">
         <f>IF($B$2="Yes",IF($E$2="Yes",ROUND(((B16+266+350+(B16+266+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12406</v>
+        <v>12640</v>
       </c>
       <c r="D23" s="5">
         <f>IF($C$2="Yes",IF($E$2="Yes",ROUND(((B16+44+350+(B16+44+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+5)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13188</v>
+        <v>12842</v>
       </c>
       <c r="E23" s="5">
         <f>IF($D$2="Yes",IF($E$2="Yes",ROUND(((B16+245+350+(B16+245+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12335</v>
+        <v>12564</v>
       </c>
       <c r="F23" s="5">
         <f>IF($E$2="Yes",ROUND(((B16+350+350+(B16+350+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5+5)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off")</f>
-        <v>13179</v>
+        <v>13276</v>
       </c>
       <c r="G23" s="5">
         <f>IF($F$2="Yes",IF($E$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+350+(B16+350+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12688</v>
+        <v>12946</v>
       </c>
       <c r="H23" s="5">
         <f>IF($G$2="Yes",IF($E$2="Yes",ROUND(((B16+350+500+(B16+350+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+350+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13614</v>
+        <v>14032</v>
       </c>
       <c r="I23" s="5">
         <f>IF($H$2="Yes",IF($E$2="Yes",ROUND(((B16+350+(B16+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12844</v>
+        <v>12553</v>
       </c>
       <c r="J23" s="5">
         <f>IF($I$2="Yes",IF($E$2="Yes",ROUND(((B16+350+75+(B16+350+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14923</v>
+        <v>14004</v>
       </c>
       <c r="K23" s="5">
         <f>IF($E$2="Yes",IF($J$2="Yes",ROUND((((B16+350+60+(B16+350+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>15777</v>
+        <v>14660</v>
       </c>
       <c r="L23" s="16"/>
       <c r="N23" s="16"/>
@@ -3987,43 +6343,43 @@
       </c>
       <c r="B24" s="5">
         <f>IF($A$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+(B16+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11066</v>
+        <v>11371</v>
       </c>
       <c r="C24" s="5">
         <f>IF($B$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+266+350+(B16+350+266)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11925</v>
+        <v>12315</v>
       </c>
       <c r="D24" s="5">
         <f>IF($C$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+44+350+(B16+350+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12740</v>
+        <v>12549</v>
       </c>
       <c r="E24" s="5">
         <f>IF($D$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+245+350+(B16+350+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11857</v>
+        <v>12240</v>
       </c>
       <c r="F24" s="5">
         <f>IF($E$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+350+(B16+350+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12688</v>
+        <v>12946</v>
       </c>
       <c r="G24" s="5">
         <f>IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+350+(B16+350+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off")</f>
-        <v>12196</v>
+        <v>12613</v>
       </c>
       <c r="H24" s="5">
         <f>IF($G$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+500+(B16+350+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+350+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>13087</v>
+        <v>13671</v>
       </c>
       <c r="I24" s="5">
         <f>IF($H$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+(B16+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12401</v>
+        <v>12263</v>
       </c>
       <c r="J24" s="5">
         <f>IF($I$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+75+(B16+350+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>14475</v>
+        <v>13720</v>
       </c>
       <c r="K24" s="5">
         <f>IF($J$2="Yes",IF($F$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND((((B16+350+60+(B16+350+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1))/IF($K$2="Yes",0.97,1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>15319</v>
+        <v>14371</v>
       </c>
       <c r="L24" s="16"/>
       <c r="N24" s="16"/>
@@ -4047,43 +6403,43 @@
       </c>
       <c r="B25" s="5">
         <f>IF($A$2="Yes",IF($G$2="Yes",ROUND(((B16+500+(B16+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11920</v>
+        <v>12379</v>
       </c>
       <c r="C25" s="5">
         <f>IF($B$2="Yes",IF($G$2="Yes",ROUND(((B16+266+500+(B16+500+266)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+266+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+(C16*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12807</v>
+        <v>13361</v>
       </c>
       <c r="D25" s="5">
         <f>IF($C$2="Yes",IF($G$2="Yes",ROUND(((B16+44+500+(B16+500+44)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+44+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13716</v>
+        <v>13654</v>
       </c>
       <c r="E25" s="5">
         <f>IF($D$2="Yes",IF($G$2="Yes",ROUND(((B16+245+500+(B16+500+245)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+245+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12737</v>
+        <v>13283</v>
       </c>
       <c r="F25" s="5">
         <f>IF($E$2="Yes",IF($G$2="Yes",ROUND(((B16+350+500+(B16+500+350)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+350+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13614</v>
+        <v>14032</v>
       </c>
       <c r="G25" s="5">
         <f>IF($F$2="Yes",IF($G$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+500+(B16+500+350)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+350+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>13087</v>
+        <v>13671</v>
       </c>
       <c r="H25" s="5">
         <f>IF($G$2="Yes",ROUND(((B16+500+500+(B16+500+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+0)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off")</f>
-        <v>13587</v>
+        <v>14224</v>
       </c>
       <c r="I25" s="5">
         <f>IF($H$2="Yes",IF($G$2="Yes",ROUND(((B16+500+(B16+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13358</v>
+        <v>13350</v>
       </c>
       <c r="J25" s="5">
         <f>IF($I$2="Yes",IF($G$2="Yes",ROUND(((B16+500+75+(B16+500+75)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500+75),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15579</v>
+        <v>14921</v>
       </c>
       <c r="K25" s="5">
         <f>IF($J$2="Yes",IF($G$2="Yes",ROUND((((B16+500+60+(B16+500+60)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500+60),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>16489</v>
+        <v>15633</v>
       </c>
       <c r="L25" s="16"/>
       <c r="N25" s="16"/>
@@ -4107,43 +6463,43 @@
       </c>
       <c r="B26" s="5">
         <f>IF($A$2="Yes",IF($H$2="Yes",ROUND(((B16+(B16)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11134</v>
+        <v>10923</v>
       </c>
       <c r="C26" s="5">
         <f>IF($B$2="Yes",IF($H$2="Yes",ROUND(((B16+266+(B16+266)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12097</v>
+        <v>11941</v>
       </c>
       <c r="D26" s="25">
         <f>IF($C$2="Yes",IF($H$2="Yes",ROUND(((B16+44+(B16+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12660</v>
+        <v>11974</v>
       </c>
       <c r="E26" s="5">
         <f>IF($D$2="Yes",IF($H$2="Yes",ROUND(((B16+245+(B16+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12021</v>
+        <v>11861</v>
       </c>
       <c r="F26" s="5">
         <f>IF($E$2="Yes",IF($H$2="Yes",ROUND(((B16+350+(B16+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12844</v>
+        <v>12553</v>
       </c>
       <c r="G26" s="5">
         <f>IF($F$2="Yes",IF($H$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+(B16+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12401</v>
+        <v>12263</v>
       </c>
       <c r="H26" s="5">
         <f>IF($G$2="Yes",IF($H$2="Yes",ROUND(((B16+500+(B16+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13358</v>
+        <v>13350</v>
       </c>
       <c r="I26" s="5">
         <f>IF($H$2="Yes",ROUND(((B16+(B16)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15+15)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off")</f>
-        <v>12324</v>
+        <v>11691</v>
       </c>
       <c r="J26" s="5">
         <f>IF($I$2="Yes",IF($H$2="Yes",ROUND(((B16+75+(B16+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14234</v>
+        <v>13010</v>
       </c>
       <c r="K26" s="5">
         <f>IF($J$2="Yes",IF($H$2="Yes",ROUND((((B16+60+(B16+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>15015</v>
+        <v>13596</v>
       </c>
       <c r="L26" s="16"/>
       <c r="N26" s="16"/>
@@ -4167,42 +6523,42 @@
       </c>
       <c r="B27" s="7">
         <f>IF($A$2="Yes",IF($I$2="Yes",ROUND(((B16+75+(B16+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13028</v>
+        <v>12256</v>
       </c>
       <c r="C27" s="5">
         <f>IF($B$2="Yes",IF($I$2="Yes",ROUND(((B16+266+75+(B16+75+266)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14128</v>
+        <v>13368</v>
       </c>
       <c r="D27" s="5">
         <f>IF($C$2="Yes",IF($I$2="Yes",ROUND(((B16+44+75+(B16+75+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14596</v>
+        <v>13306</v>
       </c>
       <c r="E27" s="5">
         <f>IF($D$2="Yes",IF($I$2="Yes",ROUND(((B16+245+75+(B16+75+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14041</v>
+        <v>13280</v>
       </c>
       <c r="F27" s="5">
         <f>IF($E$2="Yes",IF($I$2="Yes",ROUND(((B16+350+75+(B16+350+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14923</v>
+        <v>14004</v>
       </c>
       <c r="G27" s="5">
         <f>IF($F$2="Yes",IF($I$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND(((B16+350+75+(B16+75+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>14475</v>
+        <v>13720</v>
       </c>
       <c r="H27" s="5">
         <f>IF($G$2="Yes",IF($I$2="Yes",ROUND(((B16+500+75+(B16+75+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500+75),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15579</v>
+        <v>14921</v>
       </c>
       <c r="I27" s="5">
         <f>IF($H$2="Yes",IF($I$2="Yes",ROUND(((B16+75+(B16+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15+35)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14234</v>
+        <v>13010</v>
       </c>
       <c r="J27" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K27" s="5">
         <f>IF($J$2="Yes",IF($I$2="Yes",ROUND((((B16+75+60+(B16+75+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>17045</v>
+        <v>14955</v>
       </c>
       <c r="L27" s="16"/>
       <c r="N27" s="16"/>
@@ -4226,39 +6582,39 @@
       </c>
       <c r="B28" s="5">
         <f>IF($A$2="Yes",IF($J$2="Yes",ROUND((((B16+60+(B16+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>13781</v>
+        <v>12831</v>
       </c>
       <c r="C28" s="5">
         <f>IF($B$2="Yes",IF($J$2="Yes",ROUND((((B16+266+60+(B16+60+266)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-(F16)),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>14950</v>
+        <v>14002</v>
       </c>
       <c r="D28" s="5">
         <f>IF($C$2="Yes",IF($J$2="Yes",ROUND((((B16+44+60+(B16+60+44)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+17+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>15392</v>
+        <v>13903</v>
       </c>
       <c r="E28" s="5">
         <f>IF($D$2="Yes",IF($J$2="Yes",ROUND((((B16+245+60+(B16+60+245)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>14857</v>
+        <v>13909</v>
       </c>
       <c r="F28" s="5">
         <f>IF($E$2="Yes",IF($J$2="Yes",ROUND((((B16+350+60+(B16+60+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+5+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>15777</v>
+        <v>14660</v>
       </c>
       <c r="G28" s="5">
         <f>IF($F$2="Yes",IF($J$2="Yes",IFERROR(_xlfn.IFS(A16="DD","N/A",A16="SS","N/A",A16="SSV","N/A",A16="CB","N/A"),ROUND((((B16+350+60+(B16+60+350)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2/IF($K$2="Yes",IF(H13="Torpedo",0.7,1),1))/IF($K$2="Yes",0.97,1),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>15319</v>
+        <v>14371</v>
       </c>
       <c r="H28" s="5">
         <f>IF($G$2="Yes",IF($J$2="Yes",ROUND((((B16+500+60+(B16+60+500)*I16+IF($K$2="Yes",ROUNDDOWN($J$13/15,0)*0.01*(B16+500+60),0))/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>16489</v>
+        <v>15633</v>
       </c>
       <c r="I28" s="5">
         <f>IF($H$2="Yes",IF($J$2="Yes",ROUND((((B16+60+(B16+60)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+15+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>15015</v>
+        <v>13596</v>
       </c>
       <c r="J28" s="5">
         <f>IF($I$2="Yes",IF($J$2="Yes",ROUND((((B16+75+60+(B16+60+75)*I16)/(1-H16)/MIN(MAX((0.1+($E$13/($E$13+((C16+35+40)*(1+G16)+2)))+(($F$13-D16)/1000)-F16),0.1),1))/'Background Tables'!$G$2)/IF($K$2="Yes",0.97,1),0),"Calc. Off"),"Calc. Off")</f>
-        <v>17045</v>
+        <v>14955</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>29</v>
@@ -7970,7 +10326,7 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="B19:K28">
-    <cfRule type="colorScale" priority="150">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percent" val="50"/>
@@ -7982,315 +10338,323 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="81" priority="135">
+    <cfRule type="expression" dxfId="167" priority="137">
       <formula>F2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="136">
+    <cfRule type="expression" dxfId="166" priority="138">
       <formula>F2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="79" priority="127">
+    <cfRule type="expression" dxfId="165" priority="129">
       <formula>E2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="128">
+    <cfRule type="expression" dxfId="164" priority="130">
       <formula>E2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="77" priority="125">
+    <cfRule type="expression" dxfId="163" priority="127">
       <formula>D2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="126">
+    <cfRule type="expression" dxfId="162" priority="128">
       <formula>D2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="75" priority="123">
+    <cfRule type="expression" dxfId="161" priority="125">
       <formula>A2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="124">
+    <cfRule type="expression" dxfId="160" priority="126">
       <formula>A2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="73" priority="121">
+    <cfRule type="expression" dxfId="159" priority="123">
       <formula>B2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="122">
+    <cfRule type="expression" dxfId="158" priority="124">
       <formula>B2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="71" priority="119">
+    <cfRule type="expression" dxfId="157" priority="121">
       <formula>C2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="120">
+    <cfRule type="expression" dxfId="156" priority="122">
       <formula>C2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="69" priority="115">
+    <cfRule type="expression" dxfId="155" priority="117">
       <formula>G2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="116">
+    <cfRule type="expression" dxfId="154" priority="118">
       <formula>G2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="67" priority="113">
+    <cfRule type="expression" dxfId="153" priority="115">
       <formula>H2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="114">
+    <cfRule type="expression" dxfId="152" priority="116">
       <formula>H2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="65" priority="111">
+    <cfRule type="expression" dxfId="151" priority="113">
       <formula>I2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="112">
+    <cfRule type="expression" dxfId="150" priority="114">
       <formula>I2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="63" priority="109">
+    <cfRule type="expression" dxfId="149" priority="111">
       <formula>J2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="110">
+    <cfRule type="expression" dxfId="148" priority="112">
       <formula>J2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="61" priority="105">
+    <cfRule type="expression" dxfId="147" priority="107">
       <formula>K2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="106">
+    <cfRule type="expression" dxfId="146" priority="108">
       <formula>K2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:K28">
-    <cfRule type="cellIs" dxfId="59" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="106" operator="equal">
       <formula>"Calc. Off"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="58" priority="98">
+    <cfRule type="expression" dxfId="144" priority="100">
       <formula>A5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="99">
+    <cfRule type="expression" dxfId="143" priority="101">
       <formula>A5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="56" priority="80">
+    <cfRule type="expression" dxfId="142" priority="82">
       <formula>B5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="81">
+    <cfRule type="expression" dxfId="141" priority="83">
       <formula>B5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="54" priority="78">
+    <cfRule type="expression" dxfId="140" priority="80">
       <formula>C5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="79">
+    <cfRule type="expression" dxfId="139" priority="81">
       <formula>C5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="52" priority="66">
+    <cfRule type="expression" dxfId="138" priority="68">
       <formula>I5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="67">
+    <cfRule type="expression" dxfId="137" priority="69">
       <formula>I5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="50" priority="76">
+    <cfRule type="expression" dxfId="136" priority="78">
       <formula>D5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="77">
+    <cfRule type="expression" dxfId="135" priority="79">
       <formula>D5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="48" priority="74">
+    <cfRule type="expression" dxfId="134" priority="76">
       <formula>E5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="75">
+    <cfRule type="expression" dxfId="133" priority="77">
       <formula>E5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="46" priority="72">
+    <cfRule type="expression" dxfId="132" priority="74">
       <formula>F5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="73">
+    <cfRule type="expression" dxfId="131" priority="75">
       <formula>F5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="44" priority="70">
+    <cfRule type="expression" dxfId="130" priority="72">
       <formula>G5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="71">
+    <cfRule type="expression" dxfId="129" priority="73">
       <formula>G5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="42" priority="68">
+    <cfRule type="expression" dxfId="128" priority="70">
       <formula>H5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="69">
+    <cfRule type="expression" dxfId="127" priority="71">
       <formula>H5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="40" priority="61">
+    <cfRule type="expression" dxfId="126" priority="63">
       <formula>J5="Mixed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="62">
+    <cfRule type="expression" dxfId="125" priority="64">
       <formula>J5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="63">
+    <cfRule type="expression" dxfId="124" priority="65">
       <formula>J5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="123" priority="43">
       <formula>$J$5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="122" priority="44">
       <formula>$J$5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="59">
+    <cfRule type="expression" dxfId="121" priority="61">
       <formula>A5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="60">
+    <cfRule type="expression" dxfId="120" priority="62">
       <formula>A5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="33" priority="43">
+    <cfRule type="expression" dxfId="119" priority="45">
       <formula>I5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="44">
+    <cfRule type="expression" dxfId="118" priority="46">
       <formula>I5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="31" priority="37">
+    <cfRule type="expression" dxfId="117" priority="39">
       <formula>$J$5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="38">
+    <cfRule type="expression" dxfId="116" priority="40">
       <formula>$J$5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="39">
+    <cfRule type="expression" dxfId="115" priority="41">
       <formula>B5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="40">
+    <cfRule type="expression" dxfId="114" priority="42">
       <formula>B5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="113" priority="35">
       <formula>$J$5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="112" priority="36">
       <formula>$J$5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="111" priority="37">
       <formula>C5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="110" priority="38">
       <formula>C5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="23" priority="29">
+    <cfRule type="expression" dxfId="109" priority="31">
       <formula>$J$5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="30">
+    <cfRule type="expression" dxfId="108" priority="32">
       <formula>$J$5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="31">
+    <cfRule type="expression" dxfId="107" priority="33">
       <formula>D5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="32">
+    <cfRule type="expression" dxfId="106" priority="34">
       <formula>D5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="105" priority="27">
       <formula>$J$5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="104" priority="28">
       <formula>$J$5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="27">
+    <cfRule type="expression" dxfId="103" priority="29">
       <formula>E5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
+    <cfRule type="expression" dxfId="102" priority="30">
       <formula>E5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="101" priority="23">
       <formula>$J$5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="100" priority="24">
       <formula>$J$5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="23">
+    <cfRule type="expression" dxfId="99" priority="25">
       <formula>F5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="98" priority="26">
       <formula>F5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="97" priority="19">
       <formula>$J$5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="96" priority="20">
       <formula>$J$5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="95" priority="21">
       <formula>G5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="94" priority="22">
       <formula>G5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="93" priority="15">
       <formula>$J$5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="92" priority="16">
       <formula>$J$5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="91" priority="17">
       <formula>H5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
+    <cfRule type="expression" dxfId="90" priority="18">
       <formula>H5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="89" priority="13">
       <formula>J5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="88" priority="14">
       <formula>AND(A5="Manual",B5="Manual",C5="Manual",D5="Manual",E5="Manual",F5="Manual",G5="Manual",H5="Manual")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="87" priority="9">
       <formula>J5="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>AND(A5="Manual",B5="Manual",C5="Manual",D5="Manual",E5="Manual",F5="Manual",G5="Manual",H5="Manual")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="1" stopIfTrue="1">
+      <formula>J5="Automatic"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
+    <cfRule type="expression" dxfId="85" priority="2" stopIfTrue="1">
+      <formula>J5="Automatic"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
@@ -25372,8 +27736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D8AF55-D1DE-4A96-AB4C-91F60E4938F9}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25405,7 +27769,7 @@
       <c r="G1" t="s">
         <v>430</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="41" t="s">
         <v>481</v>
       </c>
     </row>

--- a/Automatic eHP Calculator.xlsx
+++ b/Automatic eHP Calculator.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8056C-B2FF-4334-A83E-446B45694EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01127F18-6B37-4F60-BD3D-FBB9CC98E42D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eHP Calc" sheetId="1" r:id="rId1"/>
-    <sheet name="Ship Stats" sheetId="2" r:id="rId2"/>
-    <sheet name="Background Tables" sheetId="4" r:id="rId3"/>
+    <sheet name="Ship Stats" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Background Tables" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Application">'Background Tables'!$J$29:$J$30</definedName>

--- a/Automatic eHP Calculator.xlsx
+++ b/Automatic eHP Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A2F9A-37CD-43C9-9BDE-904B29213BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF304A7-50AE-4D09-BE9C-48C23551FC24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3196,8 +3196,8 @@
   </sheetPr>
   <dimension ref="A1:AA245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3682,7 +3682,7 @@
         <v>519</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>

--- a/Automatic eHP Calculator.xlsx
+++ b/Automatic eHP Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF304A7-50AE-4D09-BE9C-48C23551FC24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AC0D81-2BAB-41B9-9DAE-F86C4C36E5E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="537">
   <si>
     <t>Name</t>
   </si>
@@ -1644,6 +1644,9 @@
   </si>
   <si>
     <t>Fire Modifier (FE)</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -1989,13 +1992,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2010,6 +2008,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2022,6 +2025,233 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="81">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2512,233 +2742,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2766,24 +2769,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12392C09-0F0E-4DA1-A5C3-D721E8AEBE2E}" name="Table24" displayName="Table24" ref="A1:E26" totalsRowShown="0" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{12392C09-0F0E-4DA1-A5C3-D721E8AEBE2E}" name="Table24" displayName="Table24" ref="A1:E26" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="A1:E26" xr:uid="{0D56F3AA-DC4A-485C-9974-BEF06B07519C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B06AEEF8-F51C-4D82-8AAC-5C5921F7709D}" name="Gun Type"/>
     <tableColumn id="2" xr3:uid="{6EC50C93-1FA8-4FCD-94C0-8368B510959C}" name="Ammo"/>
-    <tableColumn id="3" xr3:uid="{260D86E6-3332-4AA0-9166-0095E35710E6}" name="Light" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{0A4F5395-51BB-4099-91EE-E8F0FA8305F2}" name="Medium" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{84F3AB1E-A0A5-4425-84CF-282C7369C5A3}" name="Heavy" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{260D86E6-3332-4AA0-9166-0095E35710E6}" name="Light" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0A4F5395-51BB-4099-91EE-E8F0FA8305F2}" name="Medium" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{84F3AB1E-A0A5-4425-84CF-282C7369C5A3}" name="Heavy" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2E0FA14-4F8C-45C9-9F40-470E16CA26F2}" name="Table2" displayName="Table2" ref="I28:I41" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2E0FA14-4F8C-45C9-9F40-470E16CA26F2}" name="Table2" displayName="Table2" ref="I28:I41" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="I28:I41" xr:uid="{2025355D-0CBF-42F6-84F7-CCF0141134A5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F7AA5280-9281-4AA3-953C-F277228E6B80}" name="Hull Class 2" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{F7AA5280-9281-4AA3-953C-F277228E6B80}" name="Hull Class 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2875,10 +2878,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4C20D48-84C6-4B5D-8EB3-4014C0BDF608}" name="Hull" displayName="Hull" ref="B28:B33" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4C20D48-84C6-4B5D-8EB3-4014C0BDF608}" name="Hull" displayName="Hull" ref="B28:B33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B28:B33" xr:uid="{4F7E1C47-FB5E-4E98-A28A-321A928E5123}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EB97A1AF-8DD2-4D44-92D2-3BB09BA6DF6E}" name="Hull Class" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{EB97A1AF-8DD2-4D44-92D2-3BB09BA6DF6E}" name="Hull Class" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3196,8 +3199,8 @@
   </sheetPr>
   <dimension ref="A1:AA245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3207,11 +3210,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="str">
+      <c r="A1" s="64" t="str">
         <f>IF('Background Tables'!N2="Off","No Gear","naked")</f>
         <v>No Gear</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="47" t="s">
         <v>447</v>
       </c>
@@ -3257,11 +3260,11 @@
       <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="str">
+      <c r="A2" s="64" t="str">
         <f>IF('Background Tables'!N2="Off","Fire Extin.","Bottle")</f>
         <v>Fire Extin.</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="48" t="s">
         <v>447</v>
       </c>
@@ -3307,11 +3310,11 @@
       <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="str">
+      <c r="A3" s="64" t="str">
         <f>IF('Background Tables'!N2="Off","Naval Camo.","Blue Paint")</f>
         <v>Naval Camo.</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="48" t="s">
         <v>447</v>
       </c>
@@ -3340,11 +3343,11 @@
       <c r="AA3" s="15"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="str">
+      <c r="A4" s="64" t="str">
         <f>IF('Background Tables'!N2="Off","Adv. Boiler","gottagofast.jpg")</f>
         <v>Adv. Boiler</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="48" t="s">
         <v>447</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>529</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -3373,11 +3376,11 @@
       <c r="AA4" s="13"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="str">
+      <c r="A5" s="64" t="str">
         <f>IF('Background Tables'!N2="Off","Fuel Filter","Coca Cola")</f>
         <v>Fuel Filter</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="47" t="s">
         <v>447</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>526</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="13"/>
@@ -3405,11 +3408,11 @@
       <c r="AA5" s="13"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="str">
+      <c r="A6" s="64" t="str">
         <f>IF('Background Tables'!N2="Off","Torp. Bulge","owo what's this")</f>
         <v>Torp. Bulge</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="47" t="s">
         <v>447</v>
       </c>
@@ -3431,19 +3434,19 @@
       <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
       <c r="M8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -3460,10 +3463,10 @@
       <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="52"/>
       <c r="D9" s="29" t="s">
         <v>13</v>
@@ -3476,7 +3479,9 @@
       <c r="H9" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="53">
+        <v>0</v>
+      </c>
       <c r="J9" s="29" t="s">
         <v>528</v>
       </c>
@@ -3488,10 +3493,10 @@
       <c r="AA9" s="13"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="65" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="52"/>
       <c r="D10" s="29" t="s">
         <v>14</v>
@@ -3504,17 +3509,19 @@
       <c r="H10" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="I10" s="53"/>
+      <c r="I10" s="53">
+        <v>0</v>
+      </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="52"/>
       <c r="D11" s="29" t="s">
         <v>3</v>
@@ -3534,8 +3541,8 @@
       <c r="AA11" s="13"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
@@ -3560,10 +3567,10 @@
       <c r="A14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="55"/>
+      <c r="B14" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="68"/>
       <c r="E14" s="9" t="s">
         <v>16</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>425</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -3591,10 +3598,10 @@
       <c r="AA14" s="13"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="47">
         <v>120</v>
       </c>
@@ -3608,7 +3615,7 @@
         <v>426</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -3626,8 +3633,8 @@
       <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
       <c r="M16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -3644,11 +3651,11 @@
       <c r="AA16" s="13"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="70" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
       <c r="M17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -3665,10 +3672,10 @@
       <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="70" t="s">
         <v>404</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="51">
         <v>60</v>
       </c>
@@ -3682,7 +3689,7 @@
         <v>519</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -3701,10 +3708,10 @@
       <c r="AA18" s="13"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="70" t="s">
         <v>492</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="46">
         <v>0</v>
       </c>
@@ -3730,8 +3737,8 @@
       <c r="AA19" s="13"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
       <c r="M20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -3754,14 +3761,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="45" t="str">
         <f>_xlfn.IFS(L2="Manual",IFERROR(C9,"General"),L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!C2:C1000,IF(C15=100,'Ship Stats'!T2:T1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),"General"),L2="Mixed",IF(H2="Manual",C9,IFERROR(INDEX(IF(C15=120,'Ship Stats'!C2:C1000,IF(C15=100,'Ship Stats'!T2:T1000,"General")),MATCH(B14,'Ship Stats'!B2:B1000,0)),"General")))</f>
-        <v>CA</v>
+        <v>BB</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="41">
         <f>_xlfn.IFS(L2="Manual",E9,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!F2:F1000,IF(C15=100,'Ship Stats'!W2:W1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(H4="Manual",E9,IFERROR(INDEX(IF(C15=120,'Ship Stats'!F2:F1000,IF(C15=100,'Ship Stats'!W2:W1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>4</v>
@@ -3774,7 +3781,7 @@
         <v>529</v>
       </c>
       <c r="I21" s="33">
-        <f>_xlfn.IFS(L2="Manual",I9,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!L2:L1000,IF(C15=100,'Ship Stats'!AC2:AC1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(J2="Manual",I9,IFERROR(INDEX(IF(C15=120,'Ship Stats'!L2:L1000,IF(C15=100,'Ship Stats'!AC2:AC1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
+        <f>_xlfn.IFS(L2="Manual",I9,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!L2:L1000,IF(C15=100,'Ship Stats'!AC2:AC1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(J4="Manual",I9,IFERROR(INDEX(IF(C15=120,'Ship Stats'!L2:L1000,IF(C15=100,'Ship Stats'!AC2:AC1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
         <v>0</v>
       </c>
       <c r="J21" s="10" t="s">
@@ -3803,14 +3810,14 @@
       <c r="B22" s="10"/>
       <c r="C22" s="45" t="str">
         <f>_xlfn.IFS(L2="Manual",IFERROR(C10,"General"),L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!D2:D1000,IF(C15=100,'Ship Stats'!U2:U1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),"General"),L2="Mixed",IF(H2="Manual",C10,IFERROR(INDEX(IF(C15=120,'Ship Stats'!D2:D1000,IF(C15=100,'Ship Stats'!U2:U1000,"General")),MATCH(B14,'Ship Stats'!B2:B1000,0)),"General")))</f>
-        <v>Medium</v>
+        <v>Heavy</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="41">
         <f>_xlfn.IFS(L2="Manual",E10,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!G2:G1000,IF(C15=100,'Ship Stats'!X2:X1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(H5="Manual",E10,IFERROR(INDEX(IF(C15=120,'Ship Stats'!G2:G1000,IF(C15=100,'Ship Stats'!X2:X1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>15</v>
@@ -3823,7 +3830,7 @@
         <v>526</v>
       </c>
       <c r="I22" s="33">
-        <f>_xlfn.IFS(L2="Manual",I10,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!M2:M1000,IF(C15=100,'Ship Stats'!AD2:AD1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(J2="Manual",I10,IFERROR(INDEX(IF(C15=120,'Ship Stats'!M2:M1000,IF(C15=100,'Ship Stats'!AD2:AD1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
+        <f>_xlfn.IFS(L2="Manual",I10,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!M2:M1000,IF(C15=100,'Ship Stats'!AD2:AD1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(J5="Manual",I10,IFERROR(INDEX(IF(C15=120,'Ship Stats'!M2:M1000,IF(C15=100,'Ship Stats'!AD2:AD1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
         <v>0</v>
       </c>
       <c r="M22" s="13"/>
@@ -3842,13 +3849,13 @@
       <c r="AA22" s="13"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="46">
         <f>_xlfn.IFS(L2="Manual",C11,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!E2:E1000,IF(C15=100,'Ship Stats'!V2:V1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(H3="Manual",C11,IFERROR(INDEX(IF(C15=120,'Ship Stats'!E2:E1000,IF(C15=100,'Ship Stats'!V2:V1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
-        <v>4565</v>
+        <v>8607</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>3</v>
@@ -3861,14 +3868,14 @@
         <v>477</v>
       </c>
       <c r="G23" s="42">
-        <f>_xlfn.IFS(L2="Manual",G11,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!K2:K1000,IF(C15=100,'Ship Stats'!AB2:AB1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(J2="Manual",G11,IFERROR(INDEX(IF(C15=120,'Ship Stats'!K2:K1000,IF(C15=100,'Ship Stats'!AB2:AB1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
+        <f>_xlfn.IFS(L2="Manual",G11,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!K2:K1000,IF(C15=100,'Ship Stats'!AB2:AB1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(J3="Manual",G11,IFERROR(INDEX(IF(C15=120,'Ship Stats'!K2:K1000,IF(C15=100,'Ship Stats'!AB2:AB1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
         <v>0</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>527</v>
       </c>
       <c r="I23" s="33">
-        <f>_xlfn.IFS(L2="Manual",I11,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!N2:N1000,IF(C15=100,'Ship Stats'!AE2:AE1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(J2="Manual",I11,IFERROR(INDEX(IF(C15=120,'Ship Stats'!N2:N1000,IF(C15=100,'Ship Stats'!AE2:AE1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
+        <f>_xlfn.IFS(L2="Manual",I11,L2="Automatic",IFERROR(INDEX(IF(C15=120,'Ship Stats'!N2:N1000,IF(C15=100,'Ship Stats'!AE2:AE1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0),L2="Mixed",IF(J6="Manual",I11,IFERROR(INDEX(IF(C15=120,'Ship Stats'!N2:N1000,IF(C15=100,'Ship Stats'!AE2:AE1000,0)),MATCH(B14,'Ship Stats'!B2:B1000,0)),0)))</f>
         <v>0</v>
       </c>
       <c r="M23" s="13"/>
@@ -3887,8 +3894,8 @@
       <c r="AA23" s="13"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
       <c r="M24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -3905,8 +3912,8 @@
       <c r="AA24" s="13"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="6" t="str">
         <f>IF('Background Tables'!N2="Off","No Gear","naked")</f>
         <v>No Gear</v>
@@ -3963,50 +3970,50 @@
       <c r="AA25" s="13"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="str">
+      <c r="A26" s="61" t="str">
         <f>IF('Background Tables'!N2="Off","No Gear","naked")</f>
         <v>No Gear</v>
       </c>
-      <c r="B26" s="65"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="43">
         <f>IF($C$1="Yes",ROUND(((C23+(C23*G23))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off")</f>
-        <v>10132</v>
+        <v>9437</v>
       </c>
       <c r="D26" s="5">
         <f>IF($C$2="Yes",IF($C$1="Yes",ROUND(((C23+266+(C23+266)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>10722</v>
+        <v>12084</v>
       </c>
       <c r="E26" s="4">
         <f>IF($C$3="Yes",IF($C$1="Yes",ROUND(((C23+44+(C23+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11792</v>
+        <v>11053</v>
       </c>
       <c r="F26" s="5">
         <f>IF($C$4="Yes",IF($C$1="Yes",ROUND(((C23+245+(C23+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>10675</v>
+        <v>9706</v>
       </c>
       <c r="G26" s="5">
         <f>IF($C$5="Yes",IF($C$1="Yes",ROUND(((C23+350+(C23+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11401</v>
+        <v>10309</v>
       </c>
       <c r="H26" s="5">
         <f>IF($C$6="Yes",IF($C$1="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+(C23+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10908</v>
+        <v>9821</v>
       </c>
       <c r="I26" s="5">
         <f>IF($E$1="Yes",IF($C$1="Yes",ROUND(((C23+500+(C23+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11691</v>
+        <v>10385</v>
       </c>
       <c r="J26" s="5">
         <f>IF($E$2="Yes",IF($C$1="Yes",ROUND(((C23+C23*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11499</v>
+        <v>10818</v>
       </c>
       <c r="K26" s="5">
         <f>IF($E$3="Yes",IF($C$1="Yes",ROUND(((C23+75+(C23+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13511</v>
+        <v>12656</v>
       </c>
       <c r="L26" s="5">
         <f>IF($E$4="Yes",IF($C$1="Yes",ROUND((((C23+60+(C23+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14347</v>
+        <v>13454</v>
       </c>
       <c r="M26" s="13"/>
       <c r="O26" s="13"/>
@@ -4031,43 +4038,43 @@
       <c r="B27" s="3"/>
       <c r="C27" s="43">
         <f>IF($C$1="Yes",IF($C$2="Yes",ROUND((((C23+266)+(C23+266)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>10722</v>
+        <v>12084</v>
       </c>
       <c r="D27" s="5">
         <f>IF($C$2="Yes",ROUND(((C23+266+266+(C23+266+266)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off")</f>
-        <v>11312</v>
+        <v>12446</v>
       </c>
       <c r="E27" s="5">
         <f>IF($C$3="Yes",IF($C$2="Yes",ROUND(((C23+266+44+(C23+266+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12473</v>
+        <v>14151</v>
       </c>
       <c r="F27" s="5">
         <f>IF($C$4="Yes",IF($C$2="Yes",ROUND(((C23+266+245+(C23+266+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11266</v>
+        <v>12418</v>
       </c>
       <c r="G27" s="5">
         <f>IF($C$5="Yes",IF($C$2="Yes",ROUND(((C23+266+350+(C23+266+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12018</v>
+        <v>13185</v>
       </c>
       <c r="H27" s="5">
         <f>IF($C$6="Yes",IF($C$2="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+266+350+(C23+266+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J14,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11499</v>
+        <v>12561</v>
       </c>
       <c r="I27" s="5">
         <f>IF($E$1="Yes",IF($C$2="Yes",ROUND(((C23+266+500+(C23+266+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+266+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12305</v>
+        <v>13275</v>
       </c>
       <c r="J27" s="5">
         <f>IF($E$2="Yes",IF($C$2="Yes",ROUND(((C23+266+(C23+266)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12169</v>
+        <v>13853</v>
       </c>
       <c r="K27" s="5">
         <f>IF($E$3="Yes",IF($C$2="Yes",ROUND(((C23+266+75+(C23+266+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14285</v>
+        <v>16202</v>
       </c>
       <c r="L27" s="5">
         <f>IF($E$4="Yes",IF($C$2="Yes",ROUND((((C23+266+60+(C23+266+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15172</v>
+        <v>17224</v>
       </c>
       <c r="M27" s="13"/>
       <c r="O27" s="13"/>
@@ -4092,43 +4099,43 @@
       <c r="B28" s="3"/>
       <c r="C28" s="43">
         <f>IF($C$1="Yes",IF($C$3="Yes",ROUND(((C23+44+(C23+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11792</v>
+        <v>11053</v>
       </c>
       <c r="D28" s="4">
         <f>IF($C$2="Yes",IF($C$3="Yes",ROUND(((C23+266+44+(C23+266+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12473</v>
+        <v>14151</v>
       </c>
       <c r="E28" s="4">
         <f>IF($C$3="Yes",ROUND(((C23+44+44+(C23+44+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+17)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off")</f>
-        <v>13458</v>
+        <v>12591</v>
       </c>
       <c r="F28" s="4">
         <f>IF($C$4="Yes",IF($C$3="Yes",ROUND(((C23+44+245+(C23+44+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12419</v>
+        <v>11366</v>
       </c>
       <c r="G28" s="4">
         <f>IF($C$5="Yes",IF($C$3="Yes",ROUND(((C23+44+350+(C23+44+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+5)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13177</v>
+        <v>11961</v>
       </c>
       <c r="H28" s="4">
         <f>IF($C$6="Yes",IF($C$3="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+44+350+(C23+44+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12688</v>
+        <v>11500</v>
       </c>
       <c r="I28" s="4">
         <f>IF($E$1="Yes",IF($C$3="Yes",ROUND(((C23+44+500+(C23+44+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+44+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13594</v>
+        <v>12159</v>
       </c>
       <c r="J28" s="4">
         <f>IF($E$2="Yes",IF($C$3="Yes",ROUND(((C23+44+(C23+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13151</v>
+        <v>12358</v>
       </c>
       <c r="K28" s="4">
         <f>IF($E$3="Yes",IF($C$3="Yes",ROUND(((C23+44+75+(C23+44+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15177</v>
+        <v>14116</v>
       </c>
       <c r="L28" s="4">
         <f>IF($E$4="Yes",IF($C$3="Yes",ROUND((((C23+44+60+(C23+44+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>16057</v>
+        <v>14934</v>
       </c>
       <c r="M28" s="13"/>
       <c r="O28" s="13"/>
@@ -4153,43 +4160,43 @@
       <c r="B29" s="3"/>
       <c r="C29" s="43">
         <f>IF($C$1="Yes",IF($C$4="Yes",ROUND(((C23+245+(C23+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>10675</v>
+        <v>9706</v>
       </c>
       <c r="D29" s="4">
         <f>IF($C$2="Yes",IF($C$4="Yes",ROUND(((C23+266+245+(C23+266+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11266</v>
+        <v>12418</v>
       </c>
       <c r="E29" s="4">
         <f>IF($C$3="Yes",IF($C$4="Yes",ROUND(((C23+44+245+(C23+44+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12419</v>
+        <v>11366</v>
       </c>
       <c r="F29" s="4">
         <f>IF($C$4="Yes",ROUND(((C23+245+245+(C23+245+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off")</f>
-        <v>11219</v>
+        <v>9974</v>
       </c>
       <c r="G29" s="4">
         <f>IF($C$5="Yes",IF($C$4="Yes",ROUND(((C23+245+350+(C23+245+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11970</v>
+        <v>10591</v>
       </c>
       <c r="H29" s="4">
         <f>IF($C$6="Yes",IF($C$4="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+245+350+(C23+245+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11452</v>
+        <v>10089</v>
       </c>
       <c r="I29" s="4">
         <f>IF($E$1="Yes",IF($C$4="Yes",ROUND(((C23+245+500+(C23+245+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+245+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12256</v>
+        <v>10664</v>
       </c>
       <c r="J29" s="4">
         <f>IF($E$2="Yes",IF($C$4="Yes",ROUND(((C23+245+(C23+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12116</v>
+        <v>11126</v>
       </c>
       <c r="K29" s="4">
         <f>IF($E$3="Yes",IF($C$4="Yes",ROUND(((C23+245+75+(C23+245+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14224</v>
+        <v>13013</v>
       </c>
       <c r="L29" s="4">
         <f>IF($E$4="Yes",IF($C$4="Yes",ROUND((((C23+245+60+(C23+245+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15107</v>
+        <v>13834</v>
       </c>
       <c r="M29" s="13"/>
       <c r="O29" s="13"/>
@@ -4214,43 +4221,43 @@
       <c r="B30" s="3"/>
       <c r="C30" s="43">
         <f>IF($C$1="Yes",IF($C$5="Yes",ROUND(((C23+350+(C23+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11401</v>
+        <v>10309</v>
       </c>
       <c r="D30" s="4">
         <f>IF($C$2="Yes",IF($C$5="Yes",ROUND(((C23+266+350+(C23+266+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12018</v>
+        <v>13185</v>
       </c>
       <c r="E30" s="4">
         <f>IF($C$3="Yes",IF($C$5="Yes",ROUND(((C23+44+350+(C23+44+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+5)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13177</v>
+        <v>11961</v>
       </c>
       <c r="F30" s="4">
         <f>IF($C$4="Yes",IF($C$5="Yes",ROUND(((C23+245+350+(C23+245+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11970</v>
+        <v>10591</v>
       </c>
       <c r="G30" s="4">
         <f>IF($C$5="Yes",ROUND(((C23+350+350+(C23+350+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5+5)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off")</f>
-        <v>12739</v>
+        <v>11209</v>
       </c>
       <c r="H30" s="4">
         <f>IF($C$6="Yes",IF($C$5="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+350+(C23+350+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12213</v>
+        <v>10712</v>
       </c>
       <c r="I30" s="4">
         <f>IF($E$1="Yes",IF($C$5="Yes",ROUND(((C23+350+500+(C23+350+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+350+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13064</v>
+        <v>11320</v>
       </c>
       <c r="J30" s="4">
         <f>IF($E$2="Yes",IF($C$5="Yes",ROUND(((C23+350+(C23+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12866</v>
+        <v>11720</v>
       </c>
       <c r="K30" s="4">
         <f>IF($E$3="Yes",IF($C$5="Yes",ROUND(((C23+350+75+(C23+350+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15015</v>
+        <v>13600</v>
       </c>
       <c r="L30" s="4">
         <f>IF($C$5="Yes",IF($E$4="Yes",ROUND((((C23+350+60+(C23+350+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15928</v>
+        <v>14436</v>
       </c>
       <c r="M30" s="13"/>
       <c r="O30" s="13"/>
@@ -4275,43 +4282,43 @@
       <c r="B31" s="3"/>
       <c r="C31" s="43">
         <f>IF($C$1="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+(C23+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10908</v>
+        <v>9821</v>
       </c>
       <c r="D31" s="4">
         <f>IF($C$2="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+266+350+(C23+350+266)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J14,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11499</v>
+        <v>12561</v>
       </c>
       <c r="E31" s="4">
         <f>IF($C$3="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+44+350+(C23+350+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12688</v>
+        <v>11500</v>
       </c>
       <c r="F31" s="4">
         <f>IF($C$4="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+245+350+(C23+350+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1),0)),"Calc. Off")/'Background Tables'!J2/'Background Tables'!J11,"Calc. Off")</f>
-        <v>11452</v>
+        <v>10089.115691115412</v>
       </c>
       <c r="G31" s="4">
         <f>IF($C$5="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+350+(C23+350+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12213</v>
+        <v>10712</v>
       </c>
       <c r="H31" s="4">
         <f>IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+350+(C23+350+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off")</f>
-        <v>11685</v>
+        <v>10204</v>
       </c>
       <c r="I31" s="4">
         <f>IF($E$1="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+500+(C23+350+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+350+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12499</v>
+        <v>10784</v>
       </c>
       <c r="J31" s="4">
         <f>IF($E$2="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+(C23+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12380</v>
+        <v>11258</v>
       </c>
       <c r="K31" s="4">
         <f>IF($E$3="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+75+(C23+350+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>14530</v>
+        <v>13166</v>
       </c>
       <c r="L31" s="4">
         <f>IF($E$4="Yes",IF($C$6="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND((((C23+350+60+(C23+350+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1))/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>15432</v>
+        <v>13997</v>
       </c>
       <c r="M31" s="13"/>
       <c r="O31" s="13"/>
@@ -4336,43 +4343,43 @@
       <c r="B32" s="6"/>
       <c r="C32" s="43">
         <f>IF($C$1="Yes",IF($E$1="Yes",ROUND(((C23+500+(C23+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11691</v>
+        <v>10385</v>
       </c>
       <c r="D32" s="4">
         <f>IF($C$2="Yes",IF($E$1="Yes",ROUND(((C23+266+500+(C23+500+266)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+266+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+(E21*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12305</v>
+        <v>13275</v>
       </c>
       <c r="E32" s="4">
         <f>IF($C$3="Yes",IF($E$1="Yes",ROUND(((C23+44+500+(C23+500+44)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+44+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13594</v>
+        <v>12159</v>
       </c>
       <c r="F32" s="4">
         <f>IF($C$4="Yes",IF($E$1="Yes",ROUND(((C23+245+500+(C23+500+245)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+245+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2,0),"Calc. Off")/'Background Tables'!J2/'Background Tables'!J11,"Calc. Off")</f>
-        <v>12256</v>
+        <v>10663.736717855556</v>
       </c>
       <c r="G32" s="4">
         <f>IF($C$5="Yes",IF($E$1="Yes",ROUND(((C23+350+500+(C23+500+350)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+350+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13064</v>
+        <v>11320</v>
       </c>
       <c r="H32" s="4">
         <f>IF($C$6="Yes",IF($E$1="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+500+(C23+500+350)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+350+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12499</v>
+        <v>10784</v>
       </c>
       <c r="I32" s="4">
         <f>IF($E$1="Yes",ROUND(((C23+500+500+(C23+500+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+0)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off")</f>
-        <v>12845</v>
+        <v>10955</v>
       </c>
       <c r="J32" s="4">
         <f>IF($E$2="Yes",IF($E$1="Yes",ROUND(((C23+500+(C23+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13269</v>
+        <v>11905</v>
       </c>
       <c r="K32" s="4">
         <f>IF($E$3="Yes",IF($E$1="Yes",ROUND(((C23+500+75+(C23+500+75)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500+75),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15565</v>
+        <v>13920</v>
       </c>
       <c r="L32" s="4">
         <f>IF($E$4="Yes",IF($E$1="Yes",ROUND((((C23+500+60+(C23+500+60)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500+60),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>16534</v>
+        <v>14799</v>
       </c>
       <c r="M32" s="13"/>
       <c r="O32" s="13"/>
@@ -4397,43 +4404,43 @@
       <c r="B33" s="3"/>
       <c r="C33" s="43">
         <f>IF($C$1="Yes",IF($E$2="Yes",ROUND(((C23+(C23)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>11499</v>
+        <v>10818</v>
       </c>
       <c r="D33" s="4">
         <f>IF($C$2="Yes",IF($E$2="Yes",ROUND(((C23+266+(C23+266)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12169</v>
+        <v>13853</v>
       </c>
       <c r="E33" s="21">
         <f>IF($C$3="Yes",IF($E$2="Yes",ROUND(((C23+44+(C23+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13151</v>
+        <v>12358</v>
       </c>
       <c r="F33" s="4">
         <f>IF($C$4="Yes",IF($E$2="Yes",ROUND(((C23+245+(C23+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12116</v>
+        <v>11126</v>
       </c>
       <c r="G33" s="4">
         <f>IF($C$5="Yes",IF($E$2="Yes",ROUND(((C23+350+(C23+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>12866</v>
+        <v>11720</v>
       </c>
       <c r="H33" s="4">
         <f>IF($C$6="Yes",IF($E$2="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+(C23+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12380</v>
+        <v>11258</v>
       </c>
       <c r="I33" s="4">
         <f>IF($E$1="Yes",IF($E$2="Yes",ROUND(((C23+500+(C23+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13269</v>
+        <v>11905</v>
       </c>
       <c r="J33" s="4">
         <f>IF($E$2="Yes",ROUND(((C23+(C23)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15+15)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off")</f>
-        <v>12847</v>
+        <v>12126</v>
       </c>
       <c r="K33" s="4">
         <f>IF($E$3="Yes",IF($E$2="Yes",ROUND(((C23+75+(C23+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14856</v>
+        <v>13885</v>
       </c>
       <c r="L33" s="4">
         <f>IF($E$4="Yes",IF($E$2="Yes",ROUND((((C23+60+(C23+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15723</v>
+        <v>14697</v>
       </c>
       <c r="M33" s="13"/>
       <c r="O33" s="13"/>
@@ -4458,42 +4465,42 @@
       <c r="B34" s="3"/>
       <c r="C34" s="44">
         <f>IF($C$1="Yes",IF($E$3="Yes",ROUND(((C23+75+(C23+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>13511</v>
+        <v>12656</v>
       </c>
       <c r="D34" s="4">
         <f>IF($C$2="Yes",IF($E$3="Yes",ROUND(((C23+266+75+(C23+75+266)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14285</v>
+        <v>16202</v>
       </c>
       <c r="E34" s="4">
         <f>IF($C$3="Yes",IF($E$3="Yes",ROUND(((C23+44+75+(C23+75+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15177</v>
+        <v>14116</v>
       </c>
       <c r="F34" s="4">
         <f>IF($C$4="Yes",IF($E$3="Yes",ROUND(((C23+245+75+(C23+75+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14224</v>
+        <v>13013</v>
       </c>
       <c r="G34" s="4">
         <f>IF($C$5="Yes",IF($E$3="Yes",ROUND(((C23+350+75+(C23+350+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15015</v>
+        <v>13600</v>
       </c>
       <c r="H34" s="4">
         <f>IF($C$6="Yes",IF($E$3="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND(((C23+350+75+(C23+75+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>14530</v>
+        <v>13166</v>
       </c>
       <c r="I34" s="4">
         <f>IF($E$1="Yes",IF($E$3="Yes",ROUND(((C23+500+75+(C23+75+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500+75),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15565</v>
+        <v>13920</v>
       </c>
       <c r="J34" s="4">
         <f>IF($E$2="Yes",IF($E$3="Yes",ROUND(((C23+75+(C23+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15+35)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14856</v>
+        <v>13885</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>29</v>
       </c>
       <c r="L34" s="4">
         <f>IF($E$4="Yes",IF($E$3="Yes",ROUND((((C23+75+60+(C23+75+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>17814</v>
+        <v>16401</v>
       </c>
       <c r="M34" s="13"/>
       <c r="O34" s="13"/>
@@ -4511,46 +4518,46 @@
       <c r="AA34" s="13"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="str">
+      <c r="A35" s="54" t="str">
         <f>IF('Background Tables'!N2="Off","Imp. Rudder","Washing Machine")</f>
         <v>Imp. Rudder</v>
       </c>
-      <c r="B35" s="58"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="43">
         <f>IF($C$1="Yes",IF($E$4="Yes",ROUND((((C23+60+(C23+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>14347</v>
+        <v>13454</v>
       </c>
       <c r="D35" s="4">
         <f>IF($C$2="Yes",IF($E$4="Yes",ROUND((((C23+266+60+(C23+60+266)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-(E23)),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J14,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15172</v>
+        <v>17224</v>
       </c>
       <c r="E35" s="4">
         <f>IF($C$3="Yes",IF($E$4="Yes",ROUND((((C23+44+60+(C23+60+44)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+17+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>16057</v>
+        <v>14934</v>
       </c>
       <c r="F35" s="4">
         <f>IF($C$4="Yes",IF($E$4="Yes",ROUND((((C23+245+60+(C23+60+245)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15107</v>
+        <v>13834</v>
       </c>
       <c r="G35" s="4">
         <f>IF($C$5="Yes",IF($E$4="Yes",ROUND((((C23+350+60+(C23+60+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+5+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15928</v>
+        <v>14436</v>
       </c>
       <c r="H35" s="4">
         <f>IF($C$6="Yes",IF($E$4="Yes",IFERROR(_xlfn.IFS(C21="DD","N/A",C21="SS","N/A",C21="SSV","N/A",C21="CB","N/A"),ROUND((((C23+350+60+(C23+60+350)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2/IF($E$5="Yes",IF(H15="Torpedo",0.7,1),1))/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0)),"Calc. Off"),"Calc. Off")</f>
-        <v>15432</v>
+        <v>13997</v>
       </c>
       <c r="I35" s="4">
         <f>IF($E$1="Yes",IF($E$4="Yes",ROUND((((C23+500+60+(C23+60+500)*G23+IF($E$5="Yes",ROUNDDOWN($C$18/15,0)*0.01*(C23+500+60),0))/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>16534</v>
+        <v>14799</v>
       </c>
       <c r="J35" s="4">
         <f>IF($E$2="Yes",IF($E$4="Yes",ROUND((((C23+60+(C23+60)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+15+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>15723</v>
+        <v>14697</v>
       </c>
       <c r="K35" s="4">
         <f>IF($E$3="Yes",IF($E$4="Yes",ROUND((((C23+75+60+(C23+60+75)*G23)/(1-G22)/MIN(MAX((0.1+($F$14/($F$14+((E21+35+40)*(1+G21)+2)))+(($F$15-E22)/1000)-E23),0.1),1))/'Background Tables'!$G$2)/IF($E$5="Yes",0.97,1)/'Background Tables'!J2/'Background Tables'!J11,0),"Calc. Off"),"Calc. Off")</f>
-        <v>17814</v>
+        <v>16401</v>
       </c>
       <c r="L35" s="21" t="s">
         <v>29</v>
@@ -4572,8 +4579,8 @@
       <c r="AA35" s="13"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -4591,8 +4598,8 @@
       <c r="AA36" s="13"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -4610,8 +4617,8 @@
       <c r="AA37" s="13"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
@@ -4629,8 +4636,8 @@
       <c r="AA38" s="13"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -4648,8 +4655,8 @@
       <c r="AA39" s="13"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -4667,8 +4674,8 @@
       <c r="AA40" s="13"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -4686,8 +4693,8 @@
       <c r="AA41" s="13"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
@@ -4705,8 +4712,8 @@
       <c r="AA42" s="13"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -4724,8 +4731,8 @@
       <c r="AA43" s="13"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -4743,8 +4750,8 @@
       <c r="AA44" s="13"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
@@ -4762,8 +4769,8 @@
       <c r="AA45" s="13"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
@@ -4781,8 +4788,8 @@
       <c r="AA46" s="13"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
@@ -4800,8 +4807,8 @@
       <c r="AA47" s="13"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -4819,8 +4826,8 @@
       <c r="AA48" s="13"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -4838,8 +4845,8 @@
       <c r="AA49" s="13"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -4857,8 +4864,8 @@
       <c r="AA50" s="13"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -4876,8 +4883,8 @@
       <c r="AA51" s="13"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -4895,8 +4902,8 @@
       <c r="AA52" s="13"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
@@ -4914,8 +4921,8 @@
       <c r="AA53" s="13"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
@@ -4933,8 +4940,8 @@
       <c r="AA54" s="13"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
@@ -4952,8 +4959,8 @@
       <c r="AA55" s="13"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
@@ -4971,8 +4978,8 @@
       <c r="AA56" s="13"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
@@ -4990,8 +4997,8 @@
       <c r="AA57" s="13"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
@@ -5009,8 +5016,8 @@
       <c r="AA58" s="13"/>
     </row>
     <row r="59" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
@@ -5028,8 +5035,8 @@
       <c r="AA59" s="13"/>
     </row>
     <row r="60" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
@@ -5047,8 +5054,8 @@
       <c r="AA60" s="13"/>
     </row>
     <row r="61" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
@@ -5066,8 +5073,8 @@
       <c r="AA61" s="13"/>
     </row>
     <row r="62" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
@@ -5085,8 +5092,8 @@
       <c r="AA62" s="13"/>
     </row>
     <row r="63" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
@@ -5104,8 +5111,8 @@
       <c r="AA63" s="13"/>
     </row>
     <row r="64" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="55"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
@@ -5123,8 +5130,8 @@
       <c r="AA64" s="13"/>
     </row>
     <row r="65" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
@@ -5142,8 +5149,8 @@
       <c r="AA65" s="13"/>
     </row>
     <row r="66" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
@@ -5161,8 +5168,8 @@
       <c r="AA66" s="13"/>
     </row>
     <row r="67" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
@@ -5180,8 +5187,8 @@
       <c r="AA67" s="13"/>
     </row>
     <row r="68" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
@@ -5199,8 +5206,8 @@
       <c r="AA68" s="13"/>
     </row>
     <row r="69" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
@@ -5218,8 +5225,8 @@
       <c r="AA69" s="13"/>
     </row>
     <row r="70" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="55"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
@@ -5237,8 +5244,8 @@
       <c r="AA70" s="13"/>
     </row>
     <row r="71" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
@@ -5256,8 +5263,8 @@
       <c r="AA71" s="13"/>
     </row>
     <row r="72" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
@@ -5275,8 +5282,8 @@
       <c r="AA72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
@@ -5294,8 +5301,8 @@
       <c r="AA73" s="13"/>
     </row>
     <row r="74" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="55"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
@@ -5313,8 +5320,8 @@
       <c r="AA74" s="13"/>
     </row>
     <row r="75" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
@@ -5332,8 +5339,8 @@
       <c r="AA75" s="13"/>
     </row>
     <row r="76" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="55"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
@@ -5351,8 +5358,8 @@
       <c r="AA76" s="13"/>
     </row>
     <row r="77" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="55"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
@@ -5370,8 +5377,8 @@
       <c r="AA77" s="13"/>
     </row>
     <row r="78" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="55"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
@@ -5389,8 +5396,8 @@
       <c r="AA78" s="13"/>
     </row>
     <row r="79" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -5408,8 +5415,8 @@
       <c r="AA79" s="13"/>
     </row>
     <row r="80" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -5427,8 +5434,8 @@
       <c r="AA80" s="13"/>
     </row>
     <row r="81" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
@@ -5446,8 +5453,8 @@
       <c r="AA81" s="13"/>
     </row>
     <row r="82" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
@@ -5465,8 +5472,8 @@
       <c r="AA82" s="13"/>
     </row>
     <row r="83" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
@@ -5484,8 +5491,8 @@
       <c r="AA83" s="13"/>
     </row>
     <row r="84" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
@@ -5503,8 +5510,8 @@
       <c r="AA84" s="13"/>
     </row>
     <row r="85" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
@@ -5522,8 +5529,8 @@
       <c r="AA85" s="13"/>
     </row>
     <row r="86" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
@@ -5541,8 +5548,8 @@
       <c r="AA86" s="13"/>
     </row>
     <row r="87" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="54"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
@@ -5560,8 +5567,8 @@
       <c r="AA87" s="13"/>
     </row>
     <row r="88" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
@@ -5579,8 +5586,8 @@
       <c r="AA88" s="13"/>
     </row>
     <row r="89" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
       <c r="O89" s="13"/>
@@ -5598,8 +5605,8 @@
       <c r="AA89" s="13"/>
     </row>
     <row r="90" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
@@ -5617,8 +5624,8 @@
       <c r="AA90" s="13"/>
     </row>
     <row r="91" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
       <c r="O91" s="13"/>
@@ -5636,8 +5643,8 @@
       <c r="AA91" s="13"/>
     </row>
     <row r="92" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="54"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
@@ -5655,8 +5662,8 @@
       <c r="AA92" s="13"/>
     </row>
     <row r="93" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="54"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
       <c r="O93" s="13"/>
@@ -5674,8 +5681,8 @@
       <c r="AA93" s="13"/>
     </row>
     <row r="94" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="54"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="55"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
       <c r="O94" s="13"/>
@@ -5693,8 +5700,8 @@
       <c r="AA94" s="13"/>
     </row>
     <row r="95" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="54"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
       <c r="O95" s="13"/>
@@ -5712,8 +5719,8 @@
       <c r="AA95" s="13"/>
     </row>
     <row r="96" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
-      <c r="B96" s="54"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
       <c r="O96" s="13"/>
@@ -5731,8 +5738,8 @@
       <c r="AA96" s="13"/>
     </row>
     <row r="97" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="54"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="O97" s="13"/>
@@ -5750,8 +5757,8 @@
       <c r="AA97" s="13"/>
     </row>
     <row r="98" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
-      <c r="B98" s="54"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
@@ -5769,8 +5776,8 @@
       <c r="AA98" s="13"/>
     </row>
     <row r="99" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="54"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
       <c r="O99" s="13"/>
@@ -5788,8 +5795,8 @@
       <c r="AA99" s="13"/>
     </row>
     <row r="100" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
       <c r="M100" s="13"/>
       <c r="N100" s="13"/>
       <c r="O100" s="13"/>
@@ -5807,8 +5814,8 @@
       <c r="AA100" s="13"/>
     </row>
     <row r="101" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="55"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
       <c r="O101" s="13"/>
@@ -5826,8 +5833,8 @@
       <c r="AA101" s="13"/>
     </row>
     <row r="102" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="55"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
@@ -5845,8 +5852,8 @@
       <c r="AA102" s="13"/>
     </row>
     <row r="103" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="54"/>
-      <c r="B103" s="54"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="55"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
@@ -5864,8 +5871,8 @@
       <c r="AA103" s="13"/>
     </row>
     <row r="104" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
-      <c r="B104" s="54"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
@@ -5883,8 +5890,8 @@
       <c r="AA104" s="13"/>
     </row>
     <row r="105" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="54"/>
-      <c r="B105" s="54"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="55"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
       <c r="O105" s="13"/>
@@ -5902,8 +5909,8 @@
       <c r="AA105" s="13"/>
     </row>
     <row r="106" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
-      <c r="B106" s="54"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="55"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
@@ -5921,8 +5928,8 @@
       <c r="AA106" s="13"/>
     </row>
     <row r="107" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
-      <c r="B107" s="54"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="55"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
@@ -5940,8 +5947,8 @@
       <c r="AA107" s="13"/>
     </row>
     <row r="108" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
-      <c r="B108" s="54"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="55"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
       <c r="O108" s="13"/>
@@ -5959,8 +5966,8 @@
       <c r="AA108" s="13"/>
     </row>
     <row r="109" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="54"/>
-      <c r="B109" s="54"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="55"/>
       <c r="M109" s="13"/>
       <c r="N109" s="13"/>
       <c r="O109" s="13"/>
@@ -5978,8 +5985,8 @@
       <c r="AA109" s="13"/>
     </row>
     <row r="110" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="54"/>
-      <c r="B110" s="54"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="55"/>
       <c r="M110" s="13"/>
       <c r="N110" s="13"/>
       <c r="O110" s="13"/>
@@ -5997,8 +6004,8 @@
       <c r="AA110" s="13"/>
     </row>
     <row r="111" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="54"/>
-      <c r="B111" s="54"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="55"/>
       <c r="M111" s="13"/>
       <c r="N111" s="13"/>
       <c r="O111" s="13"/>
@@ -6016,8 +6023,8 @@
       <c r="AA111" s="13"/>
     </row>
     <row r="112" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="54"/>
-      <c r="B112" s="54"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="55"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
       <c r="O112" s="13"/>
@@ -6035,8 +6042,8 @@
       <c r="AA112" s="13"/>
     </row>
     <row r="113" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
-      <c r="B113" s="54"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="55"/>
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
       <c r="O113" s="13"/>
@@ -6054,8 +6061,8 @@
       <c r="AA113" s="13"/>
     </row>
     <row r="114" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="54"/>
-      <c r="B114" s="54"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="55"/>
       <c r="M114" s="13"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13"/>
@@ -6073,8 +6080,8 @@
       <c r="AA114" s="13"/>
     </row>
     <row r="115" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="54"/>
-      <c r="B115" s="54"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="55"/>
       <c r="M115" s="13"/>
       <c r="N115" s="13"/>
       <c r="O115" s="13"/>
@@ -6092,8 +6099,8 @@
       <c r="AA115" s="13"/>
     </row>
     <row r="116" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="54"/>
-      <c r="B116" s="54"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="55"/>
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
@@ -6111,8 +6118,8 @@
       <c r="AA116" s="13"/>
     </row>
     <row r="117" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="54"/>
-      <c r="B117" s="54"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="55"/>
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
@@ -6130,8 +6137,8 @@
       <c r="AA117" s="13"/>
     </row>
     <row r="118" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="54"/>
-      <c r="B118" s="54"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="55"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
@@ -6149,8 +6156,8 @@
       <c r="AA118" s="13"/>
     </row>
     <row r="119" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="54"/>
-      <c r="B119" s="54"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="55"/>
       <c r="M119" s="13"/>
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
@@ -6168,8 +6175,8 @@
       <c r="AA119" s="13"/>
     </row>
     <row r="120" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="54"/>
-      <c r="B120" s="54"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="55"/>
       <c r="M120" s="13"/>
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
@@ -6187,8 +6194,8 @@
       <c r="AA120" s="13"/>
     </row>
     <row r="121" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="54"/>
-      <c r="B121" s="54"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="55"/>
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
@@ -6206,8 +6213,8 @@
       <c r="AA121" s="13"/>
     </row>
     <row r="122" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="54"/>
-      <c r="B122" s="54"/>
+      <c r="A122" s="55"/>
+      <c r="B122" s="55"/>
       <c r="M122" s="13"/>
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
@@ -6225,8 +6232,8 @@
       <c r="AA122" s="13"/>
     </row>
     <row r="123" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="54"/>
-      <c r="B123" s="54"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="55"/>
       <c r="M123" s="13"/>
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
@@ -6244,8 +6251,8 @@
       <c r="AA123" s="13"/>
     </row>
     <row r="124" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="54"/>
-      <c r="B124" s="54"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="55"/>
       <c r="M124" s="13"/>
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
@@ -6263,8 +6270,8 @@
       <c r="AA124" s="13"/>
     </row>
     <row r="125" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="54"/>
-      <c r="B125" s="54"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="55"/>
       <c r="M125" s="13"/>
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
@@ -6282,8 +6289,8 @@
       <c r="AA125" s="13"/>
     </row>
     <row r="126" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="54"/>
-      <c r="B126" s="54"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="55"/>
       <c r="M126" s="13"/>
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
@@ -6301,8 +6308,8 @@
       <c r="AA126" s="13"/>
     </row>
     <row r="127" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="54"/>
-      <c r="B127" s="54"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="55"/>
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
@@ -6320,8 +6327,8 @@
       <c r="AA127" s="13"/>
     </row>
     <row r="128" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="54"/>
-      <c r="B128" s="54"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="55"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
@@ -6339,8 +6346,8 @@
       <c r="AA128" s="13"/>
     </row>
     <row r="129" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
-      <c r="B129" s="54"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="55"/>
       <c r="M129" s="13"/>
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
@@ -6358,8 +6365,8 @@
       <c r="AA129" s="13"/>
     </row>
     <row r="130" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="54"/>
-      <c r="B130" s="54"/>
+      <c r="A130" s="55"/>
+      <c r="B130" s="55"/>
       <c r="M130" s="13"/>
       <c r="N130" s="13"/>
       <c r="O130" s="13"/>
@@ -6377,8 +6384,8 @@
       <c r="AA130" s="13"/>
     </row>
     <row r="131" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="54"/>
-      <c r="B131" s="54"/>
+      <c r="A131" s="55"/>
+      <c r="B131" s="55"/>
       <c r="M131" s="13"/>
       <c r="N131" s="13"/>
       <c r="O131" s="13"/>
@@ -6396,8 +6403,8 @@
       <c r="AA131" s="13"/>
     </row>
     <row r="132" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="54"/>
-      <c r="B132" s="54"/>
+      <c r="A132" s="55"/>
+      <c r="B132" s="55"/>
       <c r="M132" s="13"/>
       <c r="N132" s="13"/>
       <c r="O132" s="13"/>
@@ -6415,8 +6422,8 @@
       <c r="AA132" s="13"/>
     </row>
     <row r="133" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="54"/>
-      <c r="B133" s="54"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="55"/>
       <c r="M133" s="13"/>
       <c r="N133" s="13"/>
       <c r="O133" s="13"/>
@@ -6434,8 +6441,8 @@
       <c r="AA133" s="13"/>
     </row>
     <row r="134" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="54"/>
-      <c r="B134" s="54"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="55"/>
       <c r="M134" s="13"/>
       <c r="N134" s="13"/>
       <c r="O134" s="13"/>
@@ -6453,8 +6460,8 @@
       <c r="AA134" s="13"/>
     </row>
     <row r="135" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="54"/>
-      <c r="B135" s="54"/>
+      <c r="A135" s="55"/>
+      <c r="B135" s="55"/>
       <c r="M135" s="13"/>
       <c r="N135" s="13"/>
       <c r="O135" s="13"/>
@@ -6472,8 +6479,8 @@
       <c r="AA135" s="13"/>
     </row>
     <row r="136" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="54"/>
-      <c r="B136" s="54"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="55"/>
       <c r="M136" s="13"/>
       <c r="N136" s="13"/>
       <c r="O136" s="13"/>
@@ -6491,8 +6498,8 @@
       <c r="AA136" s="13"/>
     </row>
     <row r="137" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="54"/>
-      <c r="B137" s="54"/>
+      <c r="A137" s="55"/>
+      <c r="B137" s="55"/>
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
       <c r="O137" s="13"/>
@@ -6510,8 +6517,8 @@
       <c r="AA137" s="13"/>
     </row>
     <row r="138" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="54"/>
-      <c r="B138" s="54"/>
+      <c r="A138" s="55"/>
+      <c r="B138" s="55"/>
       <c r="M138" s="13"/>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -6529,8 +6536,8 @@
       <c r="AA138" s="13"/>
     </row>
     <row r="139" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="54"/>
-      <c r="B139" s="54"/>
+      <c r="A139" s="55"/>
+      <c r="B139" s="55"/>
       <c r="M139" s="13"/>
       <c r="N139" s="13"/>
       <c r="O139" s="13"/>
@@ -6548,8 +6555,8 @@
       <c r="AA139" s="13"/>
     </row>
     <row r="140" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="54"/>
-      <c r="B140" s="54"/>
+      <c r="A140" s="55"/>
+      <c r="B140" s="55"/>
       <c r="M140" s="13"/>
       <c r="N140" s="13"/>
       <c r="O140" s="13"/>
@@ -6567,8 +6574,8 @@
       <c r="AA140" s="13"/>
     </row>
     <row r="141" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="54"/>
-      <c r="B141" s="54"/>
+      <c r="A141" s="55"/>
+      <c r="B141" s="55"/>
       <c r="M141" s="13"/>
       <c r="N141" s="13"/>
       <c r="O141" s="13"/>
@@ -6586,8 +6593,8 @@
       <c r="AA141" s="13"/>
     </row>
     <row r="142" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="54"/>
-      <c r="B142" s="54"/>
+      <c r="A142" s="55"/>
+      <c r="B142" s="55"/>
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
@@ -6605,8 +6612,8 @@
       <c r="AA142" s="13"/>
     </row>
     <row r="143" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="54"/>
-      <c r="B143" s="54"/>
+      <c r="A143" s="55"/>
+      <c r="B143" s="55"/>
       <c r="M143" s="13"/>
       <c r="N143" s="13"/>
       <c r="O143" s="13"/>
@@ -6624,8 +6631,8 @@
       <c r="AA143" s="13"/>
     </row>
     <row r="144" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="54"/>
-      <c r="B144" s="54"/>
+      <c r="A144" s="55"/>
+      <c r="B144" s="55"/>
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
       <c r="O144" s="13"/>
@@ -6643,8 +6650,8 @@
       <c r="AA144" s="13"/>
     </row>
     <row r="145" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="54"/>
-      <c r="B145" s="54"/>
+      <c r="A145" s="55"/>
+      <c r="B145" s="55"/>
       <c r="M145" s="13"/>
       <c r="N145" s="13"/>
       <c r="O145" s="13"/>
@@ -6662,8 +6669,8 @@
       <c r="AA145" s="13"/>
     </row>
     <row r="146" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="54"/>
-      <c r="B146" s="54"/>
+      <c r="A146" s="55"/>
+      <c r="B146" s="55"/>
       <c r="M146" s="13"/>
       <c r="N146" s="13"/>
       <c r="O146" s="13"/>
@@ -6681,8 +6688,8 @@
       <c r="AA146" s="13"/>
     </row>
     <row r="147" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="54"/>
-      <c r="B147" s="54"/>
+      <c r="A147" s="55"/>
+      <c r="B147" s="55"/>
       <c r="M147" s="13"/>
       <c r="N147" s="13"/>
       <c r="O147" s="13"/>
@@ -6700,8 +6707,8 @@
       <c r="AA147" s="13"/>
     </row>
     <row r="148" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="54"/>
-      <c r="B148" s="54"/>
+      <c r="A148" s="55"/>
+      <c r="B148" s="55"/>
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
       <c r="O148" s="13"/>
@@ -6719,8 +6726,8 @@
       <c r="AA148" s="13"/>
     </row>
     <row r="149" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="54"/>
-      <c r="B149" s="54"/>
+      <c r="A149" s="55"/>
+      <c r="B149" s="55"/>
       <c r="M149" s="13"/>
       <c r="N149" s="13"/>
       <c r="O149" s="13"/>
@@ -6738,8 +6745,8 @@
       <c r="AA149" s="13"/>
     </row>
     <row r="150" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="54"/>
-      <c r="B150" s="54"/>
+      <c r="A150" s="55"/>
+      <c r="B150" s="55"/>
       <c r="M150" s="13"/>
       <c r="N150" s="13"/>
       <c r="O150" s="13"/>
@@ -6757,8 +6764,8 @@
       <c r="AA150" s="13"/>
     </row>
     <row r="151" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="54"/>
-      <c r="B151" s="54"/>
+      <c r="A151" s="55"/>
+      <c r="B151" s="55"/>
       <c r="M151" s="13"/>
       <c r="N151" s="13"/>
       <c r="O151" s="13"/>
@@ -6776,8 +6783,8 @@
       <c r="AA151" s="13"/>
     </row>
     <row r="152" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="54"/>
-      <c r="B152" s="54"/>
+      <c r="A152" s="55"/>
+      <c r="B152" s="55"/>
       <c r="M152" s="13"/>
       <c r="N152" s="13"/>
       <c r="O152" s="13"/>
@@ -6795,8 +6802,8 @@
       <c r="AA152" s="13"/>
     </row>
     <row r="153" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="54"/>
-      <c r="B153" s="54"/>
+      <c r="A153" s="55"/>
+      <c r="B153" s="55"/>
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
       <c r="O153" s="13"/>
@@ -6814,8 +6821,8 @@
       <c r="AA153" s="13"/>
     </row>
     <row r="154" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="54"/>
-      <c r="B154" s="54"/>
+      <c r="A154" s="55"/>
+      <c r="B154" s="55"/>
       <c r="M154" s="13"/>
       <c r="N154" s="13"/>
       <c r="O154" s="13"/>
@@ -6833,8 +6840,8 @@
       <c r="AA154" s="13"/>
     </row>
     <row r="155" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="54"/>
-      <c r="B155" s="54"/>
+      <c r="A155" s="55"/>
+      <c r="B155" s="55"/>
       <c r="M155" s="13"/>
       <c r="N155" s="13"/>
       <c r="O155" s="13"/>
@@ -6852,8 +6859,8 @@
       <c r="AA155" s="13"/>
     </row>
     <row r="156" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="54"/>
-      <c r="B156" s="54"/>
+      <c r="A156" s="55"/>
+      <c r="B156" s="55"/>
       <c r="M156" s="13"/>
       <c r="N156" s="13"/>
       <c r="O156" s="13"/>
@@ -6871,8 +6878,8 @@
       <c r="AA156" s="13"/>
     </row>
     <row r="157" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="54"/>
-      <c r="B157" s="54"/>
+      <c r="A157" s="55"/>
+      <c r="B157" s="55"/>
       <c r="M157" s="13"/>
       <c r="N157" s="13"/>
       <c r="O157" s="13"/>
@@ -6890,8 +6897,8 @@
       <c r="AA157" s="13"/>
     </row>
     <row r="158" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="54"/>
-      <c r="B158" s="54"/>
+      <c r="A158" s="55"/>
+      <c r="B158" s="55"/>
       <c r="M158" s="13"/>
       <c r="N158" s="13"/>
       <c r="O158" s="13"/>
@@ -6909,8 +6916,8 @@
       <c r="AA158" s="13"/>
     </row>
     <row r="159" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="54"/>
-      <c r="B159" s="54"/>
+      <c r="A159" s="55"/>
+      <c r="B159" s="55"/>
       <c r="M159" s="13"/>
       <c r="N159" s="13"/>
       <c r="O159" s="13"/>
@@ -6928,8 +6935,8 @@
       <c r="AA159" s="13"/>
     </row>
     <row r="160" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="54"/>
-      <c r="B160" s="54"/>
+      <c r="A160" s="55"/>
+      <c r="B160" s="55"/>
       <c r="M160" s="13"/>
       <c r="N160" s="13"/>
       <c r="O160" s="13"/>
@@ -6947,8 +6954,8 @@
       <c r="AA160" s="13"/>
     </row>
     <row r="161" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="54"/>
-      <c r="B161" s="54"/>
+      <c r="A161" s="55"/>
+      <c r="B161" s="55"/>
       <c r="M161" s="13"/>
       <c r="N161" s="13"/>
       <c r="O161" s="13"/>
@@ -6966,8 +6973,8 @@
       <c r="AA161" s="13"/>
     </row>
     <row r="162" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="54"/>
-      <c r="B162" s="54"/>
+      <c r="A162" s="55"/>
+      <c r="B162" s="55"/>
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
       <c r="O162" s="13"/>
@@ -6985,8 +6992,8 @@
       <c r="AA162" s="13"/>
     </row>
     <row r="163" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="54"/>
-      <c r="B163" s="54"/>
+      <c r="A163" s="55"/>
+      <c r="B163" s="55"/>
       <c r="M163" s="13"/>
       <c r="N163" s="13"/>
       <c r="O163" s="13"/>
@@ -7004,8 +7011,8 @@
       <c r="AA163" s="13"/>
     </row>
     <row r="164" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="54"/>
-      <c r="B164" s="54"/>
+      <c r="A164" s="55"/>
+      <c r="B164" s="55"/>
       <c r="M164" s="13"/>
       <c r="N164" s="13"/>
       <c r="O164" s="13"/>
@@ -7023,8 +7030,8 @@
       <c r="AA164" s="13"/>
     </row>
     <row r="165" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="54"/>
-      <c r="B165" s="54"/>
+      <c r="A165" s="55"/>
+      <c r="B165" s="55"/>
       <c r="M165" s="13"/>
       <c r="N165" s="13"/>
       <c r="O165" s="13"/>
@@ -7042,8 +7049,8 @@
       <c r="AA165" s="13"/>
     </row>
     <row r="166" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="54"/>
-      <c r="B166" s="54"/>
+      <c r="A166" s="55"/>
+      <c r="B166" s="55"/>
       <c r="M166" s="13"/>
       <c r="N166" s="13"/>
       <c r="O166" s="13"/>
@@ -7061,8 +7068,8 @@
       <c r="AA166" s="13"/>
     </row>
     <row r="167" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="54"/>
-      <c r="B167" s="54"/>
+      <c r="A167" s="55"/>
+      <c r="B167" s="55"/>
       <c r="M167" s="13"/>
       <c r="N167" s="13"/>
       <c r="O167" s="13"/>
@@ -7080,8 +7087,8 @@
       <c r="AA167" s="13"/>
     </row>
     <row r="168" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
-      <c r="B168" s="54"/>
+      <c r="A168" s="55"/>
+      <c r="B168" s="55"/>
       <c r="M168" s="13"/>
       <c r="N168" s="13"/>
       <c r="O168" s="13"/>
@@ -7099,8 +7106,8 @@
       <c r="AA168" s="13"/>
     </row>
     <row r="169" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="54"/>
-      <c r="B169" s="54"/>
+      <c r="A169" s="55"/>
+      <c r="B169" s="55"/>
       <c r="M169" s="13"/>
       <c r="N169" s="13"/>
       <c r="O169" s="13"/>
@@ -7118,8 +7125,8 @@
       <c r="AA169" s="13"/>
     </row>
     <row r="170" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="54"/>
-      <c r="B170" s="54"/>
+      <c r="A170" s="55"/>
+      <c r="B170" s="55"/>
       <c r="M170" s="13"/>
       <c r="N170" s="13"/>
       <c r="O170" s="13"/>
@@ -7137,8 +7144,8 @@
       <c r="AA170" s="13"/>
     </row>
     <row r="171" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="54"/>
-      <c r="B171" s="54"/>
+      <c r="A171" s="55"/>
+      <c r="B171" s="55"/>
       <c r="M171" s="13"/>
       <c r="N171" s="13"/>
       <c r="O171" s="13"/>
@@ -7156,8 +7163,8 @@
       <c r="AA171" s="13"/>
     </row>
     <row r="172" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="54"/>
-      <c r="B172" s="54"/>
+      <c r="A172" s="55"/>
+      <c r="B172" s="55"/>
       <c r="M172" s="13"/>
       <c r="N172" s="13"/>
       <c r="O172" s="13"/>
@@ -7175,8 +7182,8 @@
       <c r="AA172" s="13"/>
     </row>
     <row r="173" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A173" s="54"/>
-      <c r="B173" s="54"/>
+      <c r="A173" s="55"/>
+      <c r="B173" s="55"/>
       <c r="M173" s="13"/>
       <c r="N173" s="13"/>
       <c r="O173" s="13"/>
@@ -7194,8 +7201,8 @@
       <c r="AA173" s="13"/>
     </row>
     <row r="174" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="54"/>
-      <c r="B174" s="54"/>
+      <c r="A174" s="55"/>
+      <c r="B174" s="55"/>
       <c r="M174" s="13"/>
       <c r="N174" s="13"/>
       <c r="O174" s="13"/>
@@ -7213,8 +7220,8 @@
       <c r="AA174" s="13"/>
     </row>
     <row r="175" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="54"/>
-      <c r="B175" s="54"/>
+      <c r="A175" s="55"/>
+      <c r="B175" s="55"/>
       <c r="M175" s="13"/>
       <c r="N175" s="13"/>
       <c r="O175" s="13"/>
@@ -7232,8 +7239,8 @@
       <c r="AA175" s="13"/>
     </row>
     <row r="176" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="54"/>
-      <c r="B176" s="54"/>
+      <c r="A176" s="55"/>
+      <c r="B176" s="55"/>
       <c r="M176" s="13"/>
       <c r="N176" s="13"/>
       <c r="O176" s="13"/>
@@ -7251,8 +7258,8 @@
       <c r="AA176" s="13"/>
     </row>
     <row r="177" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="54"/>
-      <c r="B177" s="54"/>
+      <c r="A177" s="55"/>
+      <c r="B177" s="55"/>
       <c r="M177" s="13"/>
       <c r="N177" s="13"/>
       <c r="O177" s="13"/>
@@ -7270,8 +7277,8 @@
       <c r="AA177" s="13"/>
     </row>
     <row r="178" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="54"/>
-      <c r="B178" s="54"/>
+      <c r="A178" s="55"/>
+      <c r="B178" s="55"/>
       <c r="M178" s="13"/>
       <c r="N178" s="13"/>
       <c r="O178" s="13"/>
@@ -7289,8 +7296,8 @@
       <c r="AA178" s="13"/>
     </row>
     <row r="179" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A179" s="54"/>
-      <c r="B179" s="54"/>
+      <c r="A179" s="55"/>
+      <c r="B179" s="55"/>
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
       <c r="O179" s="13"/>
@@ -7308,8 +7315,8 @@
       <c r="AA179" s="13"/>
     </row>
     <row r="180" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="54"/>
-      <c r="B180" s="54"/>
+      <c r="A180" s="55"/>
+      <c r="B180" s="55"/>
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
       <c r="O180" s="13"/>
@@ -7327,8 +7334,8 @@
       <c r="AA180" s="13"/>
     </row>
     <row r="181" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="54"/>
-      <c r="B181" s="54"/>
+      <c r="A181" s="55"/>
+      <c r="B181" s="55"/>
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
@@ -7346,8 +7353,8 @@
       <c r="AA181" s="13"/>
     </row>
     <row r="182" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="54"/>
-      <c r="B182" s="54"/>
+      <c r="A182" s="55"/>
+      <c r="B182" s="55"/>
       <c r="M182" s="13"/>
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
@@ -7365,8 +7372,8 @@
       <c r="AA182" s="13"/>
     </row>
     <row r="183" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="54"/>
-      <c r="B183" s="54"/>
+      <c r="A183" s="55"/>
+      <c r="B183" s="55"/>
       <c r="M183" s="13"/>
       <c r="N183" s="13"/>
       <c r="O183" s="13"/>
@@ -7384,8 +7391,8 @@
       <c r="AA183" s="13"/>
     </row>
     <row r="184" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="54"/>
-      <c r="B184" s="54"/>
+      <c r="A184" s="55"/>
+      <c r="B184" s="55"/>
       <c r="M184" s="13"/>
       <c r="N184" s="13"/>
       <c r="O184" s="13"/>
@@ -7403,8 +7410,8 @@
       <c r="AA184" s="13"/>
     </row>
     <row r="185" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="54"/>
-      <c r="B185" s="54"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="55"/>
       <c r="M185" s="13"/>
       <c r="N185" s="13"/>
       <c r="O185" s="13"/>
@@ -7422,8 +7429,8 @@
       <c r="AA185" s="13"/>
     </row>
     <row r="186" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="54"/>
-      <c r="B186" s="54"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="55"/>
       <c r="M186" s="13"/>
       <c r="N186" s="13"/>
       <c r="O186" s="13"/>
@@ -7441,8 +7448,8 @@
       <c r="AA186" s="13"/>
     </row>
     <row r="187" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="54"/>
-      <c r="B187" s="54"/>
+      <c r="A187" s="55"/>
+      <c r="B187" s="55"/>
       <c r="M187" s="13"/>
       <c r="N187" s="13"/>
       <c r="O187" s="13"/>
@@ -7460,8 +7467,8 @@
       <c r="AA187" s="13"/>
     </row>
     <row r="188" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A188" s="54"/>
-      <c r="B188" s="54"/>
+      <c r="A188" s="55"/>
+      <c r="B188" s="55"/>
       <c r="M188" s="13"/>
       <c r="N188" s="13"/>
       <c r="O188" s="13"/>
@@ -7479,8 +7486,8 @@
       <c r="AA188" s="13"/>
     </row>
     <row r="189" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A189" s="54"/>
-      <c r="B189" s="54"/>
+      <c r="A189" s="55"/>
+      <c r="B189" s="55"/>
       <c r="M189" s="13"/>
       <c r="N189" s="13"/>
       <c r="O189" s="13"/>
@@ -7498,8 +7505,8 @@
       <c r="AA189" s="13"/>
     </row>
     <row r="190" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A190" s="54"/>
-      <c r="B190" s="54"/>
+      <c r="A190" s="55"/>
+      <c r="B190" s="55"/>
       <c r="M190" s="13"/>
       <c r="N190" s="13"/>
       <c r="O190" s="13"/>
@@ -7517,8 +7524,8 @@
       <c r="AA190" s="13"/>
     </row>
     <row r="191" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="54"/>
-      <c r="B191" s="54"/>
+      <c r="A191" s="55"/>
+      <c r="B191" s="55"/>
       <c r="M191" s="13"/>
       <c r="N191" s="13"/>
       <c r="O191" s="13"/>
@@ -7536,8 +7543,8 @@
       <c r="AA191" s="13"/>
     </row>
     <row r="192" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="54"/>
-      <c r="B192" s="54"/>
+      <c r="A192" s="55"/>
+      <c r="B192" s="55"/>
       <c r="M192" s="13"/>
       <c r="N192" s="13"/>
       <c r="O192" s="13"/>
@@ -7555,8 +7562,8 @@
       <c r="AA192" s="13"/>
     </row>
     <row r="193" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A193" s="54"/>
-      <c r="B193" s="54"/>
+      <c r="A193" s="55"/>
+      <c r="B193" s="55"/>
       <c r="M193" s="13"/>
       <c r="N193" s="13"/>
       <c r="O193" s="13"/>
@@ -7574,8 +7581,8 @@
       <c r="AA193" s="13"/>
     </row>
     <row r="194" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A194" s="54"/>
-      <c r="B194" s="54"/>
+      <c r="A194" s="55"/>
+      <c r="B194" s="55"/>
       <c r="M194" s="13"/>
       <c r="N194" s="13"/>
       <c r="O194" s="13"/>
@@ -7593,8 +7600,8 @@
       <c r="AA194" s="13"/>
     </row>
     <row r="195" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="54"/>
-      <c r="B195" s="54"/>
+      <c r="A195" s="55"/>
+      <c r="B195" s="55"/>
       <c r="M195" s="13"/>
       <c r="N195" s="13"/>
       <c r="O195" s="13"/>
@@ -7612,8 +7619,8 @@
       <c r="AA195" s="13"/>
     </row>
     <row r="196" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="54"/>
-      <c r="B196" s="54"/>
+      <c r="A196" s="55"/>
+      <c r="B196" s="55"/>
       <c r="M196" s="13"/>
       <c r="N196" s="13"/>
       <c r="O196" s="13"/>
@@ -7631,8 +7638,8 @@
       <c r="AA196" s="13"/>
     </row>
     <row r="197" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="54"/>
-      <c r="B197" s="54"/>
+      <c r="A197" s="55"/>
+      <c r="B197" s="55"/>
       <c r="M197" s="13"/>
       <c r="N197" s="13"/>
       <c r="O197" s="13"/>
@@ -7650,8 +7657,8 @@
       <c r="AA197" s="13"/>
     </row>
     <row r="198" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A198" s="54"/>
-      <c r="B198" s="54"/>
+      <c r="A198" s="55"/>
+      <c r="B198" s="55"/>
       <c r="M198" s="13"/>
       <c r="N198" s="13"/>
       <c r="O198" s="13"/>
@@ -7669,8 +7676,8 @@
       <c r="AA198" s="13"/>
     </row>
     <row r="199" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="54"/>
-      <c r="B199" s="54"/>
+      <c r="A199" s="55"/>
+      <c r="B199" s="55"/>
       <c r="M199" s="13"/>
       <c r="N199" s="13"/>
       <c r="O199" s="13"/>
@@ -7688,8 +7695,8 @@
       <c r="AA199" s="15"/>
     </row>
     <row r="200" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="54"/>
-      <c r="B200" s="54"/>
+      <c r="A200" s="55"/>
+      <c r="B200" s="55"/>
       <c r="M200" s="13"/>
       <c r="N200" s="13"/>
       <c r="O200" s="13"/>
@@ -7707,8 +7714,8 @@
       <c r="AA200" s="13"/>
     </row>
     <row r="201" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A201" s="54"/>
-      <c r="B201" s="54"/>
+      <c r="A201" s="55"/>
+      <c r="B201" s="55"/>
       <c r="M201" s="13"/>
       <c r="N201" s="13"/>
       <c r="O201" s="13"/>
@@ -7726,8 +7733,8 @@
       <c r="AA201" s="13"/>
     </row>
     <row r="202" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A202" s="54"/>
-      <c r="B202" s="54"/>
+      <c r="A202" s="55"/>
+      <c r="B202" s="55"/>
       <c r="M202" s="13"/>
       <c r="N202" s="13"/>
       <c r="O202" s="13"/>
@@ -7745,8 +7752,8 @@
       <c r="AA202" s="13"/>
     </row>
     <row r="203" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="54"/>
-      <c r="B203" s="54"/>
+      <c r="A203" s="55"/>
+      <c r="B203" s="55"/>
       <c r="M203" s="13"/>
       <c r="N203" s="13"/>
       <c r="O203" s="13"/>
@@ -7764,8 +7771,8 @@
       <c r="AA203" s="13"/>
     </row>
     <row r="204" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="54"/>
-      <c r="B204" s="54"/>
+      <c r="A204" s="55"/>
+      <c r="B204" s="55"/>
       <c r="M204" s="13"/>
       <c r="N204" s="13"/>
       <c r="O204" s="13"/>
@@ -7783,8 +7790,8 @@
       <c r="AA204" s="13"/>
     </row>
     <row r="205" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="54"/>
-      <c r="B205" s="54"/>
+      <c r="A205" s="55"/>
+      <c r="B205" s="55"/>
       <c r="M205" s="13"/>
       <c r="N205" s="13"/>
       <c r="O205" s="13"/>
@@ -7802,8 +7809,8 @@
       <c r="AA205" s="13"/>
     </row>
     <row r="206" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A206" s="54"/>
-      <c r="B206" s="54"/>
+      <c r="A206" s="55"/>
+      <c r="B206" s="55"/>
       <c r="M206" s="13"/>
       <c r="N206" s="13"/>
       <c r="O206" s="13"/>
@@ -7821,8 +7828,8 @@
       <c r="AA206" s="13"/>
     </row>
     <row r="207" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="54"/>
-      <c r="B207" s="54"/>
+      <c r="A207" s="55"/>
+      <c r="B207" s="55"/>
       <c r="M207" s="13"/>
       <c r="N207" s="13"/>
       <c r="O207" s="13"/>
@@ -7840,8 +7847,8 @@
       <c r="AA207" s="13"/>
     </row>
     <row r="208" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="54"/>
-      <c r="B208" s="54"/>
+      <c r="A208" s="55"/>
+      <c r="B208" s="55"/>
       <c r="M208" s="13"/>
       <c r="N208" s="13"/>
       <c r="O208" s="13"/>
@@ -7859,8 +7866,8 @@
       <c r="AA208" s="13"/>
     </row>
     <row r="209" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A209" s="54"/>
-      <c r="B209" s="54"/>
+      <c r="A209" s="55"/>
+      <c r="B209" s="55"/>
       <c r="M209" s="13"/>
       <c r="N209" s="13"/>
       <c r="O209" s="13"/>
@@ -7878,8 +7885,8 @@
       <c r="AA209" s="13"/>
     </row>
     <row r="210" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A210" s="54"/>
-      <c r="B210" s="54"/>
+      <c r="A210" s="55"/>
+      <c r="B210" s="55"/>
       <c r="M210" s="13"/>
       <c r="N210" s="13"/>
       <c r="O210" s="13"/>
@@ -7897,8 +7904,8 @@
       <c r="AA210" s="13"/>
     </row>
     <row r="211" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="54"/>
-      <c r="B211" s="54"/>
+      <c r="A211" s="55"/>
+      <c r="B211" s="55"/>
       <c r="M211" s="13"/>
       <c r="N211" s="13"/>
       <c r="O211" s="13"/>
@@ -7916,8 +7923,8 @@
       <c r="AA211" s="13"/>
     </row>
     <row r="212" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="54"/>
-      <c r="B212" s="54"/>
+      <c r="A212" s="55"/>
+      <c r="B212" s="55"/>
       <c r="M212" s="13"/>
       <c r="N212" s="13"/>
       <c r="O212" s="13"/>
@@ -7935,8 +7942,8 @@
       <c r="AA212" s="13"/>
     </row>
     <row r="213" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="54"/>
-      <c r="B213" s="54"/>
+      <c r="A213" s="55"/>
+      <c r="B213" s="55"/>
       <c r="M213" s="13"/>
       <c r="N213" s="13"/>
       <c r="O213" s="13"/>
@@ -7954,8 +7961,8 @@
       <c r="AA213" s="13"/>
     </row>
     <row r="214" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A214" s="54"/>
-      <c r="B214" s="54"/>
+      <c r="A214" s="55"/>
+      <c r="B214" s="55"/>
       <c r="M214" s="13"/>
       <c r="N214" s="13"/>
       <c r="O214" s="13"/>
@@ -7973,8 +7980,8 @@
       <c r="AA214" s="13"/>
     </row>
     <row r="215" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A215" s="54"/>
-      <c r="B215" s="54"/>
+      <c r="A215" s="55"/>
+      <c r="B215" s="55"/>
       <c r="M215" s="13"/>
       <c r="N215" s="13"/>
       <c r="O215" s="13"/>
@@ -7992,8 +7999,8 @@
       <c r="AA215" s="13"/>
     </row>
     <row r="216" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="54"/>
-      <c r="B216" s="54"/>
+      <c r="A216" s="55"/>
+      <c r="B216" s="55"/>
       <c r="M216" s="13"/>
       <c r="N216" s="13"/>
       <c r="O216" s="13"/>
@@ -8011,8 +8018,8 @@
       <c r="AA216" s="13"/>
     </row>
     <row r="217" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="54"/>
-      <c r="B217" s="54"/>
+      <c r="A217" s="55"/>
+      <c r="B217" s="55"/>
       <c r="M217" s="13"/>
       <c r="N217" s="13"/>
       <c r="O217" s="13"/>
@@ -8030,8 +8037,8 @@
       <c r="AA217" s="13"/>
     </row>
     <row r="218" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="54"/>
-      <c r="B218" s="54"/>
+      <c r="A218" s="55"/>
+      <c r="B218" s="55"/>
       <c r="M218" s="13"/>
       <c r="N218" s="13"/>
       <c r="O218" s="13"/>
@@ -8049,8 +8056,8 @@
       <c r="AA218" s="13"/>
     </row>
     <row r="219" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="54"/>
-      <c r="B219" s="54"/>
+      <c r="A219" s="55"/>
+      <c r="B219" s="55"/>
       <c r="M219" s="13"/>
       <c r="N219" s="13"/>
       <c r="O219" s="13"/>
@@ -8068,8 +8075,8 @@
       <c r="AA219" s="13"/>
     </row>
     <row r="220" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="54"/>
-      <c r="B220" s="54"/>
+      <c r="A220" s="55"/>
+      <c r="B220" s="55"/>
       <c r="M220" s="13"/>
       <c r="N220" s="13"/>
       <c r="O220" s="13"/>
@@ -8087,8 +8094,8 @@
       <c r="AA220" s="13"/>
     </row>
     <row r="221" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="54"/>
-      <c r="B221" s="54"/>
+      <c r="A221" s="55"/>
+      <c r="B221" s="55"/>
       <c r="M221" s="13"/>
       <c r="N221" s="13"/>
       <c r="O221" s="13"/>
@@ -8106,8 +8113,8 @@
       <c r="AA221" s="13"/>
     </row>
     <row r="222" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A222" s="54"/>
-      <c r="B222" s="54"/>
+      <c r="A222" s="55"/>
+      <c r="B222" s="55"/>
       <c r="M222" s="13"/>
       <c r="N222" s="13"/>
       <c r="O222" s="13"/>
@@ -8125,8 +8132,8 @@
       <c r="AA222" s="13"/>
     </row>
     <row r="223" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A223" s="54"/>
-      <c r="B223" s="54"/>
+      <c r="A223" s="55"/>
+      <c r="B223" s="55"/>
       <c r="M223" s="13"/>
       <c r="N223" s="13"/>
       <c r="O223" s="13"/>
@@ -8144,8 +8151,8 @@
       <c r="AA223" s="13"/>
     </row>
     <row r="224" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="54"/>
-      <c r="B224" s="54"/>
+      <c r="A224" s="55"/>
+      <c r="B224" s="55"/>
       <c r="M224" s="13"/>
       <c r="N224" s="13"/>
       <c r="O224" s="13"/>
@@ -8163,8 +8170,8 @@
       <c r="AA224" s="13"/>
     </row>
     <row r="225" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A225" s="54"/>
-      <c r="B225" s="54"/>
+      <c r="A225" s="55"/>
+      <c r="B225" s="55"/>
       <c r="M225" s="13"/>
       <c r="N225" s="13"/>
       <c r="O225" s="13"/>
@@ -8182,8 +8189,8 @@
       <c r="AA225" s="13"/>
     </row>
     <row r="226" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A226" s="54"/>
-      <c r="B226" s="54"/>
+      <c r="A226" s="55"/>
+      <c r="B226" s="55"/>
       <c r="M226" s="13"/>
       <c r="N226" s="13"/>
       <c r="O226" s="13"/>
@@ -8201,8 +8208,8 @@
       <c r="AA226" s="13"/>
     </row>
     <row r="227" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A227" s="54"/>
-      <c r="B227" s="54"/>
+      <c r="A227" s="55"/>
+      <c r="B227" s="55"/>
       <c r="M227" s="13"/>
       <c r="N227" s="13"/>
       <c r="O227" s="13"/>
@@ -8220,8 +8227,8 @@
       <c r="AA227" s="13"/>
     </row>
     <row r="228" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="54"/>
-      <c r="B228" s="54"/>
+      <c r="A228" s="55"/>
+      <c r="B228" s="55"/>
       <c r="M228" s="13"/>
       <c r="N228" s="13"/>
       <c r="O228" s="13"/>
@@ -8239,8 +8246,8 @@
       <c r="AA228" s="13"/>
     </row>
     <row r="229" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="54"/>
-      <c r="B229" s="54"/>
+      <c r="A229" s="55"/>
+      <c r="B229" s="55"/>
       <c r="M229" s="13"/>
       <c r="N229" s="13"/>
       <c r="O229" s="13"/>
@@ -8258,8 +8265,8 @@
       <c r="AA229" s="13"/>
     </row>
     <row r="230" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="54"/>
-      <c r="B230" s="54"/>
+      <c r="A230" s="55"/>
+      <c r="B230" s="55"/>
       <c r="M230" s="13"/>
       <c r="N230" s="13"/>
       <c r="O230" s="13"/>
@@ -8277,8 +8284,8 @@
       <c r="AA230" s="13"/>
     </row>
     <row r="231" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A231" s="54"/>
-      <c r="B231" s="54"/>
+      <c r="A231" s="55"/>
+      <c r="B231" s="55"/>
       <c r="M231" s="13"/>
       <c r="N231" s="13"/>
       <c r="O231" s="13"/>
@@ -8296,8 +8303,8 @@
       <c r="AA231" s="13"/>
     </row>
     <row r="232" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="54"/>
-      <c r="B232" s="54"/>
+      <c r="A232" s="55"/>
+      <c r="B232" s="55"/>
       <c r="M232" s="13"/>
       <c r="N232" s="13"/>
       <c r="O232" s="13"/>
@@ -8315,8 +8322,8 @@
       <c r="AA232" s="13"/>
     </row>
     <row r="233" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A233" s="54"/>
-      <c r="B233" s="54"/>
+      <c r="A233" s="55"/>
+      <c r="B233" s="55"/>
       <c r="M233" s="13"/>
       <c r="N233" s="13"/>
       <c r="O233" s="13"/>
@@ -8334,8 +8341,8 @@
       <c r="AA233" s="13"/>
     </row>
     <row r="234" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="54"/>
-      <c r="B234" s="54"/>
+      <c r="A234" s="55"/>
+      <c r="B234" s="55"/>
       <c r="M234" s="13"/>
       <c r="N234" s="13"/>
       <c r="O234" s="13"/>
@@ -8353,8 +8360,8 @@
       <c r="AA234" s="13"/>
     </row>
     <row r="235" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="54"/>
-      <c r="B235" s="54"/>
+      <c r="A235" s="55"/>
+      <c r="B235" s="55"/>
       <c r="M235" s="13"/>
       <c r="N235" s="13"/>
       <c r="O235" s="13"/>
@@ -8372,8 +8379,8 @@
       <c r="AA235" s="13"/>
     </row>
     <row r="236" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="54"/>
-      <c r="B236" s="54"/>
+      <c r="A236" s="55"/>
+      <c r="B236" s="55"/>
       <c r="M236" s="13"/>
       <c r="N236" s="13"/>
       <c r="O236" s="13"/>
@@ -8391,8 +8398,8 @@
       <c r="AA236" s="13"/>
     </row>
     <row r="237" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="54"/>
-      <c r="B237" s="54"/>
+      <c r="A237" s="55"/>
+      <c r="B237" s="55"/>
       <c r="M237" s="13"/>
       <c r="N237" s="13"/>
       <c r="O237" s="13"/>
@@ -8410,8 +8417,8 @@
       <c r="AA237" s="13"/>
     </row>
     <row r="238" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="54"/>
-      <c r="B238" s="54"/>
+      <c r="A238" s="55"/>
+      <c r="B238" s="55"/>
       <c r="M238" s="13"/>
       <c r="N238" s="13"/>
       <c r="O238" s="13"/>
@@ -8429,8 +8436,8 @@
       <c r="AA238" s="13"/>
     </row>
     <row r="239" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="54"/>
-      <c r="B239" s="54"/>
+      <c r="A239" s="55"/>
+      <c r="B239" s="55"/>
       <c r="M239" s="13"/>
       <c r="N239" s="13"/>
       <c r="O239" s="13"/>
@@ -8448,8 +8455,8 @@
       <c r="AA239" s="13"/>
     </row>
     <row r="240" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="54"/>
-      <c r="B240" s="54"/>
+      <c r="A240" s="55"/>
+      <c r="B240" s="55"/>
       <c r="M240" s="13"/>
       <c r="N240" s="13"/>
       <c r="O240" s="13"/>
@@ -8467,8 +8474,8 @@
       <c r="AA240" s="13"/>
     </row>
     <row r="241" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="54"/>
-      <c r="B241" s="54"/>
+      <c r="A241" s="55"/>
+      <c r="B241" s="55"/>
       <c r="M241" s="13"/>
       <c r="N241" s="13"/>
       <c r="O241" s="13"/>
@@ -8486,8 +8493,8 @@
       <c r="AA241" s="13"/>
     </row>
     <row r="242" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="54"/>
-      <c r="B242" s="54"/>
+      <c r="A242" s="55"/>
+      <c r="B242" s="55"/>
       <c r="M242" s="13"/>
       <c r="N242" s="13"/>
       <c r="O242" s="13"/>
@@ -8505,8 +8512,8 @@
       <c r="AA242" s="13"/>
     </row>
     <row r="243" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="54"/>
-      <c r="B243" s="54"/>
+      <c r="A243" s="55"/>
+      <c r="B243" s="55"/>
       <c r="M243" s="13"/>
       <c r="N243" s="13"/>
       <c r="O243" s="13"/>
@@ -8524,8 +8531,8 @@
       <c r="AA243" s="13"/>
     </row>
     <row r="244" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="54"/>
-      <c r="B244" s="54"/>
+      <c r="A244" s="55"/>
+      <c r="B244" s="55"/>
       <c r="M244" s="13"/>
       <c r="N244" s="13"/>
       <c r="O244" s="13"/>
@@ -8543,8 +8550,8 @@
       <c r="AA244" s="13"/>
     </row>
     <row r="245" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="54"/>
-      <c r="B245" s="54"/>
+      <c r="A245" s="55"/>
+      <c r="B245" s="55"/>
       <c r="M245" s="13"/>
       <c r="N245" s="13"/>
       <c r="O245" s="13"/>
@@ -8563,216 +8570,6 @@
     </row>
   </sheetData>
   <mergeCells count="234">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
     <mergeCell ref="A243:B243"/>
     <mergeCell ref="A244:B244"/>
     <mergeCell ref="A245:B245"/>
@@ -8797,6 +8594,216 @@
     <mergeCell ref="A231:B231"/>
     <mergeCell ref="A232:B232"/>
     <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:L35">
     <cfRule type="colorScale" priority="194">
@@ -8811,256 +8818,256 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:L35">
-    <cfRule type="cellIs" dxfId="69" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="148" operator="equal">
       <formula>"Calc. Off"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4">
-    <cfRule type="expression" dxfId="68" priority="330">
+    <cfRule type="expression" dxfId="79" priority="330">
       <formula>E1="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="331">
+    <cfRule type="expression" dxfId="78" priority="331">
       <formula>E1="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="66" priority="332">
+    <cfRule type="expression" dxfId="77" priority="332">
       <formula>E5="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="333">
+    <cfRule type="expression" dxfId="76" priority="333">
       <formula>E5="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 K1 I1:I6">
-    <cfRule type="expression" dxfId="64" priority="354">
+    <cfRule type="expression" dxfId="75" priority="354">
       <formula>H1="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="355">
+    <cfRule type="expression" dxfId="74" priority="355">
       <formula>H1="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="62" priority="498">
+    <cfRule type="expression" dxfId="73" priority="498">
       <formula>L2="Mixed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="499">
+    <cfRule type="expression" dxfId="72" priority="499">
       <formula>L2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="500">
+    <cfRule type="expression" dxfId="71" priority="500">
       <formula>L2="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="59" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="501" stopIfTrue="1">
       <formula>L2="Automatic"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="58" priority="502">
+    <cfRule type="expression" dxfId="69" priority="502">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="503">
+    <cfRule type="expression" dxfId="68" priority="503">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="504">
+    <cfRule type="expression" dxfId="67" priority="504">
       <formula>H1="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="505">
+    <cfRule type="expression" dxfId="66" priority="505">
       <formula>H1="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="54" priority="506">
+    <cfRule type="expression" dxfId="65" priority="506">
       <formula>L2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="507">
+    <cfRule type="expression" dxfId="64" priority="507">
       <formula>AND(H1="Manual",H3="Manual",H4="Manual",H5="Manual",H2="Manual",H6="Manual",J1="Manual",J2="Manual")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="52" priority="508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="508" stopIfTrue="1">
       <formula>L2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="509">
+    <cfRule type="expression" dxfId="62" priority="509">
       <formula>L2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="510">
+    <cfRule type="expression" dxfId="61" priority="510">
       <formula>AND(H1="Manual",H3="Manual",H4="Manual",H5="Manual",H2="Manual",H6="Manual",J1="Manual",J2="Manual")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="49" priority="511">
+    <cfRule type="expression" dxfId="60" priority="511">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="512">
+    <cfRule type="expression" dxfId="59" priority="512">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="513">
+    <cfRule type="expression" dxfId="58" priority="513">
       <formula>L1="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="514">
+    <cfRule type="expression" dxfId="57" priority="514">
       <formula>L1="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="45" priority="515">
+    <cfRule type="expression" dxfId="56" priority="515">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="516">
+    <cfRule type="expression" dxfId="55" priority="516">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="517">
+    <cfRule type="expression" dxfId="54" priority="517">
       <formula>J5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="518">
+    <cfRule type="expression" dxfId="53" priority="518">
       <formula>J5="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>H2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>H2="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="37" priority="519">
+    <cfRule type="expression" dxfId="48" priority="519">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="520">
+    <cfRule type="expression" dxfId="47" priority="520">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="521">
+    <cfRule type="expression" dxfId="46" priority="521">
       <formula>J2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="522">
+    <cfRule type="expression" dxfId="45" priority="522">
       <formula>J2="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="33" priority="527">
+    <cfRule type="expression" dxfId="44" priority="527">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="528">
+    <cfRule type="expression" dxfId="43" priority="528">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="529">
+    <cfRule type="expression" dxfId="42" priority="529">
       <formula>H3="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="530">
+    <cfRule type="expression" dxfId="41" priority="530">
       <formula>H3="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="29" priority="535">
+    <cfRule type="expression" dxfId="40" priority="535">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="536">
+    <cfRule type="expression" dxfId="39" priority="536">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="537">
+    <cfRule type="expression" dxfId="38" priority="537">
       <formula>H4="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="538">
+    <cfRule type="expression" dxfId="37" priority="538">
       <formula>K4="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="25" priority="543">
+    <cfRule type="expression" dxfId="36" priority="543">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="544">
+    <cfRule type="expression" dxfId="35" priority="544">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="545">
+    <cfRule type="expression" dxfId="34" priority="545">
       <formula>H5="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="546">
+    <cfRule type="expression" dxfId="33" priority="546">
       <formula>H%="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="21" priority="551">
+    <cfRule type="expression" dxfId="32" priority="551">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="552">
+    <cfRule type="expression" dxfId="31" priority="552">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="553">
+    <cfRule type="expression" dxfId="30" priority="553">
       <formula>H6="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="554">
+    <cfRule type="expression" dxfId="29" priority="554">
       <formula>H6="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="17" priority="559">
+    <cfRule type="expression" dxfId="28" priority="559">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="560">
+    <cfRule type="expression" dxfId="27" priority="560">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="561">
+    <cfRule type="expression" dxfId="26" priority="561">
       <formula>J1="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="562">
+    <cfRule type="expression" dxfId="25" priority="562">
       <formula>J1="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="13" priority="567">
+    <cfRule type="expression" dxfId="24" priority="567">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="568">
+    <cfRule type="expression" dxfId="23" priority="568">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="569">
+    <cfRule type="expression" dxfId="22" priority="569">
       <formula>J4="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="570">
+    <cfRule type="expression" dxfId="21" priority="570">
       <formula>J4="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="9" priority="575">
+    <cfRule type="expression" dxfId="20" priority="575">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="576">
+    <cfRule type="expression" dxfId="19" priority="576">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="577">
+    <cfRule type="expression" dxfId="18" priority="577">
       <formula>J6="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="578">
+    <cfRule type="expression" dxfId="17" priority="578">
       <formula>J6="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A6">
-    <cfRule type="expression" dxfId="5" priority="581">
+    <cfRule type="expression" dxfId="16" priority="581">
       <formula>C1="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="582">
+    <cfRule type="expression" dxfId="15" priority="582">
       <formula>C1="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>$L$2="Manual"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$L$2="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>J3="Automatic"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>J3="Manual"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26889,8 +26896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D8AF55-D1DE-4A96-AB4C-91F60E4938F9}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26950,7 +26957,7 @@
       </c>
       <c r="G2" s="8">
         <f t="array" ref="G2">IFERROR(INDEX(C2:E26,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A2:A26&amp;B2:B26,0),MATCH('eHP Calc'!C22,C1:E1,0)),1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="8">
         <f>1-_xlfn.IFS('eHP Calc'!E18="Non-Safe",'Background Tables'!J8,'eHP Calc'!E18="Safe",'Background Tables'!J5)</f>
@@ -27083,7 +27090,7 @@
       </c>
       <c r="G8" s="2" t="str">
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$H$14="General",C29,'eHP Calc'!$H$14="DD",D29,'eHP Calc'!$H$14="CL",E29,'eHP Calc'!$H$14="CA",F29,'eHP Calc'!$H$14="BB",G29)," ")</f>
-        <v>General</v>
+        <v>Normal</v>
       </c>
       <c r="J8" s="8">
         <f>1-((100-2*MAX(MIN(('eHP Calc'!C19),25),-25))/100)*((100-2*'eHP Calc'!E19)/100)</f>
@@ -27106,9 +27113,9 @@
       <c r="E9" s="17">
         <v>0.75</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2" t="str">
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$H$14="General",C30,'eHP Calc'!$H$14="DD",D30,'eHP Calc'!$H$14="CL",E30,'eHP Calc'!$H$14="CA",F30,'eHP Calc'!$H$14="BB",G30),"")</f>
-        <v>0</v>
+        <v>HE</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -27127,9 +27134,9 @@
       <c r="E10" s="17">
         <v>0.6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2" t="str">
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$H$14="General",C31,'eHP Calc'!$H$14="DD",D31,'eHP Calc'!$H$14="CL",E31,'eHP Calc'!$H$14="CA",F31,'eHP Calc'!$H$14="BB",G31),"")</f>
-        <v>0</v>
+        <v>AP</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>450</v>
@@ -27155,13 +27162,13 @@
       <c r="E11" s="17">
         <v>0.7</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="2" t="str">
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$H$14="General",C32,'eHP Calc'!$H$14="DD",D32,'eHP Calc'!$H$14="CL",E32,'eHP Calc'!$H$14="CA",F32,'eHP Calc'!$H$14="BB",G32),"")</f>
-        <v>0</v>
+        <v>AP+</v>
       </c>
       <c r="J11" s="39">
         <f t="array" ref="J11">IF('eHP Calc'!G18="Yes",IFERROR(1+((1-(1-MAX(0,INDEX(C40:C48,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A40:A48&amp;B40:B48,0))-'eHP Calc'!I21))^(INDEX(F40:F48,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A40:A48&amp;B40:B48,0))*((15-'eHP Calc'!I22)/INDEX(E40:E48,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A40:A48&amp;B40:B48,0)))))*INDEX(D40:D48,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A40:A48&amp;B40:B48,0))*(1-'eHP Calc'!I23)),1),1)</f>
-        <v>1</v>
+        <v>1.5940941200786178</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -27180,9 +27187,9 @@
       <c r="E12" s="17">
         <v>0.5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="2" t="str">
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$H$14="General",C33,'eHP Calc'!$H$14="DD",D33,'eHP Calc'!$H$14="CL",E33,'eHP Calc'!$H$14="CA",F33,'eHP Calc'!$H$14="BB",G33),"")</f>
-        <v>0</v>
+        <v>Type 3 Shell</v>
       </c>
       <c r="L12" s="25"/>
     </row>
@@ -27202,9 +27209,9 @@
       <c r="E13" s="17">
         <v>0.7</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="2" t="str">
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$H$14="General",C34,'eHP Calc'!$H$14="DD",D34,'eHP Calc'!$H$14="CL",E34,'eHP Calc'!$H$14="CA",F34,'eHP Calc'!$H$14="BB",G34),"")</f>
-        <v>0</v>
+        <v>Type 3 Shell Fragment</v>
       </c>
       <c r="J13" s="71" t="s">
         <v>535</v>
@@ -27227,13 +27234,13 @@
       <c r="E14" s="17">
         <v>0.75</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="str">
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$H$14="General",C35,'eHP Calc'!$H$14="DD",D35,'eHP Calc'!$H$14="CL",E35,'eHP Calc'!$H$14="CA",F35,'eHP Calc'!$H$14="BB",G35),"")</f>
-        <v>0</v>
+        <v>SHS</v>
       </c>
       <c r="J14" s="39">
         <f t="array" ref="J14">IF('eHP Calc'!G18="Yes",IFERROR(1+((1-(1-MAX(0,INDEX(C40:C48,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A40:A48&amp;B40:B48,0))-(0.3+'eHP Calc'!I21)))^(INDEX(F40:F48,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A40:A48&amp;B40:B48,0))*((9-'eHP Calc'!I22)/INDEX(E40:E48,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A40:A48&amp;B40:B48,0)))))*INDEX(D40:D48,MATCH('eHP Calc'!H14&amp;'eHP Calc'!H15,A40:A48&amp;B40:B48,0))*(0.8-'eHP Calc'!I23)),1),1)</f>
-        <v>1</v>
+        <v>1.2833919999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -27854,7 +27861,7 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J7:K7"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{77F5D1BF-3A12-407F-AEDA-0FB777BAEC3F}">
       <formula1>"On, Off"</formula1>
     </dataValidation>

--- a/Automatic eHP Calculator.xlsx
+++ b/Automatic eHP Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D796ED2-02B7-4658-9332-BD44C1AE7513}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6BADC9-31E0-49E1-88F2-3408F86AE41A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1967,7 +1967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2051,8 +2051,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2102,6 +2100,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3351,7 +3358,7 @@
   <dimension ref="A1:AA245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3362,15 +3369,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="93"/>
-      <c r="G1" s="83" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="G1" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="84"/>
+      <c r="H1" s="82"/>
       <c r="M1" s="9"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
@@ -3388,11 +3395,11 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="str">
+      <c r="A2" s="79" t="str">
         <f>IF('Background Tables'!N2="Off","No Gear","naked")</f>
         <v>No Gear</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="40" t="s">
         <v>444</v>
       </c>
@@ -3438,11 +3445,11 @@
       <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="str">
+      <c r="A3" s="79" t="str">
         <f>IF('Background Tables'!N2="Off","Fire Extin.","Bottle")</f>
         <v>Fire Extin.</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="41" t="s">
         <v>444</v>
       </c>
@@ -3478,11 +3485,11 @@
       <c r="AA3" s="13"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="str">
+      <c r="A4" s="79" t="str">
         <f>IF('Background Tables'!N2="Off","Naval Camo.","Blue Paint")</f>
         <v>Naval Camo.</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="41" t="s">
         <v>444</v>
       </c>
@@ -3514,11 +3521,11 @@
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="str">
+      <c r="A5" s="79" t="str">
         <f>IF('Background Tables'!N2="Off","Adv. Boiler","gottagofast.jpg")</f>
         <v>Adv. Boiler</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="41" t="s">
         <v>444</v>
       </c>
@@ -3550,11 +3557,11 @@
       <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="str">
+      <c r="A6" s="79" t="str">
         <f>IF('Background Tables'!N2="Off","Fuel Filter","Coca Cola")</f>
         <v>Fuel Filter</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="40" t="s">
         <v>444</v>
       </c>
@@ -3585,11 +3592,11 @@
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="79" t="str">
         <f>IF('Background Tables'!N2="Off","Torp. Bulge","owo what's this")</f>
         <v>Torp. Bulge</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="40" t="s">
         <v>444</v>
       </c>
@@ -3616,8 +3623,8 @@
       <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -3643,11 +3650,11 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="96" t="s">
         <v>470</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -3680,7 +3687,7 @@
       <c r="H10" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="I10" s="77"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="56" t="s">
         <v>518</v>
       </c>
@@ -3718,10 +3725,10 @@
       <c r="AA11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="90"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="45"/>
       <c r="D12" s="56" t="s">
         <v>3</v>
@@ -3744,8 +3751,8 @@
       <c r="AA12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -3772,15 +3779,15 @@
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="49"/>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="I14" s="61"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="49"/>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="83" t="s">
         <v>528</v>
       </c>
-      <c r="L14" s="86"/>
+      <c r="L14" s="84"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -3799,10 +3806,10 @@
       <c r="A15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="49"/>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -3818,7 +3825,7 @@
         <v>60</v>
       </c>
       <c r="J15" s="49"/>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="68" t="s">
         <v>512</v>
       </c>
       <c r="L15" s="33" t="s">
@@ -3840,12 +3847,12 @@
       <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="85" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="40">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="7" t="s">
@@ -3862,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="49"/>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="L16" s="76"/>
+      <c r="L16" s="74"/>
       <c r="M16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -3882,13 +3889,13 @@
       <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="D17" s="49"/>
       <c r="E17" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="76" t="s">
         <v>428</v>
       </c>
       <c r="G17" s="49"/>
@@ -3899,10 +3906,10 @@
         <v>492</v>
       </c>
       <c r="J17" s="49"/>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="L17" s="76"/>
+      <c r="L17" s="74"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -3918,13 +3925,13 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="D18" s="49"/>
       <c r="E18" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="76" t="s">
         <v>428</v>
       </c>
       <c r="G18" s="49"/>
@@ -3953,8 +3960,8 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
@@ -3992,7 +3999,7 @@
       </c>
       <c r="E20" s="34">
         <f>_xlfn.IFS(L3="Manual",E10,L3="Automatic",IFERROR(INDEX(IF(C16=120,'Ship Stats'!F2:F1000,IF(C16=100,'Ship Stats'!W2:W1000,0)),MATCH(B15,'Ship Stats'!B2:B1000,0)),0),L3="Mixed",IF(H5="Manual",E10,IFERROR(INDEX(IF(C16=120,'Ship Stats'!F2:F1000,IF(C16=100,'Ship Stats'!W2:W1000,0)),MATCH(B15,'Ship Stats'!B2:B1000,0)),0)))</f>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>4</v>
@@ -4083,7 +4090,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="39">
         <f>_xlfn.IFS(L3="Manual",C12,L3="Automatic",IFERROR(INDEX(IF(C16=120,'Ship Stats'!E2:E1000,IF(C16=100,'Ship Stats'!V2:V1000,0)),MATCH(B15,'Ship Stats'!B2:B1000,0)),0),L3="Mixed",IF(H4="Manual",C12,IFERROR(INDEX(IF(C16=120,'Ship Stats'!E2:E1000,IF(C16=100,'Ship Stats'!V2:V1000,0)),MATCH(B15,'Ship Stats'!B2:B1000,0)),0)))</f>
-        <v>3604</v>
+        <v>3204</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
@@ -4122,8 +4129,8 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
@@ -4149,8 +4156,8 @@
       <c r="AA23" s="11"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="48" t="str">
         <f>IF('Background Tables'!N2="Off","No Gear","naked")</f>
         <v>No Gear</v>
@@ -4214,43 +4221,43 @@
       <c r="B25" s="53"/>
       <c r="C25" s="36">
         <f>IF($C$2="Yes",ROUND(((C22+(C22*G22))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off")</f>
-        <v>8599</v>
+        <v>6861</v>
       </c>
       <c r="D25" s="4">
         <f>IF($C$3="Yes",IF($C$2="Yes",ROUND(((C22+266+(C22+266)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9234</v>
+        <v>7430</v>
       </c>
       <c r="E25" s="3">
         <f>IF($C$4="Yes",IF($C$2="Yes",ROUND(((C22+44+(C22+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9563</v>
+        <v>7750</v>
       </c>
       <c r="F25" s="4">
         <f>IF($C$5="Yes",IF($C$2="Yes",ROUND(((C22+245+(C22+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9184</v>
+        <v>7385</v>
       </c>
       <c r="G25" s="4">
         <f>IF($C$6="Yes",IF($C$2="Yes",ROUND(((C22+350+(C22+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9712</v>
+        <v>7870</v>
       </c>
       <c r="H25" s="4">
         <f>IF($C$7="Yes",IF($C$2="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+(C22+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>9434</v>
+        <v>7610</v>
       </c>
       <c r="I25" s="4">
         <f>IF($E$2="Yes",IF($C$2="Yes",ROUND(((C22+500+(C22+500)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10184</v>
+        <v>8249</v>
       </c>
       <c r="J25" s="4">
         <f>IF($E$3="Yes",IF($C$2="Yes",ROUND(((C22+C22*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9350</v>
+        <v>7554</v>
       </c>
       <c r="K25" s="4">
         <f>IF($E$4="Yes",IF($C$2="Yes",ROUND(((C22+75+(C22+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10527</v>
+        <v>8640</v>
       </c>
       <c r="L25" s="4">
         <f>IF($E$5="Yes",IF($C$2="Yes",ROUND((((C22+60+(C22+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11054</v>
+        <v>9094</v>
       </c>
       <c r="M25" s="11"/>
       <c r="O25" s="11"/>
@@ -4275,43 +4282,43 @@
       <c r="B26" s="53"/>
       <c r="C26" s="36">
         <f>IF($C$2="Yes",IF($C$3="Yes",ROUND((((C22+266)+(C22+266)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9234</v>
+        <v>7430</v>
       </c>
       <c r="D26" s="4">
         <f>IF($C$3="Yes",ROUND(((C22+266+266+(C22+266+266)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off")</f>
-        <v>9868</v>
+        <v>8000</v>
       </c>
       <c r="E26" s="4">
         <f>IF($C$4="Yes",IF($C$3="Yes",ROUND(((C22+266+44+(C22+266+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10260</v>
+        <v>8384</v>
       </c>
       <c r="F26" s="4">
         <f>IF($C$5="Yes",IF($C$3="Yes",ROUND(((C22+266+245+(C22+266+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9818</v>
+        <v>7955</v>
       </c>
       <c r="G26" s="4">
         <f>IF($C$6="Yes",IF($C$3="Yes",ROUND(((C22+266+350+(C22+266+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10365</v>
+        <v>8459</v>
       </c>
       <c r="H26" s="4">
         <f>IF($C$7="Yes",IF($C$3="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+266+350+(C22+266+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10069</v>
+        <v>8180</v>
       </c>
       <c r="I26" s="4">
         <f>IF($E$2="Yes",IF($C$3="Yes",ROUND(((C22+266+500+(C22+266+500)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+266+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10844</v>
+        <v>8841</v>
       </c>
       <c r="J26" s="4">
         <f>IF($E$3="Yes",IF($C$3="Yes",ROUND(((C22+266+(C22+266)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10040</v>
+        <v>8181</v>
       </c>
       <c r="K26" s="4">
         <f>IF($E$4="Yes",IF($C$3="Yes",ROUND(((C22+266+75+(C22+266+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11288</v>
+        <v>9341</v>
       </c>
       <c r="L26" s="4">
         <f>IF($E$5="Yes",IF($C$3="Yes",ROUND((((C22+266+60+(C22+266+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11856</v>
+        <v>9835</v>
       </c>
       <c r="M26" s="11"/>
       <c r="O26" s="11"/>
@@ -4336,43 +4343,43 @@
       <c r="B27" s="53"/>
       <c r="C27" s="36">
         <f>IF($C$4="Yes",IF($C$2="Yes",ROUND(((C22+44+(C22+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9563</v>
+        <v>7750</v>
       </c>
       <c r="D27" s="3">
         <f>IF($C$4="Yes",IF($C$3="Yes",ROUND(((C22+266+44+(C22+266+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10260</v>
+        <v>8384</v>
       </c>
       <c r="E27" s="3">
         <f>IF($C$4="Yes",ROUND(((C22+44+44+(C22+44+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off")</f>
-        <v>10516</v>
+        <v>8630</v>
       </c>
       <c r="F27" s="3">
         <f>IF($C$4="Yes",IF($C$5="Yes",ROUND(((C22+44+245+(C22+44+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10205</v>
+        <v>8334</v>
       </c>
       <c r="G27" s="3">
         <f>IF($C$4="Yes",IF($C$6="Yes",ROUND(((C22+44+350+(C22+44+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10751</v>
+        <v>8837</v>
       </c>
       <c r="H27" s="3">
         <f>IF($C$4="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+44+350+(C22+350+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10481</v>
+        <v>8585</v>
       </c>
       <c r="I27" s="3">
         <f>IF($C$4="Yes",IF($E$2="Yes",ROUND(((C22+44+500+(C22+500+44)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+44+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11309</v>
+        <v>9300</v>
       </c>
       <c r="J27" s="3">
         <f>IF($C$4="Yes",IF($E$3="Yes",ROUND(((C22+44+(C22+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10295</v>
+        <v>8426</v>
       </c>
       <c r="K27" s="3">
         <f>IF($C$4="Yes",IF($E$4="Yes",ROUND(((C22+44+75+(C22+75+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11465</v>
+        <v>9508</v>
       </c>
       <c r="L27" s="3">
         <f>IF($C$4="Yes",IF($E$5="Yes",ROUND((((C22+44+60+(C22+60+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>12011</v>
+        <v>9980</v>
       </c>
       <c r="M27" s="11"/>
       <c r="O27" s="11"/>
@@ -4397,43 +4404,43 @@
       <c r="B28" s="53"/>
       <c r="C28" s="36">
         <f>IF($C$2="Yes",IF($C$5="Yes",ROUND(((C22+245+(C22+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9184</v>
+        <v>7385</v>
       </c>
       <c r="D28" s="3">
         <f>IF($C$3="Yes",IF($C$5="Yes",ROUND(((C22+266+245+(C22+266+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9818</v>
+        <v>7955</v>
       </c>
       <c r="E28" s="3">
         <f>IF($C$4="Yes",IF($C$5="Yes",ROUND(((C22+44+245+(C22+44+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10205</v>
+        <v>8334</v>
       </c>
       <c r="F28" s="3">
         <f>IF($C$5="Yes",ROUND(((C22+245+245+(C22+245+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off")</f>
-        <v>9768</v>
+        <v>7910</v>
       </c>
       <c r="G28" s="3">
         <f>IF($C$6="Yes",IF($C$5="Yes",ROUND(((C22+245+350+(C22+245+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10314</v>
+        <v>8412</v>
       </c>
       <c r="H28" s="3">
         <f>IF($C$7="Yes",IF($C$5="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+245+350+(C22+245+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10019</v>
+        <v>8135</v>
       </c>
       <c r="I28" s="3">
         <f>IF($E$2="Yes",IF($C$5="Yes",ROUND(((C22+245+500+(C22+245+500)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+245+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10792</v>
+        <v>8794</v>
       </c>
       <c r="J28" s="3">
         <f>IF($E$3="Yes",IF($C$5="Yes",ROUND(((C22+245+(C22+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9985</v>
+        <v>8132</v>
       </c>
       <c r="K28" s="3">
         <f>IF($E$4="Yes",IF($C$5="Yes",ROUND(((C22+245+75+(C22+245+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11228</v>
+        <v>9286</v>
       </c>
       <c r="L28" s="3">
         <f>IF($E$5="Yes",IF($C$5="Yes",ROUND((((C22+245+60+(C22+245+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11793</v>
+        <v>9776</v>
       </c>
       <c r="M28" s="11"/>
       <c r="O28" s="11"/>
@@ -4458,43 +4465,43 @@
       <c r="B29" s="53"/>
       <c r="C29" s="36">
         <f>IF($C$6="Yes",IF($C$2="Yes",ROUND(((C22+350+(C22+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9712</v>
+        <v>7870</v>
       </c>
       <c r="D29" s="3">
         <f>IF($C$6="Yes",IF($C$3="Yes",ROUND(((C22+266+350+(C22+266+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10365</v>
+        <v>8459</v>
       </c>
       <c r="E29" s="3">
         <f>IF($C$4="Yes",IF($C$6="Yes",ROUND(((C22+44+350+(C22+44+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10751</v>
+        <v>8837</v>
       </c>
       <c r="F29" s="3">
         <f>IF($C$6="Yes",IF($C$5="Yes",ROUND(((C22+245+350+(C22+245+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10314</v>
+        <v>8412</v>
       </c>
       <c r="G29" s="3">
         <f>IF($C$6="Yes",ROUND(((C22+350+350+(C22+350+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off")</f>
-        <v>10870</v>
+        <v>8926</v>
       </c>
       <c r="H29" s="3">
         <f>IF($C$6="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+350+(C22+350+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10571</v>
+        <v>8645</v>
       </c>
       <c r="I29" s="3">
         <f>IF($C$6="Yes",IF($E$2="Yes",ROUND(((C22+350+500+(C22+500+350)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+350+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11377</v>
+        <v>9336</v>
       </c>
       <c r="J29" s="3">
         <f>IF($C$6="Yes",IF($E$3="Yes",ROUND(((C22+350+(C22+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10526</v>
+        <v>8630</v>
       </c>
       <c r="K29" s="3">
         <f>IF($C$6="Yes",IF($E$4="Yes",ROUND(((C22+350+75+(C22+350+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11790</v>
+        <v>9807</v>
       </c>
       <c r="L29" s="3">
         <f>IF($C$6="Yes",IF($E$5="Yes",ROUND((((C22+350+60+(C22+60+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>12376</v>
+        <v>10317</v>
       </c>
       <c r="M29" s="11"/>
       <c r="O29" s="11"/>
@@ -4519,43 +4526,43 @@
       <c r="B30" s="53"/>
       <c r="C30" s="36">
         <f>IF($C$2="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+(C22+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>9434</v>
+        <v>7610</v>
       </c>
       <c r="D30" s="3">
         <f>IF($C$3="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+266+350+(C22+350+266)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10069</v>
+        <v>8180</v>
       </c>
       <c r="E30" s="3">
         <f>IF($C$4="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+44+350+(C22+350+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10481</v>
+        <v>8585</v>
       </c>
       <c r="F30" s="3">
         <f>IF($C$7="Yes",IF($C$5="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+245+350+(C22+245+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10019</v>
+        <v>8135</v>
       </c>
       <c r="G30" s="3">
         <f>IF($C$6="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+350+(C22+350+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10571</v>
+        <v>8645</v>
       </c>
       <c r="H30" s="3">
         <f>IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+350+(C22+350+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off")</f>
-        <v>10269</v>
+        <v>8360</v>
       </c>
       <c r="I30" s="3">
         <f>IF($E$2="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+500+(C22+350+500)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+350+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11052</v>
+        <v>9028</v>
       </c>
       <c r="J30" s="3">
         <f>IF($E$3="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+(C22+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10258</v>
+        <v>8379</v>
       </c>
       <c r="K30" s="3">
         <f>IF($E$4="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+75+(C22+350+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11528</v>
+        <v>9563</v>
       </c>
       <c r="L30" s="3">
         <f>IF($E$5="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND((((C22+350+60+(C22+350+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1))/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12110</v>
+        <v>10069</v>
       </c>
       <c r="M30" s="11"/>
       <c r="O30" s="11"/>
@@ -4573,50 +4580,50 @@
       <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="str">
+      <c r="A31" s="77" t="str">
         <f>IF('Background Tables'!N2="Off","Repair Toolkit","Lunchkit")</f>
         <v>Repair Toolkit</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="36">
         <f>IF($C$2="Yes",IF($E$2="Yes",ROUND(((C22+500+(C22+500)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10184</v>
+        <v>8249</v>
       </c>
       <c r="D31" s="3">
         <f>IF($C$3="Yes",IF($E$2="Yes",ROUND(((C22+266+500+(C22+500+266)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+266+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10844</v>
+        <v>8841</v>
       </c>
       <c r="E31" s="3">
         <f>IF($C$4="Yes",IF($E$2="Yes",ROUND(((C22+44+500+(C22+500+44)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+44+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11309</v>
+        <v>9300</v>
       </c>
       <c r="F31" s="3">
         <f>IF($C$5="Yes",IF($E$2="Yes",ROUND(((C22+245+500+(C22+500+245)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+245+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2,0),"Calc. Off")/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),"Calc. Off")</f>
-        <v>10792</v>
+        <v>8794</v>
       </c>
       <c r="G31" s="3">
         <f>IF($C$6="Yes",IF($E$2="Yes",ROUND(((C22+350+500+(C22+500+350)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+350+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11377</v>
+        <v>9336</v>
       </c>
       <c r="H31" s="3">
         <f>IF($C$7="Yes",IF($E$2="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+500+(C22+500+350)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+350+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11052</v>
+        <v>9028</v>
       </c>
       <c r="I31" s="3">
         <f>IF($E$2="Yes",ROUND(((C22+500+500+(C22+500+500)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+0)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+(E20*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off")</f>
-        <v>11425</v>
+        <v>9362</v>
       </c>
       <c r="J31" s="3">
         <f>IF($E$3="Yes",IF($E$2="Yes",ROUND(((C22+500+(C22+500)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11073</v>
+        <v>9082</v>
       </c>
       <c r="K31" s="3">
         <f>IF($E$4="Yes",IF($E$2="Yes",ROUND(((C22+500+75+(C22+500+75)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500+75),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>12436</v>
+        <v>10356</v>
       </c>
       <c r="L31" s="3">
         <f>IF($E$5="Yes",IF($E$2="Yes",ROUND((((C22+500+60+(C22+500+60)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500+60),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>13065</v>
+        <v>10906</v>
       </c>
       <c r="M31" s="11"/>
       <c r="O31" s="11"/>
@@ -4641,43 +4648,43 @@
       <c r="B32" s="53"/>
       <c r="C32" s="36">
         <f>IF($E$3="Yes",IF($C$2="Yes",ROUND(((C22+C22*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9350</v>
+        <v>7554</v>
       </c>
       <c r="D32" s="3">
         <f>IF($E$3="Yes",IF($C$3="Yes",ROUND(((C22+266+(C22+266)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10040</v>
+        <v>8181</v>
       </c>
       <c r="E32" s="19">
         <f>IF($C$4="Yes",IF($E$3="Yes",ROUND(((C22+44+(C22+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10295</v>
+        <v>8426</v>
       </c>
       <c r="F32" s="3">
         <f>IF($E$3="Yes",IF($C$5="Yes",ROUND(((C22+245+(C22+245)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>9985</v>
+        <v>8132</v>
       </c>
       <c r="G32" s="3">
         <f>IF($C$6="Yes",IF($E$3="Yes",ROUND(((C22+350+(C22+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10526</v>
+        <v>8630</v>
       </c>
       <c r="H32" s="3">
         <f>IF($E$3="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+(C22+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>10258</v>
+        <v>8379</v>
       </c>
       <c r="I32" s="3">
         <f>IF($E$3="Yes",IF($E$2="Yes",ROUND(((C22+500+(C22+500)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11073</v>
+        <v>9082</v>
       </c>
       <c r="J32" s="3">
         <f>IF($E$3="Yes",ROUND(((C22+(C22)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15+15)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off")</f>
-        <v>10076</v>
+        <v>8224</v>
       </c>
       <c r="K32" s="3">
         <f>IF($E$3="Yes",IF($E$4="Yes",ROUND(((C22+75+(C22+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11236</v>
+        <v>9296</v>
       </c>
       <c r="L32" s="3">
         <f>IF($E$3="Yes",IF($E$5="Yes",ROUND((((C22+60+(C22+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11774</v>
+        <v>9760</v>
       </c>
       <c r="M32" s="11"/>
       <c r="O32" s="11"/>
@@ -4702,42 +4709,42 @@
       <c r="B33" s="53"/>
       <c r="C33" s="37">
         <f>IF($E$4="Yes",IF($C$2="Yes",ROUND(((C22+75+(C22+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>10527</v>
+        <v>8640</v>
       </c>
       <c r="D33" s="3">
         <f>IF($E$4="Yes",IF($C$3="Yes",ROUND(((C22+266+75+(C22+266+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11288</v>
+        <v>9341</v>
       </c>
       <c r="E33" s="3">
         <f>IF($C$4="Yes",IF($E$4="Yes",ROUND(((C22+44+75+(C22+75+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11465</v>
+        <v>9508</v>
       </c>
       <c r="F33" s="3">
         <f>IF($E$4="Yes",IF($C$5="Yes",ROUND(((C22+245+75+(C22+245+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11228</v>
+        <v>9286</v>
       </c>
       <c r="G33" s="3">
         <f>IF($C$6="Yes",IF($E$4="Yes",ROUND(((C22+350+75+(C22+350+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11790</v>
+        <v>9807</v>
       </c>
       <c r="H33" s="3">
         <f>IF($E$4="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND(((C22+350+75+(C22+350+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>11528</v>
+        <v>9563</v>
       </c>
       <c r="I33" s="3">
         <f>IF($E$4="Yes",IF($E$2="Yes",ROUND(((C22+500+75+(C22+500+75)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500+75),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>12436</v>
+        <v>10356</v>
       </c>
       <c r="J33" s="3">
         <f>IF($E$3="Yes",IF($E$4="Yes",ROUND(((C22+75+(C22+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15+35)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11236</v>
+        <v>9296</v>
       </c>
       <c r="K33" s="20" t="s">
         <v>29</v>
       </c>
       <c r="L33" s="3">
         <f>IF($E$4="Yes",IF($E$5="Yes",ROUND((((C22+75+60+(C22+60+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>12960</v>
+        <v>10859</v>
       </c>
       <c r="M33" s="11"/>
       <c r="O33" s="11"/>
@@ -4755,46 +4762,46 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79" t="str">
+      <c r="A34" s="77" t="str">
         <f>IF('Background Tables'!N2="Off","Imp. Rudder","Washing Machine")</f>
         <v>Imp. Rudder</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="36">
         <f>IF($E$5="Yes",IF($C$2="Yes",ROUND((((C22+60+(C22+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11054</v>
+        <v>9094</v>
       </c>
       <c r="D34" s="3">
         <f>IF($E$5="Yes",IF($C$3="Yes",ROUND((((C22+266+60+(C22+266+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K11)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K12))*'Background Tables'!K13,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11856</v>
+        <v>9835</v>
       </c>
       <c r="E34" s="3">
         <f>IF($C$4="Yes",IF($E$5="Yes",ROUND((((C22+44+60+(C22+60+44)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+17+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+17+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>12011</v>
+        <v>9980</v>
       </c>
       <c r="F34" s="3">
         <f>IF($E$5="Yes",IF($C$5="Yes",ROUND((((C22+245+60+(C22+245+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11793</v>
+        <v>9776</v>
       </c>
       <c r="G34" s="3">
         <f>IF($C$6="Yes",IF($E$5="Yes",ROUND((((C22+350+60+(C22+60+350)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+5+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+5+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>12376</v>
+        <v>10317</v>
       </c>
       <c r="H34" s="3">
         <f>IF($E$5="Yes",IF($C$7="Yes",IFERROR(_xlfn.IFS(C20="DD","N/A",C20="SS","N/A",C20="SSV","N/A",C20="CB","N/A"),ROUND((((C22+350+60+(C22+350+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2/IF($E$6="Yes",IF(F18="Torpedo",0.7,1),1))/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0)),"Calc. Off"),"Calc. Off")</f>
-        <v>12110</v>
+        <v>10069</v>
       </c>
       <c r="I34" s="3">
         <f>IF($E$5="Yes",IF($E$2="Yes",ROUND((((C22+500+60+(C22+500+60)*G22+IF($E$6="Yes",ROUNDDOWN($I$15/15,0)*0.01*(C22+500+60),0))/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>13065</v>
+        <v>10906</v>
       </c>
       <c r="J34" s="3">
         <f>IF($E$3="Yes",IF($E$5="Yes",ROUND((((C22+60+(C22+60)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+15+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+15+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>11774</v>
+        <v>9760</v>
       </c>
       <c r="K34" s="3">
         <f>IF($E$4="Yes",IF($E$5="Yes",ROUND((((C22+75+60+(C22+60+75)*G22)/(1-G21)/MIN(MAX((0.1+($F$15/($F$15+((E20+35+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-E22),0.1),1))/'Background Tables'!$H$2)/IF($E$6="Yes",0.97,1)/'Background Tables'!K2/(IF(L15="Yes",1+(1-(1-'Background Tables'!K7)^((L17*(MIN(MAX((0.1+($F$15/($F$15+((E20+35+40)*(1+G20)+2)))+(($F$16-E21+I16)/1000)-(E22)),0.1),1)))*'Background Tables'!K8))*'Background Tables'!K9,1)),0),"Calc. Off"),"Calc. Off")</f>
-        <v>12960</v>
+        <v>10859</v>
       </c>
       <c r="L34" s="19" t="s">
         <v>29</v>
@@ -4815,8 +4822,8 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
       <c r="D35" s="49"/>
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
@@ -4843,8 +4850,8 @@
       <c r="AA35" s="11"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
       <c r="D36" s="49"/>
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
@@ -4871,8 +4878,8 @@
       <c r="AA36" s="11"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
@@ -4890,8 +4897,8 @@
       <c r="AA37" s="11"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -4909,8 +4916,8 @@
       <c r="AA38" s="11"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
@@ -4928,8 +4935,8 @@
       <c r="AA39" s="11"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
@@ -4947,8 +4954,8 @@
       <c r="AA40" s="11"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
@@ -4966,8 +4973,8 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
@@ -4985,8 +4992,8 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
@@ -5004,8 +5011,8 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
@@ -5023,8 +5030,8 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
@@ -5042,8 +5049,8 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
@@ -5061,8 +5068,8 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
@@ -5080,8 +5087,8 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
@@ -5099,8 +5106,8 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
@@ -5118,8 +5125,8 @@
       <c r="AA49" s="11"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
@@ -5137,8 +5144,8 @@
       <c r="AA50" s="11"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
@@ -5156,8 +5163,8 @@
       <c r="AA51" s="11"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
@@ -5175,8 +5182,8 @@
       <c r="AA52" s="11"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="62"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
@@ -5194,8 +5201,8 @@
       <c r="AA53" s="11"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-      <c r="B54" s="62"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
@@ -5213,8 +5220,8 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
@@ -5232,8 +5239,8 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
-      <c r="B56" s="62"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
@@ -5251,8 +5258,8 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="62"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
@@ -5270,8 +5277,8 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="62"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
@@ -5289,8 +5296,8 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
-      <c r="B59" s="62"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
@@ -5308,8 +5315,8 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-      <c r="B60" s="62"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
@@ -5327,8 +5334,8 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="62"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
@@ -5346,8 +5353,8 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="62"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
@@ -5365,8 +5372,8 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="62"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
@@ -5384,8 +5391,8 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
@@ -5403,8 +5410,8 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="62"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
@@ -5422,8 +5429,8 @@
       <c r="AA65" s="11"/>
     </row>
     <row r="66" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="62"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
@@ -5441,8 +5448,8 @@
       <c r="AA66" s="11"/>
     </row>
     <row r="67" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="62"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
@@ -5460,8 +5467,8 @@
       <c r="AA67" s="11"/>
     </row>
     <row r="68" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="62"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
@@ -5479,8 +5486,8 @@
       <c r="AA68" s="11"/>
     </row>
     <row r="69" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="62"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
@@ -5498,8 +5505,8 @@
       <c r="AA69" s="11"/>
     </row>
     <row r="70" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="62"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
@@ -5517,8 +5524,8 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="62"/>
-      <c r="B71" s="62"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
@@ -5536,8 +5543,8 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="62"/>
-      <c r="B72" s="62"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
@@ -5555,8 +5562,8 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
-      <c r="B73" s="62"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
@@ -5574,8 +5581,8 @@
       <c r="AA73" s="11"/>
     </row>
     <row r="74" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
@@ -5593,8 +5600,8 @@
       <c r="AA74" s="11"/>
     </row>
     <row r="75" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
-      <c r="B75" s="62"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
@@ -5612,8 +5619,8 @@
       <c r="AA75" s="11"/>
     </row>
     <row r="76" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
-      <c r="B76" s="62"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="60"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
@@ -5631,8 +5638,8 @@
       <c r="AA76" s="11"/>
     </row>
     <row r="77" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="B77" s="62"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
@@ -5650,8 +5657,8 @@
       <c r="AA77" s="11"/>
     </row>
     <row r="78" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
-      <c r="B78" s="62"/>
+      <c r="A78" s="60"/>
+      <c r="B78" s="60"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
@@ -5669,8 +5676,8 @@
       <c r="AA78" s="11"/>
     </row>
     <row r="79" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
-      <c r="B79" s="62"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="60"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
@@ -5688,8 +5695,8 @@
       <c r="AA79" s="11"/>
     </row>
     <row r="80" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
-      <c r="B80" s="62"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="60"/>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
@@ -5707,8 +5714,8 @@
       <c r="AA80" s="11"/>
     </row>
     <row r="81" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
-      <c r="B81" s="62"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
@@ -5726,8 +5733,8 @@
       <c r="AA81" s="11"/>
     </row>
     <row r="82" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="62"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
@@ -5745,8 +5752,8 @@
       <c r="AA82" s="11"/>
     </row>
     <row r="83" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
-      <c r="B83" s="62"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
@@ -5764,8 +5771,8 @@
       <c r="AA83" s="11"/>
     </row>
     <row r="84" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
-      <c r="B84" s="62"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
@@ -5783,8 +5790,8 @@
       <c r="AA84" s="11"/>
     </row>
     <row r="85" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
-      <c r="B85" s="62"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
@@ -5802,8 +5809,8 @@
       <c r="AA85" s="11"/>
     </row>
     <row r="86" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
-      <c r="B86" s="62"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
@@ -5821,8 +5828,8 @@
       <c r="AA86" s="11"/>
     </row>
     <row r="87" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
-      <c r="B87" s="62"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
@@ -5840,8 +5847,8 @@
       <c r="AA87" s="11"/>
     </row>
     <row r="88" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
-      <c r="B88" s="62"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
@@ -5859,8 +5866,8 @@
       <c r="AA88" s="11"/>
     </row>
     <row r="89" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
-      <c r="B89" s="62"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
@@ -5878,8 +5885,8 @@
       <c r="AA89" s="11"/>
     </row>
     <row r="90" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
-      <c r="B90" s="62"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="60"/>
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
@@ -5897,8 +5904,8 @@
       <c r="AA90" s="11"/>
     </row>
     <row r="91" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
-      <c r="B91" s="62"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
@@ -5916,8 +5923,8 @@
       <c r="AA91" s="11"/>
     </row>
     <row r="92" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="62"/>
-      <c r="B92" s="62"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="60"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
@@ -5935,8 +5942,8 @@
       <c r="AA92" s="11"/>
     </row>
     <row r="93" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
-      <c r="B93" s="62"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
@@ -5954,8 +5961,8 @@
       <c r="AA93" s="11"/>
     </row>
     <row r="94" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
-      <c r="B94" s="62"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
@@ -5973,8 +5980,8 @@
       <c r="AA94" s="11"/>
     </row>
     <row r="95" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
-      <c r="B95" s="62"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
@@ -5992,8 +5999,8 @@
       <c r="AA95" s="11"/>
     </row>
     <row r="96" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
-      <c r="B96" s="62"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="60"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
@@ -6011,8 +6018,8 @@
       <c r="AA96" s="11"/>
     </row>
     <row r="97" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
-      <c r="B97" s="62"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
@@ -6030,8 +6037,8 @@
       <c r="AA97" s="11"/>
     </row>
     <row r="98" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
-      <c r="B98" s="62"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
@@ -6049,8 +6056,8 @@
       <c r="AA98" s="11"/>
     </row>
     <row r="99" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
-      <c r="B99" s="62"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
@@ -6068,8 +6075,8 @@
       <c r="AA99" s="11"/>
     </row>
     <row r="100" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
-      <c r="B100" s="62"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
@@ -6087,8 +6094,8 @@
       <c r="AA100" s="11"/>
     </row>
     <row r="101" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
-      <c r="B101" s="62"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="60"/>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
@@ -6106,8 +6113,8 @@
       <c r="AA101" s="11"/>
     </row>
     <row r="102" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
-      <c r="B102" s="62"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="60"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
@@ -6125,8 +6132,8 @@
       <c r="AA102" s="11"/>
     </row>
     <row r="103" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
-      <c r="B103" s="62"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
@@ -6144,8 +6151,8 @@
       <c r="AA103" s="11"/>
     </row>
     <row r="104" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
-      <c r="B104" s="62"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
@@ -6163,8 +6170,8 @@
       <c r="AA104" s="11"/>
     </row>
     <row r="105" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
-      <c r="B105" s="62"/>
+      <c r="A105" s="60"/>
+      <c r="B105" s="60"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
@@ -6182,8 +6189,8 @@
       <c r="AA105" s="11"/>
     </row>
     <row r="106" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
-      <c r="B106" s="62"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
@@ -6201,8 +6208,8 @@
       <c r="AA106" s="11"/>
     </row>
     <row r="107" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
-      <c r="B107" s="62"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
@@ -6220,8 +6227,8 @@
       <c r="AA107" s="11"/>
     </row>
     <row r="108" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
-      <c r="B108" s="62"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
@@ -6239,8 +6246,8 @@
       <c r="AA108" s="11"/>
     </row>
     <row r="109" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
-      <c r="B109" s="62"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
@@ -6258,8 +6265,8 @@
       <c r="AA109" s="11"/>
     </row>
     <row r="110" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
-      <c r="B110" s="62"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="60"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
@@ -6277,8 +6284,8 @@
       <c r="AA110" s="11"/>
     </row>
     <row r="111" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
-      <c r="B111" s="62"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="60"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
@@ -6296,8 +6303,8 @@
       <c r="AA111" s="11"/>
     </row>
     <row r="112" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="62"/>
-      <c r="B112" s="62"/>
+      <c r="A112" s="60"/>
+      <c r="B112" s="60"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
@@ -6315,8 +6322,8 @@
       <c r="AA112" s="11"/>
     </row>
     <row r="113" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
-      <c r="B113" s="62"/>
+      <c r="A113" s="60"/>
+      <c r="B113" s="60"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
@@ -6334,8 +6341,8 @@
       <c r="AA113" s="11"/>
     </row>
     <row r="114" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="62"/>
-      <c r="B114" s="62"/>
+      <c r="A114" s="60"/>
+      <c r="B114" s="60"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
@@ -6353,8 +6360,8 @@
       <c r="AA114" s="11"/>
     </row>
     <row r="115" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="62"/>
-      <c r="B115" s="62"/>
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
@@ -6372,8 +6379,8 @@
       <c r="AA115" s="11"/>
     </row>
     <row r="116" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="62"/>
-      <c r="B116" s="62"/>
+      <c r="A116" s="60"/>
+      <c r="B116" s="60"/>
       <c r="M116" s="11"/>
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
@@ -6391,8 +6398,8 @@
       <c r="AA116" s="11"/>
     </row>
     <row r="117" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="62"/>
-      <c r="B117" s="62"/>
+      <c r="A117" s="60"/>
+      <c r="B117" s="60"/>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
@@ -6410,8 +6417,8 @@
       <c r="AA117" s="11"/>
     </row>
     <row r="118" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="62"/>
-      <c r="B118" s="62"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="60"/>
       <c r="M118" s="11"/>
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
@@ -6429,8 +6436,8 @@
       <c r="AA118" s="11"/>
     </row>
     <row r="119" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="62"/>
-      <c r="B119" s="62"/>
+      <c r="A119" s="60"/>
+      <c r="B119" s="60"/>
       <c r="M119" s="11"/>
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
@@ -6448,8 +6455,8 @@
       <c r="AA119" s="11"/>
     </row>
     <row r="120" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="62"/>
-      <c r="B120" s="62"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="60"/>
       <c r="M120" s="11"/>
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
@@ -6467,8 +6474,8 @@
       <c r="AA120" s="11"/>
     </row>
     <row r="121" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="62"/>
-      <c r="B121" s="62"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="60"/>
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
@@ -6486,8 +6493,8 @@
       <c r="AA121" s="11"/>
     </row>
     <row r="122" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="62"/>
-      <c r="B122" s="62"/>
+      <c r="A122" s="60"/>
+      <c r="B122" s="60"/>
       <c r="M122" s="11"/>
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
@@ -6505,8 +6512,8 @@
       <c r="AA122" s="11"/>
     </row>
     <row r="123" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="62"/>
-      <c r="B123" s="62"/>
+      <c r="A123" s="60"/>
+      <c r="B123" s="60"/>
       <c r="M123" s="11"/>
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
@@ -6524,8 +6531,8 @@
       <c r="AA123" s="11"/>
     </row>
     <row r="124" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="62"/>
-      <c r="B124" s="62"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="60"/>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
@@ -6543,8 +6550,8 @@
       <c r="AA124" s="11"/>
     </row>
     <row r="125" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="62"/>
-      <c r="B125" s="62"/>
+      <c r="A125" s="60"/>
+      <c r="B125" s="60"/>
       <c r="M125" s="11"/>
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
@@ -6562,8 +6569,8 @@
       <c r="AA125" s="11"/>
     </row>
     <row r="126" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="62"/>
-      <c r="B126" s="62"/>
+      <c r="A126" s="60"/>
+      <c r="B126" s="60"/>
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
@@ -6581,8 +6588,8 @@
       <c r="AA126" s="11"/>
     </row>
     <row r="127" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="62"/>
-      <c r="B127" s="62"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="60"/>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
@@ -6600,8 +6607,8 @@
       <c r="AA127" s="11"/>
     </row>
     <row r="128" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="62"/>
-      <c r="B128" s="62"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="60"/>
       <c r="M128" s="11"/>
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
@@ -6619,8 +6626,8 @@
       <c r="AA128" s="11"/>
     </row>
     <row r="129" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="62"/>
-      <c r="B129" s="62"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="60"/>
       <c r="M129" s="11"/>
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
@@ -6638,8 +6645,8 @@
       <c r="AA129" s="11"/>
     </row>
     <row r="130" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="62"/>
-      <c r="B130" s="62"/>
+      <c r="A130" s="60"/>
+      <c r="B130" s="60"/>
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
@@ -6657,8 +6664,8 @@
       <c r="AA130" s="11"/>
     </row>
     <row r="131" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="62"/>
-      <c r="B131" s="62"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
       <c r="M131" s="11"/>
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
@@ -6676,8 +6683,8 @@
       <c r="AA131" s="11"/>
     </row>
     <row r="132" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="62"/>
-      <c r="B132" s="62"/>
+      <c r="A132" s="60"/>
+      <c r="B132" s="60"/>
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
@@ -6695,8 +6702,8 @@
       <c r="AA132" s="11"/>
     </row>
     <row r="133" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="62"/>
-      <c r="B133" s="62"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
       <c r="M133" s="11"/>
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
@@ -6714,8 +6721,8 @@
       <c r="AA133" s="11"/>
     </row>
     <row r="134" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="62"/>
-      <c r="B134" s="62"/>
+      <c r="A134" s="60"/>
+      <c r="B134" s="60"/>
       <c r="M134" s="11"/>
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
@@ -6733,8 +6740,8 @@
       <c r="AA134" s="11"/>
     </row>
     <row r="135" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="62"/>
-      <c r="B135" s="62"/>
+      <c r="A135" s="60"/>
+      <c r="B135" s="60"/>
       <c r="M135" s="11"/>
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
@@ -6752,8 +6759,8 @@
       <c r="AA135" s="11"/>
     </row>
     <row r="136" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="62"/>
-      <c r="B136" s="62"/>
+      <c r="A136" s="60"/>
+      <c r="B136" s="60"/>
       <c r="M136" s="11"/>
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
@@ -6771,8 +6778,8 @@
       <c r="AA136" s="11"/>
     </row>
     <row r="137" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="62"/>
-      <c r="B137" s="62"/>
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
@@ -6790,8 +6797,8 @@
       <c r="AA137" s="11"/>
     </row>
     <row r="138" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="62"/>
-      <c r="B138" s="62"/>
+      <c r="A138" s="60"/>
+      <c r="B138" s="60"/>
       <c r="M138" s="11"/>
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
@@ -6809,8 +6816,8 @@
       <c r="AA138" s="11"/>
     </row>
     <row r="139" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="62"/>
-      <c r="B139" s="62"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="60"/>
       <c r="M139" s="11"/>
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
@@ -6828,8 +6835,8 @@
       <c r="AA139" s="11"/>
     </row>
     <row r="140" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="62"/>
-      <c r="B140" s="62"/>
+      <c r="A140" s="60"/>
+      <c r="B140" s="60"/>
       <c r="M140" s="11"/>
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
@@ -6847,8 +6854,8 @@
       <c r="AA140" s="11"/>
     </row>
     <row r="141" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="62"/>
-      <c r="B141" s="62"/>
+      <c r="A141" s="60"/>
+      <c r="B141" s="60"/>
       <c r="M141" s="11"/>
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
@@ -6866,8 +6873,8 @@
       <c r="AA141" s="11"/>
     </row>
     <row r="142" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="62"/>
-      <c r="B142" s="62"/>
+      <c r="A142" s="60"/>
+      <c r="B142" s="60"/>
       <c r="M142" s="11"/>
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
@@ -6885,8 +6892,8 @@
       <c r="AA142" s="11"/>
     </row>
     <row r="143" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="62"/>
-      <c r="B143" s="62"/>
+      <c r="A143" s="60"/>
+      <c r="B143" s="60"/>
       <c r="M143" s="11"/>
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
@@ -6904,8 +6911,8 @@
       <c r="AA143" s="11"/>
     </row>
     <row r="144" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="62"/>
-      <c r="B144" s="62"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
       <c r="M144" s="11"/>
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
@@ -6923,8 +6930,8 @@
       <c r="AA144" s="11"/>
     </row>
     <row r="145" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="62"/>
-      <c r="B145" s="62"/>
+      <c r="A145" s="60"/>
+      <c r="B145" s="60"/>
       <c r="M145" s="11"/>
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
@@ -6942,8 +6949,8 @@
       <c r="AA145" s="11"/>
     </row>
     <row r="146" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="62"/>
-      <c r="B146" s="62"/>
+      <c r="A146" s="60"/>
+      <c r="B146" s="60"/>
       <c r="M146" s="11"/>
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
@@ -6961,8 +6968,8 @@
       <c r="AA146" s="11"/>
     </row>
     <row r="147" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="62"/>
-      <c r="B147" s="62"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="60"/>
       <c r="M147" s="11"/>
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
@@ -6980,8 +6987,8 @@
       <c r="AA147" s="11"/>
     </row>
     <row r="148" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="62"/>
-      <c r="B148" s="62"/>
+      <c r="A148" s="60"/>
+      <c r="B148" s="60"/>
       <c r="M148" s="11"/>
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
@@ -6999,8 +7006,8 @@
       <c r="AA148" s="11"/>
     </row>
     <row r="149" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="62"/>
-      <c r="B149" s="62"/>
+      <c r="A149" s="60"/>
+      <c r="B149" s="60"/>
       <c r="M149" s="11"/>
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
@@ -7018,8 +7025,8 @@
       <c r="AA149" s="11"/>
     </row>
     <row r="150" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="62"/>
-      <c r="B150" s="62"/>
+      <c r="A150" s="60"/>
+      <c r="B150" s="60"/>
       <c r="M150" s="11"/>
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
@@ -7037,8 +7044,8 @@
       <c r="AA150" s="11"/>
     </row>
     <row r="151" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="62"/>
-      <c r="B151" s="62"/>
+      <c r="A151" s="60"/>
+      <c r="B151" s="60"/>
       <c r="M151" s="11"/>
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
@@ -7056,8 +7063,8 @@
       <c r="AA151" s="11"/>
     </row>
     <row r="152" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="62"/>
-      <c r="B152" s="62"/>
+      <c r="A152" s="60"/>
+      <c r="B152" s="60"/>
       <c r="M152" s="11"/>
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
@@ -7075,8 +7082,8 @@
       <c r="AA152" s="11"/>
     </row>
     <row r="153" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="62"/>
-      <c r="B153" s="62"/>
+      <c r="A153" s="60"/>
+      <c r="B153" s="60"/>
       <c r="M153" s="11"/>
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
@@ -7094,8 +7101,8 @@
       <c r="AA153" s="11"/>
     </row>
     <row r="154" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="62"/>
-      <c r="B154" s="62"/>
+      <c r="A154" s="60"/>
+      <c r="B154" s="60"/>
       <c r="M154" s="11"/>
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
@@ -7113,8 +7120,8 @@
       <c r="AA154" s="11"/>
     </row>
     <row r="155" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="62"/>
-      <c r="B155" s="62"/>
+      <c r="A155" s="60"/>
+      <c r="B155" s="60"/>
       <c r="M155" s="11"/>
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
@@ -7132,8 +7139,8 @@
       <c r="AA155" s="11"/>
     </row>
     <row r="156" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="62"/>
-      <c r="B156" s="62"/>
+      <c r="A156" s="60"/>
+      <c r="B156" s="60"/>
       <c r="M156" s="11"/>
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
@@ -7151,8 +7158,8 @@
       <c r="AA156" s="11"/>
     </row>
     <row r="157" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="62"/>
-      <c r="B157" s="62"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="60"/>
       <c r="M157" s="11"/>
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
@@ -7170,8 +7177,8 @@
       <c r="AA157" s="11"/>
     </row>
     <row r="158" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="62"/>
-      <c r="B158" s="62"/>
+      <c r="A158" s="60"/>
+      <c r="B158" s="60"/>
       <c r="M158" s="11"/>
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
@@ -7189,8 +7196,8 @@
       <c r="AA158" s="11"/>
     </row>
     <row r="159" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="62"/>
-      <c r="B159" s="62"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="60"/>
       <c r="M159" s="11"/>
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
@@ -7208,8 +7215,8 @@
       <c r="AA159" s="11"/>
     </row>
     <row r="160" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="62"/>
-      <c r="B160" s="62"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="60"/>
       <c r="M160" s="11"/>
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
@@ -7227,8 +7234,8 @@
       <c r="AA160" s="11"/>
     </row>
     <row r="161" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="62"/>
-      <c r="B161" s="62"/>
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
       <c r="M161" s="11"/>
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
@@ -7246,8 +7253,8 @@
       <c r="AA161" s="11"/>
     </row>
     <row r="162" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="62"/>
-      <c r="B162" s="62"/>
+      <c r="A162" s="60"/>
+      <c r="B162" s="60"/>
       <c r="M162" s="11"/>
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
@@ -7265,8 +7272,8 @@
       <c r="AA162" s="11"/>
     </row>
     <row r="163" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="62"/>
-      <c r="B163" s="62"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
       <c r="M163" s="11"/>
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
@@ -7284,8 +7291,8 @@
       <c r="AA163" s="11"/>
     </row>
     <row r="164" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="62"/>
-      <c r="B164" s="62"/>
+      <c r="A164" s="60"/>
+      <c r="B164" s="60"/>
       <c r="M164" s="11"/>
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
@@ -7303,8 +7310,8 @@
       <c r="AA164" s="11"/>
     </row>
     <row r="165" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="62"/>
-      <c r="B165" s="62"/>
+      <c r="A165" s="60"/>
+      <c r="B165" s="60"/>
       <c r="M165" s="11"/>
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
@@ -7322,8 +7329,8 @@
       <c r="AA165" s="11"/>
     </row>
     <row r="166" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="62"/>
-      <c r="B166" s="62"/>
+      <c r="A166" s="60"/>
+      <c r="B166" s="60"/>
       <c r="M166" s="11"/>
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
@@ -7341,8 +7348,8 @@
       <c r="AA166" s="11"/>
     </row>
     <row r="167" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="62"/>
-      <c r="B167" s="62"/>
+      <c r="A167" s="60"/>
+      <c r="B167" s="60"/>
       <c r="M167" s="11"/>
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
@@ -7360,8 +7367,8 @@
       <c r="AA167" s="11"/>
     </row>
     <row r="168" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="62"/>
-      <c r="B168" s="62"/>
+      <c r="A168" s="60"/>
+      <c r="B168" s="60"/>
       <c r="M168" s="11"/>
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
@@ -7379,8 +7386,8 @@
       <c r="AA168" s="11"/>
     </row>
     <row r="169" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="62"/>
-      <c r="B169" s="62"/>
+      <c r="A169" s="60"/>
+      <c r="B169" s="60"/>
       <c r="M169" s="11"/>
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
@@ -7398,8 +7405,8 @@
       <c r="AA169" s="11"/>
     </row>
     <row r="170" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="62"/>
-      <c r="B170" s="62"/>
+      <c r="A170" s="60"/>
+      <c r="B170" s="60"/>
       <c r="M170" s="11"/>
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
@@ -7417,8 +7424,8 @@
       <c r="AA170" s="11"/>
     </row>
     <row r="171" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="62"/>
-      <c r="B171" s="62"/>
+      <c r="A171" s="60"/>
+      <c r="B171" s="60"/>
       <c r="M171" s="11"/>
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
@@ -7436,8 +7443,8 @@
       <c r="AA171" s="11"/>
     </row>
     <row r="172" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="62"/>
-      <c r="B172" s="62"/>
+      <c r="A172" s="60"/>
+      <c r="B172" s="60"/>
       <c r="M172" s="11"/>
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
@@ -7455,8 +7462,8 @@
       <c r="AA172" s="11"/>
     </row>
     <row r="173" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A173" s="62"/>
-      <c r="B173" s="62"/>
+      <c r="A173" s="60"/>
+      <c r="B173" s="60"/>
       <c r="M173" s="11"/>
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
@@ -7474,8 +7481,8 @@
       <c r="AA173" s="11"/>
     </row>
     <row r="174" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="62"/>
-      <c r="B174" s="62"/>
+      <c r="A174" s="60"/>
+      <c r="B174" s="60"/>
       <c r="M174" s="11"/>
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
@@ -7493,8 +7500,8 @@
       <c r="AA174" s="11"/>
     </row>
     <row r="175" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="62"/>
-      <c r="B175" s="62"/>
+      <c r="A175" s="60"/>
+      <c r="B175" s="60"/>
       <c r="M175" s="11"/>
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
@@ -7512,8 +7519,8 @@
       <c r="AA175" s="11"/>
     </row>
     <row r="176" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="62"/>
-      <c r="B176" s="62"/>
+      <c r="A176" s="60"/>
+      <c r="B176" s="60"/>
       <c r="M176" s="11"/>
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
@@ -7531,8 +7538,8 @@
       <c r="AA176" s="11"/>
     </row>
     <row r="177" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="62"/>
-      <c r="B177" s="62"/>
+      <c r="A177" s="60"/>
+      <c r="B177" s="60"/>
       <c r="M177" s="11"/>
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
@@ -7550,8 +7557,8 @@
       <c r="AA177" s="11"/>
     </row>
     <row r="178" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="62"/>
-      <c r="B178" s="62"/>
+      <c r="A178" s="60"/>
+      <c r="B178" s="60"/>
       <c r="M178" s="11"/>
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
@@ -7569,8 +7576,8 @@
       <c r="AA178" s="11"/>
     </row>
     <row r="179" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A179" s="62"/>
-      <c r="B179" s="62"/>
+      <c r="A179" s="60"/>
+      <c r="B179" s="60"/>
       <c r="M179" s="11"/>
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
@@ -7588,8 +7595,8 @@
       <c r="AA179" s="11"/>
     </row>
     <row r="180" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="62"/>
-      <c r="B180" s="62"/>
+      <c r="A180" s="60"/>
+      <c r="B180" s="60"/>
       <c r="M180" s="11"/>
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
@@ -7607,8 +7614,8 @@
       <c r="AA180" s="11"/>
     </row>
     <row r="181" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="62"/>
-      <c r="B181" s="62"/>
+      <c r="A181" s="60"/>
+      <c r="B181" s="60"/>
       <c r="M181" s="11"/>
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
@@ -7626,8 +7633,8 @@
       <c r="AA181" s="11"/>
     </row>
     <row r="182" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="62"/>
-      <c r="B182" s="62"/>
+      <c r="A182" s="60"/>
+      <c r="B182" s="60"/>
       <c r="M182" s="11"/>
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
@@ -7645,8 +7652,8 @@
       <c r="AA182" s="11"/>
     </row>
     <row r="183" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="62"/>
-      <c r="B183" s="62"/>
+      <c r="A183" s="60"/>
+      <c r="B183" s="60"/>
       <c r="M183" s="11"/>
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
@@ -7664,8 +7671,8 @@
       <c r="AA183" s="11"/>
     </row>
     <row r="184" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="62"/>
-      <c r="B184" s="62"/>
+      <c r="A184" s="60"/>
+      <c r="B184" s="60"/>
       <c r="M184" s="11"/>
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
@@ -7683,8 +7690,8 @@
       <c r="AA184" s="11"/>
     </row>
     <row r="185" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="62"/>
-      <c r="B185" s="62"/>
+      <c r="A185" s="60"/>
+      <c r="B185" s="60"/>
       <c r="M185" s="11"/>
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
@@ -7702,8 +7709,8 @@
       <c r="AA185" s="11"/>
     </row>
     <row r="186" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="62"/>
-      <c r="B186" s="62"/>
+      <c r="A186" s="60"/>
+      <c r="B186" s="60"/>
       <c r="M186" s="11"/>
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
@@ -7721,8 +7728,8 @@
       <c r="AA186" s="11"/>
     </row>
     <row r="187" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="62"/>
-      <c r="B187" s="62"/>
+      <c r="A187" s="60"/>
+      <c r="B187" s="60"/>
       <c r="M187" s="11"/>
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
@@ -7740,8 +7747,8 @@
       <c r="AA187" s="11"/>
     </row>
     <row r="188" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A188" s="62"/>
-      <c r="B188" s="62"/>
+      <c r="A188" s="60"/>
+      <c r="B188" s="60"/>
       <c r="M188" s="11"/>
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
@@ -7759,8 +7766,8 @@
       <c r="AA188" s="11"/>
     </row>
     <row r="189" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A189" s="62"/>
-      <c r="B189" s="62"/>
+      <c r="A189" s="60"/>
+      <c r="B189" s="60"/>
       <c r="M189" s="11"/>
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
@@ -7778,8 +7785,8 @@
       <c r="AA189" s="11"/>
     </row>
     <row r="190" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A190" s="62"/>
-      <c r="B190" s="62"/>
+      <c r="A190" s="60"/>
+      <c r="B190" s="60"/>
       <c r="M190" s="11"/>
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
@@ -7797,8 +7804,8 @@
       <c r="AA190" s="11"/>
     </row>
     <row r="191" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="62"/>
-      <c r="B191" s="62"/>
+      <c r="A191" s="60"/>
+      <c r="B191" s="60"/>
       <c r="M191" s="11"/>
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
@@ -7816,8 +7823,8 @@
       <c r="AA191" s="11"/>
     </row>
     <row r="192" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="62"/>
-      <c r="B192" s="62"/>
+      <c r="A192" s="60"/>
+      <c r="B192" s="60"/>
       <c r="M192" s="11"/>
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
@@ -7835,8 +7842,8 @@
       <c r="AA192" s="11"/>
     </row>
     <row r="193" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A193" s="62"/>
-      <c r="B193" s="62"/>
+      <c r="A193" s="60"/>
+      <c r="B193" s="60"/>
       <c r="M193" s="11"/>
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
@@ -7854,8 +7861,8 @@
       <c r="AA193" s="11"/>
     </row>
     <row r="194" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A194" s="62"/>
-      <c r="B194" s="62"/>
+      <c r="A194" s="60"/>
+      <c r="B194" s="60"/>
       <c r="M194" s="11"/>
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
@@ -7873,8 +7880,8 @@
       <c r="AA194" s="11"/>
     </row>
     <row r="195" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="62"/>
-      <c r="B195" s="62"/>
+      <c r="A195" s="60"/>
+      <c r="B195" s="60"/>
       <c r="M195" s="11"/>
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
@@ -7892,8 +7899,8 @@
       <c r="AA195" s="11"/>
     </row>
     <row r="196" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="62"/>
-      <c r="B196" s="62"/>
+      <c r="A196" s="60"/>
+      <c r="B196" s="60"/>
       <c r="M196" s="11"/>
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
@@ -7911,8 +7918,8 @@
       <c r="AA196" s="11"/>
     </row>
     <row r="197" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="62"/>
-      <c r="B197" s="62"/>
+      <c r="A197" s="60"/>
+      <c r="B197" s="60"/>
       <c r="M197" s="11"/>
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
@@ -7930,8 +7937,8 @@
       <c r="AA197" s="11"/>
     </row>
     <row r="198" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A198" s="62"/>
-      <c r="B198" s="62"/>
+      <c r="A198" s="60"/>
+      <c r="B198" s="60"/>
       <c r="M198" s="11"/>
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
@@ -7949,8 +7956,8 @@
       <c r="AA198" s="11"/>
     </row>
     <row r="199" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="62"/>
-      <c r="B199" s="62"/>
+      <c r="A199" s="60"/>
+      <c r="B199" s="60"/>
       <c r="M199" s="11"/>
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
@@ -7968,8 +7975,8 @@
       <c r="AA199" s="13"/>
     </row>
     <row r="200" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="62"/>
-      <c r="B200" s="62"/>
+      <c r="A200" s="60"/>
+      <c r="B200" s="60"/>
       <c r="M200" s="11"/>
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
@@ -7987,8 +7994,8 @@
       <c r="AA200" s="11"/>
     </row>
     <row r="201" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A201" s="62"/>
-      <c r="B201" s="62"/>
+      <c r="A201" s="60"/>
+      <c r="B201" s="60"/>
       <c r="M201" s="11"/>
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
@@ -8006,8 +8013,8 @@
       <c r="AA201" s="11"/>
     </row>
     <row r="202" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A202" s="62"/>
-      <c r="B202" s="62"/>
+      <c r="A202" s="60"/>
+      <c r="B202" s="60"/>
       <c r="M202" s="11"/>
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
@@ -8025,8 +8032,8 @@
       <c r="AA202" s="11"/>
     </row>
     <row r="203" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="62"/>
-      <c r="B203" s="62"/>
+      <c r="A203" s="60"/>
+      <c r="B203" s="60"/>
       <c r="M203" s="11"/>
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
@@ -8044,8 +8051,8 @@
       <c r="AA203" s="11"/>
     </row>
     <row r="204" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="62"/>
-      <c r="B204" s="62"/>
+      <c r="A204" s="60"/>
+      <c r="B204" s="60"/>
       <c r="M204" s="11"/>
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
@@ -8063,8 +8070,8 @@
       <c r="AA204" s="11"/>
     </row>
     <row r="205" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="62"/>
-      <c r="B205" s="62"/>
+      <c r="A205" s="60"/>
+      <c r="B205" s="60"/>
       <c r="M205" s="11"/>
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
@@ -8082,8 +8089,8 @@
       <c r="AA205" s="11"/>
     </row>
     <row r="206" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A206" s="62"/>
-      <c r="B206" s="62"/>
+      <c r="A206" s="60"/>
+      <c r="B206" s="60"/>
       <c r="M206" s="11"/>
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
@@ -8101,8 +8108,8 @@
       <c r="AA206" s="11"/>
     </row>
     <row r="207" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="62"/>
-      <c r="B207" s="62"/>
+      <c r="A207" s="60"/>
+      <c r="B207" s="60"/>
       <c r="M207" s="11"/>
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
@@ -8120,8 +8127,8 @@
       <c r="AA207" s="11"/>
     </row>
     <row r="208" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="62"/>
-      <c r="B208" s="62"/>
+      <c r="A208" s="60"/>
+      <c r="B208" s="60"/>
       <c r="M208" s="11"/>
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
@@ -8139,8 +8146,8 @@
       <c r="AA208" s="11"/>
     </row>
     <row r="209" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A209" s="62"/>
-      <c r="B209" s="62"/>
+      <c r="A209" s="60"/>
+      <c r="B209" s="60"/>
       <c r="M209" s="11"/>
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
@@ -8158,8 +8165,8 @@
       <c r="AA209" s="11"/>
     </row>
     <row r="210" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A210" s="62"/>
-      <c r="B210" s="62"/>
+      <c r="A210" s="60"/>
+      <c r="B210" s="60"/>
       <c r="M210" s="11"/>
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
@@ -8177,8 +8184,8 @@
       <c r="AA210" s="11"/>
     </row>
     <row r="211" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="62"/>
-      <c r="B211" s="62"/>
+      <c r="A211" s="60"/>
+      <c r="B211" s="60"/>
       <c r="M211" s="11"/>
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
@@ -8196,8 +8203,8 @@
       <c r="AA211" s="11"/>
     </row>
     <row r="212" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="62"/>
-      <c r="B212" s="62"/>
+      <c r="A212" s="60"/>
+      <c r="B212" s="60"/>
       <c r="M212" s="11"/>
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
@@ -8215,8 +8222,8 @@
       <c r="AA212" s="11"/>
     </row>
     <row r="213" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="62"/>
-      <c r="B213" s="62"/>
+      <c r="A213" s="60"/>
+      <c r="B213" s="60"/>
       <c r="M213" s="11"/>
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
@@ -8234,8 +8241,8 @@
       <c r="AA213" s="11"/>
     </row>
     <row r="214" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A214" s="62"/>
-      <c r="B214" s="62"/>
+      <c r="A214" s="60"/>
+      <c r="B214" s="60"/>
       <c r="M214" s="11"/>
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
@@ -8253,8 +8260,8 @@
       <c r="AA214" s="11"/>
     </row>
     <row r="215" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A215" s="62"/>
-      <c r="B215" s="62"/>
+      <c r="A215" s="60"/>
+      <c r="B215" s="60"/>
       <c r="M215" s="11"/>
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
@@ -8272,8 +8279,8 @@
       <c r="AA215" s="11"/>
     </row>
     <row r="216" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="62"/>
-      <c r="B216" s="62"/>
+      <c r="A216" s="60"/>
+      <c r="B216" s="60"/>
       <c r="M216" s="11"/>
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
@@ -8291,8 +8298,8 @@
       <c r="AA216" s="11"/>
     </row>
     <row r="217" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="62"/>
-      <c r="B217" s="62"/>
+      <c r="A217" s="60"/>
+      <c r="B217" s="60"/>
       <c r="M217" s="11"/>
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
@@ -8310,8 +8317,8 @@
       <c r="AA217" s="11"/>
     </row>
     <row r="218" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="62"/>
-      <c r="B218" s="62"/>
+      <c r="A218" s="60"/>
+      <c r="B218" s="60"/>
       <c r="M218" s="11"/>
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
@@ -8329,8 +8336,8 @@
       <c r="AA218" s="11"/>
     </row>
     <row r="219" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="62"/>
-      <c r="B219" s="62"/>
+      <c r="A219" s="60"/>
+      <c r="B219" s="60"/>
       <c r="M219" s="11"/>
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
@@ -8348,8 +8355,8 @@
       <c r="AA219" s="11"/>
     </row>
     <row r="220" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="62"/>
-      <c r="B220" s="62"/>
+      <c r="A220" s="60"/>
+      <c r="B220" s="60"/>
       <c r="M220" s="11"/>
       <c r="N220" s="11"/>
       <c r="O220" s="11"/>
@@ -8367,8 +8374,8 @@
       <c r="AA220" s="11"/>
     </row>
     <row r="221" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="62"/>
-      <c r="B221" s="62"/>
+      <c r="A221" s="60"/>
+      <c r="B221" s="60"/>
       <c r="M221" s="11"/>
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
@@ -8386,8 +8393,8 @@
       <c r="AA221" s="11"/>
     </row>
     <row r="222" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A222" s="62"/>
-      <c r="B222" s="62"/>
+      <c r="A222" s="60"/>
+      <c r="B222" s="60"/>
       <c r="M222" s="11"/>
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
@@ -8405,8 +8412,8 @@
       <c r="AA222" s="11"/>
     </row>
     <row r="223" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A223" s="62"/>
-      <c r="B223" s="62"/>
+      <c r="A223" s="60"/>
+      <c r="B223" s="60"/>
       <c r="M223" s="11"/>
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
@@ -8424,8 +8431,8 @@
       <c r="AA223" s="11"/>
     </row>
     <row r="224" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="62"/>
-      <c r="B224" s="62"/>
+      <c r="A224" s="60"/>
+      <c r="B224" s="60"/>
       <c r="M224" s="11"/>
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
@@ -8443,8 +8450,8 @@
       <c r="AA224" s="11"/>
     </row>
     <row r="225" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A225" s="62"/>
-      <c r="B225" s="62"/>
+      <c r="A225" s="60"/>
+      <c r="B225" s="60"/>
       <c r="M225" s="11"/>
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
@@ -8462,8 +8469,8 @@
       <c r="AA225" s="11"/>
     </row>
     <row r="226" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A226" s="62"/>
-      <c r="B226" s="62"/>
+      <c r="A226" s="60"/>
+      <c r="B226" s="60"/>
       <c r="M226" s="11"/>
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
@@ -8481,8 +8488,8 @@
       <c r="AA226" s="11"/>
     </row>
     <row r="227" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A227" s="62"/>
-      <c r="B227" s="62"/>
+      <c r="A227" s="60"/>
+      <c r="B227" s="60"/>
       <c r="M227" s="11"/>
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
@@ -8500,8 +8507,8 @@
       <c r="AA227" s="11"/>
     </row>
     <row r="228" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="62"/>
-      <c r="B228" s="62"/>
+      <c r="A228" s="60"/>
+      <c r="B228" s="60"/>
       <c r="M228" s="11"/>
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
@@ -8519,8 +8526,8 @@
       <c r="AA228" s="11"/>
     </row>
     <row r="229" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="62"/>
-      <c r="B229" s="62"/>
+      <c r="A229" s="60"/>
+      <c r="B229" s="60"/>
       <c r="M229" s="11"/>
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
@@ -8538,8 +8545,8 @@
       <c r="AA229" s="11"/>
     </row>
     <row r="230" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="62"/>
-      <c r="B230" s="62"/>
+      <c r="A230" s="60"/>
+      <c r="B230" s="60"/>
       <c r="M230" s="11"/>
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
@@ -8557,8 +8564,8 @@
       <c r="AA230" s="11"/>
     </row>
     <row r="231" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A231" s="62"/>
-      <c r="B231" s="62"/>
+      <c r="A231" s="60"/>
+      <c r="B231" s="60"/>
       <c r="M231" s="11"/>
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
@@ -8576,8 +8583,8 @@
       <c r="AA231" s="11"/>
     </row>
     <row r="232" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="62"/>
-      <c r="B232" s="62"/>
+      <c r="A232" s="60"/>
+      <c r="B232" s="60"/>
       <c r="M232" s="11"/>
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
@@ -8595,8 +8602,8 @@
       <c r="AA232" s="11"/>
     </row>
     <row r="233" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A233" s="62"/>
-      <c r="B233" s="62"/>
+      <c r="A233" s="60"/>
+      <c r="B233" s="60"/>
       <c r="M233" s="11"/>
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
@@ -8614,8 +8621,8 @@
       <c r="AA233" s="11"/>
     </row>
     <row r="234" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="62"/>
-      <c r="B234" s="62"/>
+      <c r="A234" s="60"/>
+      <c r="B234" s="60"/>
       <c r="M234" s="11"/>
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
@@ -8633,8 +8640,8 @@
       <c r="AA234" s="11"/>
     </row>
     <row r="235" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="62"/>
-      <c r="B235" s="62"/>
+      <c r="A235" s="60"/>
+      <c r="B235" s="60"/>
       <c r="M235" s="11"/>
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
@@ -8652,8 +8659,8 @@
       <c r="AA235" s="11"/>
     </row>
     <row r="236" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="62"/>
-      <c r="B236" s="62"/>
+      <c r="A236" s="60"/>
+      <c r="B236" s="60"/>
       <c r="M236" s="11"/>
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
@@ -8671,8 +8678,8 @@
       <c r="AA236" s="11"/>
     </row>
     <row r="237" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="62"/>
-      <c r="B237" s="62"/>
+      <c r="A237" s="60"/>
+      <c r="B237" s="60"/>
       <c r="M237" s="11"/>
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
@@ -8690,8 +8697,8 @@
       <c r="AA237" s="11"/>
     </row>
     <row r="238" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="62"/>
-      <c r="B238" s="62"/>
+      <c r="A238" s="60"/>
+      <c r="B238" s="60"/>
       <c r="M238" s="11"/>
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
@@ -8709,8 +8716,8 @@
       <c r="AA238" s="11"/>
     </row>
     <row r="239" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="62"/>
-      <c r="B239" s="62"/>
+      <c r="A239" s="60"/>
+      <c r="B239" s="60"/>
       <c r="M239" s="11"/>
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
@@ -8728,8 +8735,8 @@
       <c r="AA239" s="11"/>
     </row>
     <row r="240" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="62"/>
-      <c r="B240" s="62"/>
+      <c r="A240" s="60"/>
+      <c r="B240" s="60"/>
       <c r="M240" s="11"/>
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
@@ -8747,8 +8754,8 @@
       <c r="AA240" s="11"/>
     </row>
     <row r="241" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="62"/>
-      <c r="B241" s="62"/>
+      <c r="A241" s="60"/>
+      <c r="B241" s="60"/>
       <c r="M241" s="11"/>
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
@@ -8766,8 +8773,8 @@
       <c r="AA241" s="11"/>
     </row>
     <row r="242" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="62"/>
-      <c r="B242" s="62"/>
+      <c r="A242" s="60"/>
+      <c r="B242" s="60"/>
       <c r="M242" s="11"/>
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
@@ -8785,8 +8792,8 @@
       <c r="AA242" s="11"/>
     </row>
     <row r="243" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="62"/>
-      <c r="B243" s="62"/>
+      <c r="A243" s="60"/>
+      <c r="B243" s="60"/>
       <c r="M243" s="11"/>
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
@@ -8804,8 +8811,8 @@
       <c r="AA243" s="11"/>
     </row>
     <row r="244" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="62"/>
-      <c r="B244" s="62"/>
+      <c r="A244" s="60"/>
+      <c r="B244" s="60"/>
       <c r="M244" s="11"/>
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
@@ -8823,8 +8830,8 @@
       <c r="AA244" s="11"/>
     </row>
     <row r="245" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="62"/>
-      <c r="B245" s="62"/>
+      <c r="A245" s="60"/>
+      <c r="B245" s="60"/>
       <c r="M245" s="11"/>
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
@@ -8842,10 +8849,12 @@
       <c r="AA245" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="229">
+  <mergeCells count="231">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A37:B37"/>
@@ -27321,14 +27330,14 @@
       <c r="E1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="H1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="K1" s="69"/>
+      <c r="K1" s="67"/>
       <c r="N1" s="27" t="s">
         <v>494</v>
       </c>
@@ -27349,14 +27358,14 @@
       <c r="E2" s="15">
         <v>0.2</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="70" t="s">
         <v>530</v>
       </c>
       <c r="H2" s="6">
         <f t="array" ref="H2">IFERROR(INDEX(C2:E26,MATCH('eHP Calc'!F17&amp;'eHP Calc'!F18,A2:A26&amp;B2:B26,0),MATCH('eHP Calc'!C21,C1:E1,0)),1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="57" t="s">
         <v>532</v>
       </c>
       <c r="K2" s="6">
@@ -27383,14 +27392,14 @@
       <c r="E3" s="15">
         <v>0.2</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="70" t="s">
         <v>525</v>
       </c>
       <c r="H3" s="6">
         <f t="array" ref="H3">IFERROR(INDEX(C2:E26,MATCH('eHP Calc'!F17&amp;'eHP Calc'!F18,A2:A26&amp;B2:B26,0),MATCH('eHP Calc'!F61,C1:E1,0)),1)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="57" t="s">
         <v>531</v>
       </c>
       <c r="K3" s="6">
@@ -27414,7 +27423,7 @@
       <c r="E4" s="15">
         <v>0.6</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="57" t="s">
         <v>492</v>
       </c>
       <c r="K4" s="6">
@@ -27455,10 +27464,10 @@
       <c r="E6" s="15">
         <v>0.4</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="71" t="s">
         <v>534</v>
       </c>
-      <c r="K6" s="74"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -27476,7 +27485,7 @@
       <c r="E7" s="15">
         <v>0.7</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="71" t="s">
         <v>535</v>
       </c>
       <c r="K7" s="32">
@@ -27504,7 +27513,7 @@
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$F$17="General",C29,'eHP Calc'!$F$17="DD",D29,'eHP Calc'!$F$17="CL",E29,'eHP Calc'!$F$17="CA",F29,'eHP Calc'!$F$17="BB",G29)," ")</f>
         <v>General</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="71" t="s">
         <v>539</v>
       </c>
       <c r="K8" s="32">
@@ -27532,7 +27541,7 @@
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$F$17="General",C30,'eHP Calc'!$F$17="DD",D30,'eHP Calc'!$F$17="CL",E30,'eHP Calc'!$F$17="CA",F30,'eHP Calc'!$F$17="BB",G30),"")</f>
         <v>0</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="71" t="s">
         <v>537</v>
       </c>
       <c r="K9" s="32">
@@ -27563,10 +27572,10 @@
       <c r="H10" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="71" t="s">
         <v>536</v>
       </c>
-      <c r="K10" s="74"/>
+      <c r="K10" s="72"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -27588,7 +27597,7 @@
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$F$17="General",C32,'eHP Calc'!$F$17="DD",D32,'eHP Calc'!$F$17="CL",E32,'eHP Calc'!$F$17="CA",F32,'eHP Calc'!$F$17="BB",G32),"")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="73" t="s">
         <v>535</v>
       </c>
       <c r="K11" s="32">
@@ -27616,7 +27625,7 @@
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$F$17="General",C33,'eHP Calc'!$F$17="DD",D33,'eHP Calc'!$F$17="CL",E33,'eHP Calc'!$F$17="CA",F33,'eHP Calc'!$F$17="BB",G33),"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="73" t="s">
         <v>539</v>
       </c>
       <c r="K12" s="32">
@@ -27644,7 +27653,7 @@
         <f>IFERROR(_xlfn.IFS('eHP Calc'!$F$17="General",C34,'eHP Calc'!$F$17="DD",D34,'eHP Calc'!$F$17="CL",E34,'eHP Calc'!$F$17="CA",F34,'eHP Calc'!$F$17="BB",G34),"")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="73" t="s">
         <v>537</v>
       </c>
       <c r="K13" s="32">
